--- a/NZU PnL Output.xlsx
+++ b/NZU PnL Output.xlsx
@@ -439,7 +439,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E42"/>
+  <dimension ref="A1:E57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,699 +476,954 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="B2" t="n">
-        <v>-792279</v>
+        <v>-461129.25</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>-211556.2073162088</v>
+        <v>-265453.0685156828</v>
       </c>
       <c r="E2" t="n">
-        <v>-1003835.207316209</v>
+        <v>-726582.3185156828</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="B3" t="n">
-        <v>-724851</v>
+        <v>-429866.25</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>-184886.2986015375</v>
+        <v>-217510.2420710672</v>
       </c>
       <c r="E3" t="n">
-        <v>-909737.2986015375</v>
+        <v>-647376.4920710672</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="B4" t="n">
-        <v>-657423</v>
+        <v>-398603.25</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>-160598.5969162845</v>
+        <v>-174751.2336195467</v>
       </c>
       <c r="E4" t="n">
-        <v>-818021.5969162845</v>
+        <v>-573354.4836195466</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="B5" t="n">
-        <v>-589995</v>
+        <v>-367340.25</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>-138635.1186584554</v>
+        <v>-136993.1316602656</v>
       </c>
       <c r="E5" t="n">
-        <v>-728630.1186584554</v>
+        <v>-504333.3816602656</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="B6" t="n">
-        <v>-522567</v>
+        <v>-336077.25</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>-118839.9788863722</v>
+        <v>-103975.3908233099</v>
       </c>
       <c r="E6" t="n">
-        <v>-641406.9788863722</v>
+        <v>-440052.6408233099</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="B7" t="n">
-        <v>-455139</v>
+        <v>-304814.25</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>-100955.4705462569</v>
+        <v>-75379.90103960402</v>
       </c>
       <c r="E7" t="n">
-        <v>-556094.4705462569</v>
+        <v>-380194.151039604</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="B8" t="n">
-        <v>-387711</v>
+        <v>-273551.25</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>-84624.83503090584</v>
+        <v>-50851.75095707709</v>
       </c>
       <c r="E8" t="n">
-        <v>-472335.8350309058</v>
+        <v>-324403.0009570771</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="B9" t="n">
-        <v>-320283</v>
+        <v>-242288.25</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>-69402.11257946165</v>
+        <v>-30019.24705810539</v>
       </c>
       <c r="E9" t="n">
-        <v>-389685.1125794617</v>
+        <v>-272307.4970581054</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="B10" t="n">
-        <v>-252855</v>
+        <v>-211025.25</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>-54768.780082552</v>
+        <v>-12512.07321504726</v>
       </c>
       <c r="E10" t="n">
-        <v>-307623.780082552</v>
+        <v>-223537.3232150472</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="B11" t="n">
-        <v>-185427</v>
+        <v>-179762.25</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>-40156.17491994653</v>
+        <v>2023.196402599075</v>
       </c>
       <c r="E11" t="n">
-        <v>-225583.1749199465</v>
+        <v>-177739.0535974009</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="B12" t="n">
-        <v>-117999</v>
+        <v>-148499.25</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>-24972.06668251191</v>
+        <v>13910.71466267253</v>
       </c>
       <c r="E12" t="n">
-        <v>-142971.0666825119</v>
+        <v>-134588.5353373275</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="B13" t="n">
-        <v>-50571</v>
+        <v>-117236.25</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>-8629.273331548948</v>
+        <v>23436.32678541439</v>
       </c>
       <c r="E13" t="n">
-        <v>-59200.27333154895</v>
+        <v>-93799.92321458561</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="B14" t="n">
-        <v>16857</v>
+        <v>-85973.25</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>9425.998737427624</v>
+        <v>30841.87538390818</v>
       </c>
       <c r="E14" t="n">
-        <v>26282.99873742762</v>
+        <v>-55131.37461609182</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="B15" t="n">
-        <v>84285</v>
+        <v>-54710.25</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>29688.34401067162</v>
+        <v>36322.64849288356</v>
       </c>
       <c r="E15" t="n">
-        <v>113973.3440106716</v>
+        <v>-18387.60150711644</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="B16" t="n">
-        <v>151713</v>
+        <v>-23447.25</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>52571.79152111609</v>
+        <v>40027.6206205965</v>
       </c>
       <c r="E16" t="n">
-        <v>204284.7915211161</v>
+        <v>16580.3706205965</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="B17" t="n">
-        <v>219141</v>
+        <v>7815.75</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>78394.24804994903</v>
+        <v>42062.01902084349</v>
       </c>
       <c r="E17" t="n">
-        <v>297535.2480499491</v>
+        <v>49877.76902084349</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="B18" t="n">
-        <v>286569</v>
+        <v>39078.75</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>107368.447005988</v>
+        <v>42491.66748176247</v>
       </c>
       <c r="E18" t="n">
-        <v>393937.447005988</v>
+        <v>81570.41748176247</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="B19" t="n">
-        <v>353997</v>
+        <v>70341.75</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>139599.4154267941</v>
+        <v>41348.52134245864</v>
       </c>
       <c r="E19" t="n">
-        <v>493596.4154267941</v>
+        <v>111690.2713424586</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="B20" t="n">
-        <v>421425</v>
+        <v>101604.75</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>175087.8692106509</v>
+        <v>38636.81218794137</v>
       </c>
       <c r="E20" t="n">
-        <v>596512.8692106509</v>
+        <v>140241.5621879414</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="B21" t="n">
-        <v>488853</v>
+        <v>132867.75</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>213738.4964364184</v>
+        <v>34339.26748559699</v>
       </c>
       <c r="E21" t="n">
-        <v>702591.4964364184</v>
+        <v>167207.017485597</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="B22" t="n">
-        <v>556281</v>
+        <v>164130.75</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>255371.8267874098</v>
+        <v>28422.9538231093</v>
       </c>
       <c r="E22" t="n">
-        <v>811652.8267874098</v>
+        <v>192553.7038231093</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="B23" t="n">
-        <v>623709</v>
+        <v>195393.75</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>299738.3128904229</v>
+        <v>20844.40283301178</v>
       </c>
       <c r="E23" t="n">
-        <v>923447.3128904229</v>
+        <v>216238.1528330118</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="B24" t="n">
-        <v>691137</v>
+        <v>226656.75</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>346533.3392101788</v>
+        <v>11553.80390155221</v>
       </c>
       <c r="E24" t="n">
-        <v>1037670.339210179</v>
+        <v>238210.5539015522</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="B25" t="n">
-        <v>758565</v>
+        <v>257919.75</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>395412.0800794536</v>
+        <v>498.173837495764</v>
       </c>
       <c r="E25" t="n">
-        <v>1153977.080079454</v>
+        <v>258417.9238374958</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="B26" t="n">
-        <v>825993</v>
+        <v>289182.75</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>446003.3978715272</v>
+        <v>-12376.47182414361</v>
       </c>
       <c r="E26" t="n">
-        <v>1271996.397871527</v>
+        <v>276806.2781758564</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="B27" t="n">
-        <v>893421</v>
+        <v>320445.75</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>497922.2560341711</v>
+        <v>-27123.82837837738</v>
       </c>
       <c r="E27" t="n">
-        <v>1391343.256034171</v>
+        <v>293321.9216216226</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="B28" t="n">
-        <v>960849</v>
+        <v>351708.75</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>550780.3809323783</v>
+        <v>-43796.71013585741</v>
       </c>
       <c r="E28" t="n">
-        <v>1511629.380932378</v>
+        <v>307912.0398641426</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="B29" t="n">
-        <v>1028277</v>
+        <v>382971.75</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>604195.1162094814</v>
+        <v>-62446.9407638383</v>
       </c>
       <c r="E29" t="n">
-        <v>1632472.116209481</v>
+        <v>320524.8092361617</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="B30" t="n">
-        <v>1095705</v>
+        <v>414234.75</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>657796.5625687017</v>
+        <v>-83125.50412561207</v>
       </c>
       <c r="E30" t="n">
-        <v>1753501.562568702</v>
+        <v>331109.2458743879</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="B31" t="n">
-        <v>1163133</v>
+        <v>445497.75</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>711233.1850058403</v>
+        <v>-105882.7533809746</v>
       </c>
       <c r="E31" t="n">
-        <v>1874366.18500584</v>
+        <v>339614.9966190254</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="B32" t="n">
-        <v>1230561</v>
+        <v>476760.75</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>764176.1071976029</v>
+        <v>-130768.5136938986</v>
       </c>
       <c r="E32" t="n">
-        <v>1994737.107197603</v>
+        <v>345992.2363061014</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="B33" t="n">
-        <v>1297989</v>
+        <v>508023.75</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>816322.3119247459</v>
+        <v>-157831.962353055</v>
       </c>
       <c r="E33" t="n">
-        <v>2114311.311924746</v>
+        <v>350191.787646945</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="B34" t="n">
-        <v>1365417</v>
+        <v>539286.75</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>867396.9411133495</v>
+        <v>-187121.2223296888</v>
       </c>
       <c r="E34" t="n">
-        <v>2232813.94111335</v>
+        <v>352165.5276703112</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="B35" t="n">
-        <v>1432845</v>
+        <v>570549.75</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>917154.8520180755</v>
+        <v>-218682.6551235717</v>
       </c>
       <c r="E35" t="n">
-        <v>2349999.852018076</v>
+        <v>351867.0948764283</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="B36" t="n">
-        <v>1500273</v>
+        <v>601812.75</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>965381.5472220948</v>
+        <v>-252559.8814967307</v>
       </c>
       <c r="E36" t="n">
-        <v>2465654.547222095</v>
+        <v>349252.8685032693</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="B37" t="n">
-        <v>1567701</v>
+        <v>633075.75</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>1011893.56220614</v>
+        <v>-288792.591363707</v>
       </c>
       <c r="E37" t="n">
-        <v>2579594.56220614</v>
+        <v>344283.158636293</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="B38" t="n">
-        <v>1635129</v>
+        <v>664338.75</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>1056538.368839729</v>
+        <v>-327415.225341485</v>
       </c>
       <c r="E38" t="n">
-        <v>2691667.368839729</v>
+        <v>336923.524658515</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="B39" t="n">
-        <v>1702557</v>
+        <v>695601.75</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>1099193.837298843</v>
+        <v>-368455.6203370809</v>
       </c>
       <c r="E39" t="n">
-        <v>2801750.837298843</v>
+        <v>327146.1296629191</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="B40" t="n">
-        <v>1769985</v>
+        <v>726864.75</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>1139767.291809541</v>
+        <v>-411933.7112438937</v>
       </c>
       <c r="E40" t="n">
-        <v>2909752.291809541</v>
+        <v>314931.0387561063</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="B41" t="n">
-        <v>1837413</v>
+        <v>758127.75</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>1178194.195358238</v>
+        <v>-457860.3722378924</v>
       </c>
       <c r="E41" t="n">
-        <v>3015607.195358238</v>
+        <v>300267.3777621076</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
+        <v>80</v>
+      </c>
+      <c r="B42" t="n">
+        <v>789390.75</v>
+      </c>
+      <c r="C42" t="n">
+        <v>0</v>
+      </c>
+      <c r="D42" t="n">
+        <v>-506236.4665933106</v>
+      </c>
+      <c r="E42" t="n">
+        <v>283154.2834066894</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>81</v>
+      </c>
+      <c r="B43" t="n">
+        <v>820653.75</v>
+      </c>
+      <c r="C43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D43" t="n">
+        <v>-557052.1557192783</v>
+      </c>
+      <c r="E43" t="n">
+        <v>263601.5942807217</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>82</v>
+      </c>
+      <c r="B44" t="n">
+        <v>851916.75</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0</v>
+      </c>
+      <c r="D44" t="n">
+        <v>-610286.4984245612</v>
+      </c>
+      <c r="E44" t="n">
+        <v>241630.2515754388</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>83</v>
+      </c>
+      <c r="B45" t="n">
+        <v>883179.75</v>
+      </c>
+      <c r="C45" t="n">
+        <v>0</v>
+      </c>
+      <c r="D45" t="n">
+        <v>-665907.3520833545</v>
+      </c>
+      <c r="E45" t="n">
+        <v>217272.3979166455</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>84</v>
+      </c>
+      <c r="B46" t="n">
+        <v>914442.75</v>
+      </c>
+      <c r="C46" t="n">
+        <v>0</v>
+      </c>
+      <c r="D46" t="n">
+        <v>-723871.5698163395</v>
+      </c>
+      <c r="E46" t="n">
+        <v>190571.1801836605</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>85</v>
+      </c>
+      <c r="B47" t="n">
+        <v>945705.75</v>
+      </c>
+      <c r="C47" t="n">
+        <v>0</v>
+      </c>
+      <c r="D47" t="n">
+        <v>-784125.472988822</v>
+      </c>
+      <c r="E47" t="n">
+        <v>161580.277011178</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>86</v>
+      </c>
+      <c r="B48" t="n">
+        <v>976968.75</v>
+      </c>
+      <c r="C48" t="n">
+        <v>0</v>
+      </c>
+      <c r="D48" t="n">
+        <v>-846605.5668106857</v>
+      </c>
+      <c r="E48" t="n">
+        <v>130363.1831893143</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>87</v>
+      </c>
+      <c r="B49" t="n">
+        <v>1008231.75</v>
+      </c>
+      <c r="C49" t="n">
+        <v>0</v>
+      </c>
+      <c r="D49" t="n">
+        <v>-911239.4587848148</v>
+      </c>
+      <c r="E49" t="n">
+        <v>96992.29121518519</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>88</v>
+      </c>
+      <c r="B50" t="n">
+        <v>1039494.75</v>
+      </c>
+      <c r="C50" t="n">
+        <v>0</v>
+      </c>
+      <c r="D50" t="n">
+        <v>-977946.9350815228</v>
+      </c>
+      <c r="E50" t="n">
+        <v>61547.8149184772</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>89</v>
+      </c>
+      <c r="B51" t="n">
+        <v>1070757.75</v>
+      </c>
+      <c r="C51" t="n">
+        <v>0</v>
+      </c>
+      <c r="D51" t="n">
+        <v>-1046641.148293203</v>
+      </c>
+      <c r="E51" t="n">
+        <v>24116.60170679726</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>90</v>
+      </c>
+      <c r="B52" t="n">
+        <v>1102020.75</v>
+      </c>
+      <c r="C52" t="n">
+        <v>0</v>
+      </c>
+      <c r="D52" t="n">
+        <v>-1117229.870983729</v>
+      </c>
+      <c r="E52" t="n">
+        <v>-15209.12098372914</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>91</v>
+      </c>
+      <c r="B53" t="n">
+        <v>1133283.75</v>
+      </c>
+      <c r="C53" t="n">
+        <v>0</v>
+      </c>
+      <c r="D53" t="n">
+        <v>-1189616.772459332</v>
+      </c>
+      <c r="E53" t="n">
+        <v>-56333.0224593319</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>92</v>
+      </c>
+      <c r="B54" t="n">
+        <v>1164546.75</v>
+      </c>
+      <c r="C54" t="n">
+        <v>0</v>
+      </c>
+      <c r="D54" t="n">
+        <v>-1263702.68070275</v>
+      </c>
+      <c r="E54" t="n">
+        <v>-99155.93070275011</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>93</v>
+      </c>
+      <c r="B55" t="n">
+        <v>1195809.75</v>
+      </c>
+      <c r="C55" t="n">
+        <v>0</v>
+      </c>
+      <c r="D55" t="n">
+        <v>-1339386.796908671</v>
+      </c>
+      <c r="E55" t="n">
+        <v>-143577.0469086706</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>94</v>
+      </c>
+      <c r="B56" t="n">
+        <v>1227072.75</v>
+      </c>
+      <c r="C56" t="n">
+        <v>0</v>
+      </c>
+      <c r="D56" t="n">
+        <v>-1416567.836067527</v>
+      </c>
+      <c r="E56" t="n">
+        <v>-189495.0860675271</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
         <v>95</v>
       </c>
-      <c r="B42" t="n">
-        <v>1904841</v>
-      </c>
-      <c r="C42" t="n">
-        <v>0</v>
-      </c>
-      <c r="D42" t="n">
-        <v>1214436.502747078</v>
-      </c>
-      <c r="E42" t="n">
-        <v>3119277.502747078</v>
+      <c r="B57" t="n">
+        <v>1258335.75</v>
+      </c>
+      <c r="C57" t="n">
+        <v>0</v>
+      </c>
+      <c r="D57" t="n">
+        <v>-1495145.073171185</v>
+      </c>
+      <c r="E57" t="n">
+        <v>-236809.3231711851</v>
       </c>
     </row>
   </sheetData>
@@ -1182,7 +1437,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E42"/>
+  <dimension ref="A1:E57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1219,699 +1474,954 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="B2" t="n">
-        <v>-792279</v>
+        <v>-461129.25</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>-178847.1079235175</v>
+        <v>-221330.7495102272</v>
       </c>
       <c r="E2" t="n">
-        <v>-971126.1079235175</v>
+        <v>-682459.9995102272</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="B3" t="n">
-        <v>-724851</v>
+        <v>-429866.25</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>-146117.658624533</v>
+        <v>-169859.6511644838</v>
       </c>
       <c r="E3" t="n">
-        <v>-870968.6586245331</v>
+        <v>-599725.9011644837</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="B4" t="n">
-        <v>-657423</v>
+        <v>-398603.25</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>-116485.9099670626</v>
+        <v>-125064.0689851782</v>
       </c>
       <c r="E4" t="n">
-        <v>-773908.9099670626</v>
+        <v>-523667.3189851781</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="B5" t="n">
-        <v>-589995</v>
+        <v>-367340.25</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>-90581.14011764924</v>
+        <v>-86749.55918744989</v>
       </c>
       <c r="E5" t="n">
-        <v>-680576.1401176492</v>
+        <v>-454089.8091874499</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="B6" t="n">
-        <v>-522567</v>
+        <v>-336077.25</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>-68967.27466203229</v>
+        <v>-54536.9651491615</v>
       </c>
       <c r="E6" t="n">
-        <v>-591534.2746620323</v>
+        <v>-390614.2151491615</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="B7" t="n">
-        <v>-455139</v>
+        <v>-304814.25</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>-52041.48783517422</v>
+        <v>-27906.75211254803</v>
       </c>
       <c r="E7" t="n">
-        <v>-507180.4878351742</v>
+        <v>-332721.002112548</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="B8" t="n">
-        <v>-387711</v>
+        <v>-273551.25</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>-39940.73734052089</v>
+        <v>-6247.86457585985</v>
       </c>
       <c r="E8" t="n">
-        <v>-427651.7373405209</v>
+        <v>-279799.1145758599</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="B9" t="n">
-        <v>-320283</v>
+        <v>-242288.25</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>-32481.9822085534</v>
+        <v>11095.30177831218</v>
       </c>
       <c r="E9" t="n">
-        <v>-352764.9822085534</v>
+        <v>-231192.9482216878</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="B10" t="n">
-        <v>-252855</v>
+        <v>-211025.25</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>-29154.97509014202</v>
+        <v>24782.46067047091</v>
       </c>
       <c r="E10" t="n">
-        <v>-282009.975090142</v>
+        <v>-186242.7893295291</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="B11" t="n">
-        <v>-185427</v>
+        <v>-179762.25</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>-29172.81177095168</v>
+        <v>35446.07819844635</v>
       </c>
       <c r="E11" t="n">
-        <v>-214599.8117709517</v>
+        <v>-144316.1718015536</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="B12" t="n">
-        <v>-117999</v>
+        <v>-148499.25</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>-31569.72888201272</v>
+        <v>43669.60003184443</v>
       </c>
       <c r="E12" t="n">
-        <v>-149568.7288820127</v>
+        <v>-104829.6499681556</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="B13" t="n">
-        <v>-50571</v>
+        <v>-117236.25</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>-35323.45013767478</v>
+        <v>49974.01278597041</v>
       </c>
       <c r="E13" t="n">
-        <v>-85894.45013767478</v>
+        <v>-67262.23721402959</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="B14" t="n">
-        <v>16857</v>
+        <v>-85973.25</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>-39474.50970182819</v>
+        <v>54810.19661426781</v>
       </c>
       <c r="E14" t="n">
-        <v>-22617.50970182819</v>
+        <v>-31163.05338573219</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="B15" t="n">
-        <v>84285</v>
+        <v>-54710.25</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>-43218.29207241905</v>
+        <v>58553.85359067783</v>
       </c>
       <c r="E15" t="n">
-        <v>41066.70792758095</v>
+        <v>3843.603590677827</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="B16" t="n">
-        <v>151713</v>
+        <v>-23447.25</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>-45955.03584646134</v>
+        <v>61499.94219901603</v>
       </c>
       <c r="E16" t="n">
-        <v>105757.9641535387</v>
+        <v>38052.69219901603</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="B17" t="n">
-        <v>219141</v>
+        <v>7815.75</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>-47295.09611678528</v>
+        <v>63854.67376465665</v>
       </c>
       <c r="E17" t="n">
-        <v>171845.9038832147</v>
+        <v>71670.42376465665</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="B18" t="n">
-        <v>286569</v>
+        <v>39078.75</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>-47027.55798706847</v>
+        <v>65725.17676939342</v>
       </c>
       <c r="E18" t="n">
-        <v>239541.4420129315</v>
+        <v>104803.9267693934</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="B19" t="n">
-        <v>353997</v>
+        <v>70341.75</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>1757.843646337561</v>
+        <v>67109.45400738057</v>
       </c>
       <c r="E19" t="n">
-        <v>355754.8436463376</v>
+        <v>137451.2040073806</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="B20" t="n">
-        <v>421425</v>
+        <v>101604.75</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>52253.62988270348</v>
+        <v>67891.37192430324</v>
       </c>
       <c r="E20" t="n">
-        <v>473678.6298827035</v>
+        <v>169496.1219243032</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="B21" t="n">
-        <v>488853</v>
+        <v>132867.75</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>104457.9267878637</v>
+        <v>67846.10447961255</v>
       </c>
       <c r="E21" t="n">
-        <v>593310.9267878637</v>
+        <v>200713.8544796125</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="B22" t="n">
-        <v>556281</v>
+        <v>164130.75</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>158379.1879048395</v>
+        <v>66660.011888872</v>
       </c>
       <c r="E22" t="n">
-        <v>714660.1879048394</v>
+        <v>230790.761888872</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="B23" t="n">
-        <v>623709</v>
+        <v>195393.75</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>214044.4493768342</v>
+        <v>63965.46543754781</v>
       </c>
       <c r="E23" t="n">
-        <v>837753.4493768342</v>
+        <v>259359.2154375478</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="B24" t="n">
-        <v>691137</v>
+        <v>226656.75</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>271488.7504371203</v>
+        <v>59386.65227134992</v>
       </c>
       <c r="E24" t="n">
-        <v>962625.7504371202</v>
+        <v>286043.4022713499</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="B25" t="n">
-        <v>758565</v>
+        <v>257919.75</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>330731.9917883083</v>
+        <v>52588.50790438574</v>
       </c>
       <c r="E25" t="n">
-        <v>1089296.991788308</v>
+        <v>310508.2579043857</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="B26" t="n">
-        <v>825993</v>
+        <v>289182.75</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>391750.9301022686</v>
+        <v>43319.13177239835</v>
       </c>
       <c r="E26" t="n">
-        <v>1217743.930102269</v>
+        <v>332501.8817723984</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="B27" t="n">
-        <v>893421</v>
+        <v>320445.75</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>454453.4469671373</v>
+        <v>31437.08198150536</v>
       </c>
       <c r="E27" t="n">
-        <v>1347874.446967137</v>
+        <v>351882.8319815054</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="B28" t="n">
-        <v>960849</v>
+        <v>351708.75</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>518660.3124652312</v>
+        <v>16918.48506755609</v>
       </c>
       <c r="E28" t="n">
-        <v>1479509.312465231</v>
+        <v>368627.2350675561</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="B29" t="n">
-        <v>1028277</v>
+        <v>382971.75</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>584097.1637480158</v>
+        <v>-156.2883720008103</v>
       </c>
       <c r="E29" t="n">
-        <v>1612374.163748016</v>
+        <v>382815.4616279992</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="B30" t="n">
-        <v>1095705</v>
+        <v>414234.75</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>650397.0402826625</v>
+        <v>-19632.1024262101</v>
       </c>
       <c r="E30" t="n">
-        <v>1746102.040282662</v>
+        <v>394602.6475737899</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="B31" t="n">
-        <v>1163133</v>
+        <v>445497.75</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>717112.0386604725</v>
+        <v>-41317.4450450622</v>
       </c>
       <c r="E31" t="n">
-        <v>1880245.038660472</v>
+        <v>404180.3049549378</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="B32" t="n">
-        <v>1230561</v>
+        <v>476760.75</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>783731.6682104976</v>
+        <v>-65023.67053728498</v>
       </c>
       <c r="E32" t="n">
-        <v>2014292.668210498</v>
+        <v>411737.079462715</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="B33" t="n">
-        <v>1297989</v>
+        <v>508023.75</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>849705.2486918638</v>
+        <v>-90598.20321294173</v>
       </c>
       <c r="E33" t="n">
-        <v>2147694.248691864</v>
+        <v>417425.5467870582</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="B34" t="n">
-        <v>1365417</v>
+        <v>539286.75</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>914465.9727649486</v>
+        <v>-117947.2450727278</v>
       </c>
       <c r="E34" t="n">
-        <v>2279882.972764948</v>
+        <v>421339.5049272722</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="B35" t="n">
-        <v>1432845</v>
+        <v>570549.75</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>977454.7827291498</v>
+        <v>-147046.3478064547</v>
       </c>
       <c r="E35" t="n">
-        <v>2410299.78272915</v>
+        <v>423503.4021935453</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="B36" t="n">
-        <v>1500273</v>
+        <v>601812.75</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>1038142.745907257</v>
+        <v>-177939.6578397917</v>
       </c>
       <c r="E36" t="n">
-        <v>2538415.745907257</v>
+        <v>423873.0921602083</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="B37" t="n">
-        <v>1567701</v>
+        <v>633075.75</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>1096051.014093101</v>
+        <v>-210730.2848187464</v>
       </c>
       <c r="E37" t="n">
-        <v>2663752.014093101</v>
+        <v>422345.4651812536</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="B38" t="n">
-        <v>1635129</v>
+        <v>664338.75</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>1150767.684763077</v>
+        <v>-245564.9754075337</v>
       </c>
       <c r="E38" t="n">
-        <v>2785896.684763077</v>
+        <v>418773.7745924663</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="B39" t="n">
-        <v>1702557</v>
+        <v>695601.75</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>1201960.992812161</v>
+        <v>-282616.2402495246</v>
       </c>
       <c r="E39" t="n">
-        <v>2904517.99281216</v>
+        <v>412985.5097504754</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="B40" t="n">
-        <v>1769985</v>
+        <v>726864.75</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>1249388.337616139</v>
+        <v>-322064.5482522604</v>
       </c>
       <c r="E40" t="n">
-        <v>3019373.337616139</v>
+        <v>404800.2017477396</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="B41" t="n">
-        <v>1837413</v>
+        <v>758127.75</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>1292900.771954925</v>
+        <v>-364082.4441362571</v>
       </c>
       <c r="E41" t="n">
-        <v>3130313.771954926</v>
+        <v>394045.3058637429</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
+        <v>80</v>
+      </c>
+      <c r="B42" t="n">
+        <v>789390.75</v>
+      </c>
+      <c r="C42" t="n">
+        <v>0</v>
+      </c>
+      <c r="D42" t="n">
+        <v>-408821.6774486558</v>
+      </c>
+      <c r="E42" t="n">
+        <v>380569.0725513442</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>81</v>
+      </c>
+      <c r="B43" t="n">
+        <v>820653.75</v>
+      </c>
+      <c r="C43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D43" t="n">
+        <v>-456403.7842651214</v>
+      </c>
+      <c r="E43" t="n">
+        <v>364249.9657348786</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>82</v>
+      </c>
+      <c r="B44" t="n">
+        <v>851916.75</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0</v>
+      </c>
+      <c r="D44" t="n">
+        <v>-506914.0896230967</v>
+      </c>
+      <c r="E44" t="n">
+        <v>345002.6603769033</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>83</v>
+      </c>
+      <c r="B45" t="n">
+        <v>883179.75</v>
+      </c>
+      <c r="C45" t="n">
+        <v>0</v>
+      </c>
+      <c r="D45" t="n">
+        <v>-560398.7981504905</v>
+      </c>
+      <c r="E45" t="n">
+        <v>322780.9518495095</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>84</v>
+      </c>
+      <c r="B46" t="n">
+        <v>914442.75</v>
+      </c>
+      <c r="C46" t="n">
+        <v>0</v>
+      </c>
+      <c r="D46" t="n">
+        <v>-616864.6821167683</v>
+      </c>
+      <c r="E46" t="n">
+        <v>297578.0678832317</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>85</v>
+      </c>
+      <c r="B47" t="n">
+        <v>945705.75</v>
+      </c>
+      <c r="C47" t="n">
+        <v>0</v>
+      </c>
+      <c r="D47" t="n">
+        <v>-676280.8206968217</v>
+      </c>
+      <c r="E47" t="n">
+        <v>269424.9293031783</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>86</v>
+      </c>
+      <c r="B48" t="n">
+        <v>976968.75</v>
+      </c>
+      <c r="C48" t="n">
+        <v>0</v>
+      </c>
+      <c r="D48" t="n">
+        <v>-738581.8548663226</v>
+      </c>
+      <c r="E48" t="n">
+        <v>238386.8951336774</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>87</v>
+      </c>
+      <c r="B49" t="n">
+        <v>1008231.75</v>
+      </c>
+      <c r="C49" t="n">
+        <v>0</v>
+      </c>
+      <c r="D49" t="n">
+        <v>-803672.2704392001</v>
+      </c>
+      <c r="E49" t="n">
+        <v>204559.4795607999</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>88</v>
+      </c>
+      <c r="B50" t="n">
+        <v>1039494.75</v>
+      </c>
+      <c r="C50" t="n">
+        <v>0</v>
+      </c>
+      <c r="D50" t="n">
+        <v>-871431.2876594162</v>
+      </c>
+      <c r="E50" t="n">
+        <v>168063.4623405838</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>89</v>
+      </c>
+      <c r="B51" t="n">
+        <v>1070757.75</v>
+      </c>
+      <c r="C51" t="n">
+        <v>0</v>
+      </c>
+      <c r="D51" t="n">
+        <v>-941718.0072825236</v>
+      </c>
+      <c r="E51" t="n">
+        <v>129039.7427174764</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>90</v>
+      </c>
+      <c r="B52" t="n">
+        <v>1102020.75</v>
+      </c>
+      <c r="C52" t="n">
+        <v>0</v>
+      </c>
+      <c r="D52" t="n">
+        <v>-1014376.533330114</v>
+      </c>
+      <c r="E52" t="n">
+        <v>87644.21666988579</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>91</v>
+      </c>
+      <c r="B53" t="n">
+        <v>1133283.75</v>
+      </c>
+      <c r="C53" t="n">
+        <v>0</v>
+      </c>
+      <c r="D53" t="n">
+        <v>-1089240.858088742</v>
+      </c>
+      <c r="E53" t="n">
+        <v>44042.89191125822</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>92</v>
+      </c>
+      <c r="B54" t="n">
+        <v>1164546.75</v>
+      </c>
+      <c r="C54" t="n">
+        <v>0</v>
+      </c>
+      <c r="D54" t="n">
+        <v>-1166139.353741452</v>
+      </c>
+      <c r="E54" t="n">
+        <v>-1592.603741452098</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>93</v>
+      </c>
+      <c r="B55" t="n">
+        <v>1195809.75</v>
+      </c>
+      <c r="C55" t="n">
+        <v>0</v>
+      </c>
+      <c r="D55" t="n">
+        <v>-1244898.766529239</v>
+      </c>
+      <c r="E55" t="n">
+        <v>-49089.01652923925</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>94</v>
+      </c>
+      <c r="B56" t="n">
+        <v>1227072.75</v>
+      </c>
+      <c r="C56" t="n">
+        <v>0</v>
+      </c>
+      <c r="D56" t="n">
+        <v>-1325347.653305966</v>
+      </c>
+      <c r="E56" t="n">
+        <v>-98274.90330596594</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
         <v>95</v>
       </c>
-      <c r="B42" t="n">
-        <v>1904841</v>
-      </c>
-      <c r="C42" t="n">
-        <v>0</v>
-      </c>
-      <c r="D42" t="n">
-        <v>1332442.79134432</v>
-      </c>
-      <c r="E42" t="n">
-        <v>3237283.791344319</v>
+      <c r="B57" t="n">
+        <v>1258335.75</v>
+      </c>
+      <c r="C57" t="n">
+        <v>0</v>
+      </c>
+      <c r="D57" t="n">
+        <v>-1407319.236821929</v>
+      </c>
+      <c r="E57" t="n">
+        <v>-148983.4868219295</v>
       </c>
     </row>
   </sheetData>
@@ -1925,7 +2435,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E42"/>
+  <dimension ref="A1:E57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1962,699 +2472,954 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="B2" t="n">
-        <v>-792279</v>
+        <v>-461129.25</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>-144334.3307000403</v>
+        <v>-118223.7301055676</v>
       </c>
       <c r="E2" t="n">
-        <v>-936613.3307000403</v>
+        <v>-579352.9801055676</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="B3" t="n">
-        <v>-724851</v>
+        <v>-429866.25</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>-97522.74000081932</v>
+        <v>-26273.73010556759</v>
       </c>
       <c r="E3" t="n">
-        <v>-822373.7400008193</v>
+        <v>-456139.9801055676</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="B4" t="n">
-        <v>-657423</v>
+        <v>-398603.25</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>-53722.30368857706</v>
+        <v>65676.26989443241</v>
       </c>
       <c r="E4" t="n">
-        <v>-711145.303688577</v>
+        <v>-332926.9801055676</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="B5" t="n">
-        <v>-589995</v>
+        <v>-367340.25</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>-13631.74687661102</v>
+        <v>65676.26989443241</v>
       </c>
       <c r="E5" t="n">
-        <v>-603626.746876611</v>
+        <v>-301663.9801055676</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="B6" t="n">
-        <v>-522567</v>
+        <v>-336077.25</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>22333.44728118677</v>
+        <v>65676.26989443241</v>
       </c>
       <c r="E6" t="n">
-        <v>-500233.5527188132</v>
+        <v>-270400.9801055676</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="B7" t="n">
-        <v>-455139</v>
+        <v>-304814.25</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>54068.82024245626</v>
+        <v>65676.26989443241</v>
       </c>
       <c r="E7" t="n">
-        <v>-401070.1797575437</v>
+        <v>-239137.9801055676</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="B8" t="n">
-        <v>-387711</v>
+        <v>-273551.25</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>81770.27828028811</v>
+        <v>65676.26989443241</v>
       </c>
       <c r="E8" t="n">
-        <v>-305940.7217197119</v>
+        <v>-207874.9801055676</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="B9" t="n">
-        <v>-320283</v>
+        <v>-242288.25</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>105885.0214632446</v>
+        <v>65676.26989443241</v>
       </c>
       <c r="E9" t="n">
-        <v>-214397.9785367554</v>
+        <v>-176611.9801055676</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="B10" t="n">
-        <v>-252855</v>
+        <v>-211025.25</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>80207.62068307649</v>
+        <v>65676.26989443241</v>
       </c>
       <c r="E10" t="n">
-        <v>-172647.3793169235</v>
+        <v>-145348.9801055676</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="B11" t="n">
-        <v>-185427</v>
+        <v>-179762.25</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>52261.55782058452</v>
+        <v>65676.26989443241</v>
       </c>
       <c r="E11" t="n">
-        <v>-133165.4421794155</v>
+        <v>-114085.9801055676</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="B12" t="n">
-        <v>-117999</v>
+        <v>-148499.25</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>22733.51258496362</v>
+        <v>65676.26989443241</v>
       </c>
       <c r="E12" t="n">
-        <v>-95265.48741503638</v>
+        <v>-82822.98010556759</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="B13" t="n">
-        <v>-50571</v>
+        <v>-117236.25</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>-7775.431056504123</v>
+        <v>65676.26989443241</v>
       </c>
       <c r="E13" t="n">
-        <v>-58346.43105650412</v>
+        <v>-51559.98010556759</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="B14" t="n">
-        <v>16857</v>
+        <v>-85973.25</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>-38798.73899327731</v>
+        <v>65676.26989443241</v>
       </c>
       <c r="E14" t="n">
-        <v>-21941.73899327731</v>
+        <v>-20296.98010556759</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="B15" t="n">
-        <v>84285</v>
+        <v>-54710.25</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>-70027.32729173095</v>
+        <v>65676.26989443241</v>
       </c>
       <c r="E15" t="n">
-        <v>14257.67270826905</v>
+        <v>10966.01989443241</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="B16" t="n">
-        <v>151713</v>
+        <v>-23447.25</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>-54485.26346230102</v>
+        <v>65676.26989443241</v>
       </c>
       <c r="E16" t="n">
-        <v>97227.73653769898</v>
+        <v>42229.01989443241</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="B17" t="n">
-        <v>219141</v>
+        <v>7815.75</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>-38989.68653218015</v>
+        <v>65676.26989443241</v>
       </c>
       <c r="E17" t="n">
-        <v>180151.3134678199</v>
+        <v>73492.01989443241</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="B18" t="n">
-        <v>286569</v>
+        <v>39078.75</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>-23651.65068442918</v>
+        <v>65676.26989443241</v>
       </c>
       <c r="E18" t="n">
-        <v>262917.3493155708</v>
+        <v>104755.0198944324</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="B19" t="n">
-        <v>353997</v>
+        <v>70341.75</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>38151.57041392828</v>
+        <v>65676.26989443241</v>
       </c>
       <c r="E19" t="n">
-        <v>392148.5704139282</v>
+        <v>136018.0198944324</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="B20" t="n">
-        <v>421425</v>
+        <v>101604.75</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>99328.90815889597</v>
+        <v>65676.26989443241</v>
       </c>
       <c r="E20" t="n">
-        <v>520753.908158896</v>
+        <v>167281.0198944324</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="B21" t="n">
-        <v>488853</v>
+        <v>132867.75</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>159575.4753821755</v>
+        <v>65676.26989443241</v>
       </c>
       <c r="E21" t="n">
-        <v>648428.4753821755</v>
+        <v>198544.0198944324</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="B22" t="n">
-        <v>556281</v>
+        <v>164130.75</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>218569.1357490905</v>
+        <v>65676.26989443241</v>
       </c>
       <c r="E22" t="n">
-        <v>774850.1357490905</v>
+        <v>229807.0198944324</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="B23" t="n">
-        <v>623709</v>
+        <v>195393.75</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>275988.4550067105</v>
+        <v>65676.26989443241</v>
       </c>
       <c r="E23" t="n">
-        <v>899697.4550067105</v>
+        <v>261070.0198944324</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="B24" t="n">
-        <v>691137</v>
+        <v>226656.75</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>331527.1931230359</v>
+        <v>65676.26989443241</v>
       </c>
       <c r="E24" t="n">
-        <v>1022664.193123036</v>
+        <v>292333.0198944324</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="B25" t="n">
-        <v>758565</v>
+        <v>257919.75</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>384905.6276184194</v>
+        <v>65676.26989443241</v>
       </c>
       <c r="E25" t="n">
-        <v>1143470.627618419</v>
+        <v>323596.0198944324</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="B26" t="n">
-        <v>825993</v>
+        <v>289182.75</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>435879.0118980746</v>
+        <v>65676.26989443241</v>
       </c>
       <c r="E26" t="n">
-        <v>1261872.011898075</v>
+        <v>354859.0198944324</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="B27" t="n">
-        <v>893421</v>
+        <v>320445.75</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>484243.4485088366</v>
+        <v>65676.26989443241</v>
       </c>
       <c r="E27" t="n">
-        <v>1377664.448508837</v>
+        <v>386122.0198944324</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="B28" t="n">
-        <v>960849</v>
+        <v>351708.75</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>576664.4366717173</v>
+        <v>19701.26989443241</v>
       </c>
       <c r="E28" t="n">
-        <v>1537513.436671717</v>
+        <v>371410.0198944324</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="B29" t="n">
-        <v>1028277</v>
+        <v>382971.75</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>666203.3489326253</v>
+        <v>-26273.73010556759</v>
       </c>
       <c r="E29" t="n">
-        <v>1694480.348932625</v>
+        <v>356698.0198944324</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="B30" t="n">
-        <v>1095705</v>
+        <v>414234.75</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>752792.1008858557</v>
+        <v>-72248.73010556759</v>
       </c>
       <c r="E30" t="n">
-        <v>1848497.100885856</v>
+        <v>341986.0198944324</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="B31" t="n">
-        <v>1163133</v>
+        <v>445497.75</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>836406.2926142674</v>
+        <v>-118223.7301055676</v>
       </c>
       <c r="E31" t="n">
-        <v>1999539.292614267</v>
+        <v>327274.0198944324</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="B32" t="n">
-        <v>1230561</v>
+        <v>476760.75</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>917062.112712209</v>
+        <v>-164198.7301055676</v>
       </c>
       <c r="E32" t="n">
-        <v>2147623.112712209</v>
+        <v>312562.0198944324</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="B33" t="n">
-        <v>1297989</v>
+        <v>508023.75</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>994812.2999133049</v>
+        <v>-164198.7301055675</v>
       </c>
       <c r="E33" t="n">
-        <v>2292801.299913305</v>
+        <v>343825.0198944325</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="B34" t="n">
-        <v>1365417</v>
+        <v>539286.75</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>1069741.450773839</v>
+        <v>-164198.7301055676</v>
       </c>
       <c r="E34" t="n">
-        <v>2435158.450773839</v>
+        <v>375088.0198944324</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="B35" t="n">
-        <v>1432845</v>
+        <v>570549.75</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>1141960.944378194</v>
+        <v>-164198.7301055676</v>
       </c>
       <c r="E35" t="n">
-        <v>2574805.944378194</v>
+        <v>406351.0198944324</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="B36" t="n">
-        <v>1500273</v>
+        <v>601812.75</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>1211603.728148909</v>
+        <v>-164198.7301055676</v>
       </c>
       <c r="E36" t="n">
-        <v>2711876.728148909</v>
+        <v>437614.0198944324</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="B37" t="n">
-        <v>1567701</v>
+        <v>633075.75</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>1278819.175016076</v>
+        <v>-164198.7301055676</v>
       </c>
       <c r="E37" t="n">
-        <v>2846520.175016075</v>
+        <v>468877.0198944324</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="B38" t="n">
-        <v>1635129</v>
+        <v>664338.75</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>1343768.1842217</v>
+        <v>-164198.7301055676</v>
       </c>
       <c r="E38" t="n">
-        <v>2978897.1842217</v>
+        <v>500140.0198944324</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="B39" t="n">
-        <v>1702557</v>
+        <v>695601.75</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>1406618.658610184</v>
+        <v>-164198.7301055677</v>
       </c>
       <c r="E39" t="n">
-        <v>3109175.658610184</v>
+        <v>531403.0198944323</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="B40" t="n">
-        <v>1769985</v>
+        <v>726864.75</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>1467541.452740969</v>
+        <v>-164198.7301055677</v>
       </c>
       <c r="E40" t="n">
-        <v>3237526.452740969</v>
+        <v>562666.0198944323</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="B41" t="n">
-        <v>1837413</v>
+        <v>758127.75</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>1526706.850418682</v>
+        <v>-164198.7301055677</v>
       </c>
       <c r="E41" t="n">
-        <v>3364119.850418682</v>
+        <v>593929.0198944323</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
+        <v>80</v>
+      </c>
+      <c r="B42" t="n">
+        <v>789390.75</v>
+      </c>
+      <c r="C42" t="n">
+        <v>0</v>
+      </c>
+      <c r="D42" t="n">
+        <v>-164198.7301055677</v>
+      </c>
+      <c r="E42" t="n">
+        <v>625192.0198944323</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>81</v>
+      </c>
+      <c r="B43" t="n">
+        <v>820653.75</v>
+      </c>
+      <c r="C43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D43" t="n">
+        <v>-210173.7301055677</v>
+      </c>
+      <c r="E43" t="n">
+        <v>610480.0198944323</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>82</v>
+      </c>
+      <c r="B44" t="n">
+        <v>851916.75</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0</v>
+      </c>
+      <c r="D44" t="n">
+        <v>-256148.7301055675</v>
+      </c>
+      <c r="E44" t="n">
+        <v>595768.0198944325</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>83</v>
+      </c>
+      <c r="B45" t="n">
+        <v>883179.75</v>
+      </c>
+      <c r="C45" t="n">
+        <v>0</v>
+      </c>
+      <c r="D45" t="n">
+        <v>-302123.7301055677</v>
+      </c>
+      <c r="E45" t="n">
+        <v>581056.0198944323</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>84</v>
+      </c>
+      <c r="B46" t="n">
+        <v>914442.75</v>
+      </c>
+      <c r="C46" t="n">
+        <v>0</v>
+      </c>
+      <c r="D46" t="n">
+        <v>-348098.7301055677</v>
+      </c>
+      <c r="E46" t="n">
+        <v>566344.0198944323</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>85</v>
+      </c>
+      <c r="B47" t="n">
+        <v>945705.75</v>
+      </c>
+      <c r="C47" t="n">
+        <v>0</v>
+      </c>
+      <c r="D47" t="n">
+        <v>-394073.7301055677</v>
+      </c>
+      <c r="E47" t="n">
+        <v>551632.0198944323</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>86</v>
+      </c>
+      <c r="B48" t="n">
+        <v>976968.75</v>
+      </c>
+      <c r="C48" t="n">
+        <v>0</v>
+      </c>
+      <c r="D48" t="n">
+        <v>-486023.7301055676</v>
+      </c>
+      <c r="E48" t="n">
+        <v>490945.0198944324</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>87</v>
+      </c>
+      <c r="B49" t="n">
+        <v>1008231.75</v>
+      </c>
+      <c r="C49" t="n">
+        <v>0</v>
+      </c>
+      <c r="D49" t="n">
+        <v>-577973.7301055675</v>
+      </c>
+      <c r="E49" t="n">
+        <v>430258.0198944325</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>88</v>
+      </c>
+      <c r="B50" t="n">
+        <v>1039494.75</v>
+      </c>
+      <c r="C50" t="n">
+        <v>0</v>
+      </c>
+      <c r="D50" t="n">
+        <v>-669923.7301055674</v>
+      </c>
+      <c r="E50" t="n">
+        <v>369571.0198944326</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>89</v>
+      </c>
+      <c r="B51" t="n">
+        <v>1070757.75</v>
+      </c>
+      <c r="C51" t="n">
+        <v>0</v>
+      </c>
+      <c r="D51" t="n">
+        <v>-761873.7301055675</v>
+      </c>
+      <c r="E51" t="n">
+        <v>308884.0198944325</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>90</v>
+      </c>
+      <c r="B52" t="n">
+        <v>1102020.75</v>
+      </c>
+      <c r="C52" t="n">
+        <v>0</v>
+      </c>
+      <c r="D52" t="n">
+        <v>-853823.7301055675</v>
+      </c>
+      <c r="E52" t="n">
+        <v>248197.0198944325</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>91</v>
+      </c>
+      <c r="B53" t="n">
+        <v>1133283.75</v>
+      </c>
+      <c r="C53" t="n">
+        <v>0</v>
+      </c>
+      <c r="D53" t="n">
+        <v>-945773.7301055675</v>
+      </c>
+      <c r="E53" t="n">
+        <v>187510.0198944325</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>92</v>
+      </c>
+      <c r="B54" t="n">
+        <v>1164546.75</v>
+      </c>
+      <c r="C54" t="n">
+        <v>0</v>
+      </c>
+      <c r="D54" t="n">
+        <v>-1037723.730105568</v>
+      </c>
+      <c r="E54" t="n">
+        <v>126823.0198944324</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>93</v>
+      </c>
+      <c r="B55" t="n">
+        <v>1195809.75</v>
+      </c>
+      <c r="C55" t="n">
+        <v>0</v>
+      </c>
+      <c r="D55" t="n">
+        <v>-1129673.730105567</v>
+      </c>
+      <c r="E55" t="n">
+        <v>66136.01989443274</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>94</v>
+      </c>
+      <c r="B56" t="n">
+        <v>1227072.75</v>
+      </c>
+      <c r="C56" t="n">
+        <v>0</v>
+      </c>
+      <c r="D56" t="n">
+        <v>-1221623.730105567</v>
+      </c>
+      <c r="E56" t="n">
+        <v>5449.019894432509</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
         <v>95</v>
       </c>
-      <c r="B42" t="n">
-        <v>1904841</v>
-      </c>
-      <c r="C42" t="n">
-        <v>0</v>
-      </c>
-      <c r="D42" t="n">
-        <v>1584281.598601104</v>
-      </c>
-      <c r="E42" t="n">
-        <v>3489122.598601104</v>
+      <c r="B57" t="n">
+        <v>1258335.75</v>
+      </c>
+      <c r="C57" t="n">
+        <v>0</v>
+      </c>
+      <c r="D57" t="n">
+        <v>-1313573.730105567</v>
+      </c>
+      <c r="E57" t="n">
+        <v>-55237.98010556749</v>
       </c>
     </row>
   </sheetData>
@@ -2668,7 +3433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E42"/>
+  <dimension ref="A1:E57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2705,699 +3470,954 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="B2" t="n">
-        <v>-792279</v>
+        <v>-461129.25</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>-114412.5365608433</v>
+        <v>-118223.7301055676</v>
       </c>
       <c r="E2" t="n">
-        <v>-906691.5365608432</v>
+        <v>-579352.9801055676</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="B3" t="n">
-        <v>-724851</v>
+        <v>-429866.25</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>-67587.53656084323</v>
+        <v>-26273.73010556759</v>
       </c>
       <c r="E3" t="n">
-        <v>-792438.5365608432</v>
+        <v>-456139.9801055676</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="B4" t="n">
-        <v>-657423</v>
+        <v>-398603.25</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>-20762.53656084325</v>
+        <v>65676.26989443241</v>
       </c>
       <c r="E4" t="n">
-        <v>-678185.5365608432</v>
+        <v>-332926.9801055676</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="B5" t="n">
-        <v>-589995</v>
+        <v>-367340.25</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>26062.46343915674</v>
+        <v>65676.26989443241</v>
       </c>
       <c r="E5" t="n">
-        <v>-563932.5365608432</v>
+        <v>-301663.9801055676</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="B6" t="n">
-        <v>-522567</v>
+        <v>-336077.25</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>72887.46343915677</v>
+        <v>65676.26989443241</v>
       </c>
       <c r="E6" t="n">
-        <v>-449679.5365608432</v>
+        <v>-270400.9801055676</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="B7" t="n">
-        <v>-455139</v>
+        <v>-304814.25</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>119712.4634391568</v>
+        <v>65676.26989443241</v>
       </c>
       <c r="E7" t="n">
-        <v>-335426.5365608432</v>
+        <v>-239137.9801055676</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="B8" t="n">
-        <v>-387711</v>
+        <v>-273551.25</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>119712.4634391568</v>
+        <v>65676.26989443241</v>
       </c>
       <c r="E8" t="n">
-        <v>-267998.5365608432</v>
+        <v>-207874.9801055676</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="B9" t="n">
-        <v>-320283</v>
+        <v>-242288.25</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>119712.4634391568</v>
+        <v>65676.26989443241</v>
       </c>
       <c r="E9" t="n">
-        <v>-200570.5365608432</v>
+        <v>-176611.9801055676</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="B10" t="n">
-        <v>-252855</v>
+        <v>-211025.25</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>72887.4634391568</v>
+        <v>65676.26989443241</v>
       </c>
       <c r="E10" t="n">
-        <v>-179967.5365608432</v>
+        <v>-145348.9801055676</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="B11" t="n">
-        <v>-185427</v>
+        <v>-179762.25</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>26062.4634391568</v>
+        <v>65676.26989443241</v>
       </c>
       <c r="E11" t="n">
-        <v>-159364.5365608432</v>
+        <v>-114085.9801055676</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="B12" t="n">
-        <v>-117999</v>
+        <v>-148499.25</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>-20762.5365608432</v>
+        <v>65676.26989443241</v>
       </c>
       <c r="E12" t="n">
-        <v>-138761.5365608432</v>
+        <v>-82822.98010556759</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="B13" t="n">
-        <v>-50571</v>
+        <v>-117236.25</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>-67587.5365608432</v>
+        <v>65676.26989443241</v>
       </c>
       <c r="E13" t="n">
-        <v>-118158.5365608432</v>
+        <v>-51559.98010556759</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="B14" t="n">
-        <v>16857</v>
+        <v>-85973.25</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>-114412.5365608432</v>
+        <v>65676.26989443241</v>
       </c>
       <c r="E14" t="n">
-        <v>-97555.53656084323</v>
+        <v>-20296.98010556759</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="B15" t="n">
-        <v>84285</v>
+        <v>-54710.25</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>-161237.5365608432</v>
+        <v>65676.26989443241</v>
       </c>
       <c r="E15" t="n">
-        <v>-76952.53656084323</v>
+        <v>10966.01989443241</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="B16" t="n">
-        <v>151713</v>
+        <v>-23447.25</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>-161237.5365608432</v>
+        <v>65676.26989443241</v>
       </c>
       <c r="E16" t="n">
-        <v>-9524.536560843233</v>
+        <v>42229.01989443241</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="B17" t="n">
-        <v>219141</v>
+        <v>7815.75</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>-161237.5365608432</v>
+        <v>65676.26989443241</v>
       </c>
       <c r="E17" t="n">
-        <v>57903.46343915677</v>
+        <v>73492.01989443241</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="B18" t="n">
-        <v>286569</v>
+        <v>39078.75</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>-114412.5365608432</v>
+        <v>65676.26989443241</v>
       </c>
       <c r="E18" t="n">
-        <v>172156.4634391568</v>
+        <v>104755.0198944324</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="B19" t="n">
-        <v>353997</v>
+        <v>70341.75</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>-20762.53656084323</v>
+        <v>65676.26989443241</v>
       </c>
       <c r="E19" t="n">
-        <v>333234.4634391568</v>
+        <v>136018.0198944324</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="B20" t="n">
-        <v>421425</v>
+        <v>101604.75</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>72887.46343915677</v>
+        <v>65676.26989443241</v>
       </c>
       <c r="E20" t="n">
-        <v>494312.4634391568</v>
+        <v>167281.0198944324</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="B21" t="n">
-        <v>488853</v>
+        <v>132867.75</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>166537.4634391568</v>
+        <v>65676.26989443241</v>
       </c>
       <c r="E21" t="n">
-        <v>655390.4634391568</v>
+        <v>198544.0198944324</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="B22" t="n">
-        <v>556281</v>
+        <v>164130.75</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>260187.4634391568</v>
+        <v>65676.26989443241</v>
       </c>
       <c r="E22" t="n">
-        <v>816468.4634391568</v>
+        <v>229807.0198944324</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="B23" t="n">
-        <v>623709</v>
+        <v>195393.75</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>353837.4634391568</v>
+        <v>65676.26989443241</v>
       </c>
       <c r="E23" t="n">
-        <v>977546.4634391568</v>
+        <v>261070.0198944324</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="B24" t="n">
-        <v>691137</v>
+        <v>226656.75</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>447487.4634391568</v>
+        <v>65676.26989443241</v>
       </c>
       <c r="E24" t="n">
-        <v>1138624.463439157</v>
+        <v>292333.0198944324</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="B25" t="n">
-        <v>758565</v>
+        <v>257919.75</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>541137.4634391568</v>
+        <v>65676.26989443241</v>
       </c>
       <c r="E25" t="n">
-        <v>1299702.463439157</v>
+        <v>323596.0198944324</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="B26" t="n">
-        <v>825993</v>
+        <v>289182.75</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>634787.4634391568</v>
+        <v>65676.26989443241</v>
       </c>
       <c r="E26" t="n">
-        <v>1460780.463439157</v>
+        <v>354859.0198944324</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="B27" t="n">
-        <v>893421</v>
+        <v>320445.75</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>728437.4634391568</v>
+        <v>65676.26989443241</v>
       </c>
       <c r="E27" t="n">
-        <v>1621858.463439157</v>
+        <v>386122.0198944324</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="B28" t="n">
-        <v>960849</v>
+        <v>351708.75</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>822087.4634391568</v>
+        <v>19701.26989443241</v>
       </c>
       <c r="E28" t="n">
-        <v>1782936.463439157</v>
+        <v>371410.0198944324</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="B29" t="n">
-        <v>1028277</v>
+        <v>382971.75</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>915737.4634391568</v>
+        <v>-26273.73010556759</v>
       </c>
       <c r="E29" t="n">
-        <v>1944014.463439157</v>
+        <v>356698.0198944324</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="B30" t="n">
-        <v>1095705</v>
+        <v>414234.75</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>1009387.463439157</v>
+        <v>-72248.73010556759</v>
       </c>
       <c r="E30" t="n">
-        <v>2105092.463439157</v>
+        <v>341986.0198944324</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="B31" t="n">
-        <v>1163133</v>
+        <v>445497.75</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>1103037.463439157</v>
+        <v>-118223.7301055676</v>
       </c>
       <c r="E31" t="n">
-        <v>2266170.463439157</v>
+        <v>327274.0198944324</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="B32" t="n">
-        <v>1230561</v>
+        <v>476760.75</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>1196687.463439157</v>
+        <v>-164198.7301055676</v>
       </c>
       <c r="E32" t="n">
-        <v>2427248.463439157</v>
+        <v>312562.0198944324</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="B33" t="n">
-        <v>1297989</v>
+        <v>508023.75</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>1243512.463439157</v>
+        <v>-164198.7301055675</v>
       </c>
       <c r="E33" t="n">
-        <v>2541501.463439157</v>
+        <v>343825.0198944325</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="B34" t="n">
-        <v>1365417</v>
+        <v>539286.75</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>1290337.463439157</v>
+        <v>-164198.7301055676</v>
       </c>
       <c r="E34" t="n">
-        <v>2655754.463439157</v>
+        <v>375088.0198944324</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="B35" t="n">
-        <v>1432845</v>
+        <v>570549.75</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>1337162.463439157</v>
+        <v>-164198.7301055676</v>
       </c>
       <c r="E35" t="n">
-        <v>2770007.463439157</v>
+        <v>406351.0198944324</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="B36" t="n">
-        <v>1500273</v>
+        <v>601812.75</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>1383987.463439157</v>
+        <v>-164198.7301055676</v>
       </c>
       <c r="E36" t="n">
-        <v>2884260.463439157</v>
+        <v>437614.0198944324</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="B37" t="n">
-        <v>1567701</v>
+        <v>633075.75</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>1430812.463439157</v>
+        <v>-164198.7301055676</v>
       </c>
       <c r="E37" t="n">
-        <v>2998513.463439157</v>
+        <v>468877.0198944324</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="B38" t="n">
-        <v>1635129</v>
+        <v>664338.75</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>1477637.463439157</v>
+        <v>-164198.7301055676</v>
       </c>
       <c r="E38" t="n">
-        <v>3112766.463439157</v>
+        <v>500140.0198944324</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="B39" t="n">
-        <v>1702557</v>
+        <v>695601.75</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>1524462.463439157</v>
+        <v>-164198.7301055677</v>
       </c>
       <c r="E39" t="n">
-        <v>3227019.463439157</v>
+        <v>531403.0198944323</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="B40" t="n">
-        <v>1769985</v>
+        <v>726864.75</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>1571287.463439157</v>
+        <v>-164198.7301055677</v>
       </c>
       <c r="E40" t="n">
-        <v>3341272.463439157</v>
+        <v>562666.0198944323</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="B41" t="n">
-        <v>1837413</v>
+        <v>758127.75</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>1618112.463439157</v>
+        <v>-164198.7301055677</v>
       </c>
       <c r="E41" t="n">
-        <v>3455525.463439157</v>
+        <v>593929.0198944323</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
+        <v>80</v>
+      </c>
+      <c r="B42" t="n">
+        <v>789390.75</v>
+      </c>
+      <c r="C42" t="n">
+        <v>0</v>
+      </c>
+      <c r="D42" t="n">
+        <v>-164198.7301055677</v>
+      </c>
+      <c r="E42" t="n">
+        <v>625192.0198944323</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>81</v>
+      </c>
+      <c r="B43" t="n">
+        <v>820653.75</v>
+      </c>
+      <c r="C43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D43" t="n">
+        <v>-210173.7301055677</v>
+      </c>
+      <c r="E43" t="n">
+        <v>610480.0198944323</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>82</v>
+      </c>
+      <c r="B44" t="n">
+        <v>851916.75</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0</v>
+      </c>
+      <c r="D44" t="n">
+        <v>-256148.7301055675</v>
+      </c>
+      <c r="E44" t="n">
+        <v>595768.0198944325</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>83</v>
+      </c>
+      <c r="B45" t="n">
+        <v>883179.75</v>
+      </c>
+      <c r="C45" t="n">
+        <v>0</v>
+      </c>
+      <c r="D45" t="n">
+        <v>-302123.7301055677</v>
+      </c>
+      <c r="E45" t="n">
+        <v>581056.0198944323</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>84</v>
+      </c>
+      <c r="B46" t="n">
+        <v>914442.75</v>
+      </c>
+      <c r="C46" t="n">
+        <v>0</v>
+      </c>
+      <c r="D46" t="n">
+        <v>-348098.7301055677</v>
+      </c>
+      <c r="E46" t="n">
+        <v>566344.0198944323</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>85</v>
+      </c>
+      <c r="B47" t="n">
+        <v>945705.75</v>
+      </c>
+      <c r="C47" t="n">
+        <v>0</v>
+      </c>
+      <c r="D47" t="n">
+        <v>-394073.7301055677</v>
+      </c>
+      <c r="E47" t="n">
+        <v>551632.0198944323</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>86</v>
+      </c>
+      <c r="B48" t="n">
+        <v>976968.75</v>
+      </c>
+      <c r="C48" t="n">
+        <v>0</v>
+      </c>
+      <c r="D48" t="n">
+        <v>-486023.7301055676</v>
+      </c>
+      <c r="E48" t="n">
+        <v>490945.0198944324</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>87</v>
+      </c>
+      <c r="B49" t="n">
+        <v>1008231.75</v>
+      </c>
+      <c r="C49" t="n">
+        <v>0</v>
+      </c>
+      <c r="D49" t="n">
+        <v>-577973.7301055675</v>
+      </c>
+      <c r="E49" t="n">
+        <v>430258.0198944325</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>88</v>
+      </c>
+      <c r="B50" t="n">
+        <v>1039494.75</v>
+      </c>
+      <c r="C50" t="n">
+        <v>0</v>
+      </c>
+      <c r="D50" t="n">
+        <v>-669923.7301055674</v>
+      </c>
+      <c r="E50" t="n">
+        <v>369571.0198944326</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>89</v>
+      </c>
+      <c r="B51" t="n">
+        <v>1070757.75</v>
+      </c>
+      <c r="C51" t="n">
+        <v>0</v>
+      </c>
+      <c r="D51" t="n">
+        <v>-761873.7301055675</v>
+      </c>
+      <c r="E51" t="n">
+        <v>308884.0198944325</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>90</v>
+      </c>
+      <c r="B52" t="n">
+        <v>1102020.75</v>
+      </c>
+      <c r="C52" t="n">
+        <v>0</v>
+      </c>
+      <c r="D52" t="n">
+        <v>-853823.7301055675</v>
+      </c>
+      <c r="E52" t="n">
+        <v>248197.0198944325</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>91</v>
+      </c>
+      <c r="B53" t="n">
+        <v>1133283.75</v>
+      </c>
+      <c r="C53" t="n">
+        <v>0</v>
+      </c>
+      <c r="D53" t="n">
+        <v>-945773.7301055675</v>
+      </c>
+      <c r="E53" t="n">
+        <v>187510.0198944325</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>92</v>
+      </c>
+      <c r="B54" t="n">
+        <v>1164546.75</v>
+      </c>
+      <c r="C54" t="n">
+        <v>0</v>
+      </c>
+      <c r="D54" t="n">
+        <v>-1037723.730105568</v>
+      </c>
+      <c r="E54" t="n">
+        <v>126823.0198944324</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>93</v>
+      </c>
+      <c r="B55" t="n">
+        <v>1195809.75</v>
+      </c>
+      <c r="C55" t="n">
+        <v>0</v>
+      </c>
+      <c r="D55" t="n">
+        <v>-1129673.730105567</v>
+      </c>
+      <c r="E55" t="n">
+        <v>66136.01989443274</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>94</v>
+      </c>
+      <c r="B56" t="n">
+        <v>1227072.75</v>
+      </c>
+      <c r="C56" t="n">
+        <v>0</v>
+      </c>
+      <c r="D56" t="n">
+        <v>-1221623.730105567</v>
+      </c>
+      <c r="E56" t="n">
+        <v>5449.019894432509</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
         <v>95</v>
       </c>
-      <c r="B42" t="n">
-        <v>1904841</v>
-      </c>
-      <c r="C42" t="n">
-        <v>0</v>
-      </c>
-      <c r="D42" t="n">
-        <v>1664937.463439157</v>
-      </c>
-      <c r="E42" t="n">
-        <v>3569778.463439157</v>
+      <c r="B57" t="n">
+        <v>1258335.75</v>
+      </c>
+      <c r="C57" t="n">
+        <v>0</v>
+      </c>
+      <c r="D57" t="n">
+        <v>-1313573.730105567</v>
+      </c>
+      <c r="E57" t="n">
+        <v>-55237.98010556749</v>
       </c>
     </row>
   </sheetData>
@@ -3411,7 +4431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E42"/>
+  <dimension ref="A1:E57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3448,699 +4468,954 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="B2" t="n">
-        <v>-792279</v>
+        <v>-461129.25</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>-114412.5365608433</v>
+        <v>-118223.7301055676</v>
       </c>
       <c r="E2" t="n">
-        <v>-906691.5365608432</v>
+        <v>-579352.9801055676</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="B3" t="n">
-        <v>-724851</v>
+        <v>-429866.25</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>-67587.53656084323</v>
+        <v>-26273.73010556759</v>
       </c>
       <c r="E3" t="n">
-        <v>-792438.5365608432</v>
+        <v>-456139.9801055676</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="B4" t="n">
-        <v>-657423</v>
+        <v>-398603.25</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>-20762.53656084325</v>
+        <v>65676.26989443241</v>
       </c>
       <c r="E4" t="n">
-        <v>-678185.5365608432</v>
+        <v>-332926.9801055676</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="B5" t="n">
-        <v>-589995</v>
+        <v>-367340.25</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>26062.46343915674</v>
+        <v>65676.26989443241</v>
       </c>
       <c r="E5" t="n">
-        <v>-563932.5365608432</v>
+        <v>-301663.9801055676</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="B6" t="n">
-        <v>-522567</v>
+        <v>-336077.25</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>72887.46343915677</v>
+        <v>65676.26989443241</v>
       </c>
       <c r="E6" t="n">
-        <v>-449679.5365608432</v>
+        <v>-270400.9801055676</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="B7" t="n">
-        <v>-455139</v>
+        <v>-304814.25</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>119712.4634391568</v>
+        <v>65676.26989443241</v>
       </c>
       <c r="E7" t="n">
-        <v>-335426.5365608432</v>
+        <v>-239137.9801055676</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="B8" t="n">
-        <v>-387711</v>
+        <v>-273551.25</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>119712.4634391568</v>
+        <v>65676.26989443241</v>
       </c>
       <c r="E8" t="n">
-        <v>-267998.5365608432</v>
+        <v>-207874.9801055676</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="B9" t="n">
-        <v>-320283</v>
+        <v>-242288.25</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>119712.4634391568</v>
+        <v>65676.26989443241</v>
       </c>
       <c r="E9" t="n">
-        <v>-200570.5365608432</v>
+        <v>-176611.9801055676</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="B10" t="n">
-        <v>-252855</v>
+        <v>-211025.25</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>72887.4634391568</v>
+        <v>65676.26989443241</v>
       </c>
       <c r="E10" t="n">
-        <v>-179967.5365608432</v>
+        <v>-145348.9801055676</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="B11" t="n">
-        <v>-185427</v>
+        <v>-179762.25</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>26062.4634391568</v>
+        <v>65676.26989443241</v>
       </c>
       <c r="E11" t="n">
-        <v>-159364.5365608432</v>
+        <v>-114085.9801055676</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="B12" t="n">
-        <v>-117999</v>
+        <v>-148499.25</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>-20762.5365608432</v>
+        <v>65676.26989443241</v>
       </c>
       <c r="E12" t="n">
-        <v>-138761.5365608432</v>
+        <v>-82822.98010556759</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="B13" t="n">
-        <v>-50571</v>
+        <v>-117236.25</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>-67587.5365608432</v>
+        <v>65676.26989443241</v>
       </c>
       <c r="E13" t="n">
-        <v>-118158.5365608432</v>
+        <v>-51559.98010556759</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="B14" t="n">
-        <v>16857</v>
+        <v>-85973.25</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>-114412.5365608432</v>
+        <v>65676.26989443241</v>
       </c>
       <c r="E14" t="n">
-        <v>-97555.53656084323</v>
+        <v>-20296.98010556759</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="B15" t="n">
-        <v>84285</v>
+        <v>-54710.25</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>-161237.5365608432</v>
+        <v>65676.26989443241</v>
       </c>
       <c r="E15" t="n">
-        <v>-76952.53656084323</v>
+        <v>10966.01989443241</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="B16" t="n">
-        <v>151713</v>
+        <v>-23447.25</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>-161237.5365608432</v>
+        <v>65676.26989443241</v>
       </c>
       <c r="E16" t="n">
-        <v>-9524.536560843233</v>
+        <v>42229.01989443241</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="B17" t="n">
-        <v>219141</v>
+        <v>7815.75</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>-161237.5365608432</v>
+        <v>65676.26989443241</v>
       </c>
       <c r="E17" t="n">
-        <v>57903.46343915677</v>
+        <v>73492.01989443241</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="B18" t="n">
-        <v>286569</v>
+        <v>39078.75</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>-114412.5365608432</v>
+        <v>65676.26989443241</v>
       </c>
       <c r="E18" t="n">
-        <v>172156.4634391568</v>
+        <v>104755.0198944324</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="B19" t="n">
-        <v>353997</v>
+        <v>70341.75</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>-20762.53656084323</v>
+        <v>65676.26989443241</v>
       </c>
       <c r="E19" t="n">
-        <v>333234.4634391568</v>
+        <v>136018.0198944324</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="B20" t="n">
-        <v>421425</v>
+        <v>101604.75</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>72887.46343915677</v>
+        <v>65676.26989443241</v>
       </c>
       <c r="E20" t="n">
-        <v>494312.4634391568</v>
+        <v>167281.0198944324</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="B21" t="n">
-        <v>488853</v>
+        <v>132867.75</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>166537.4634391568</v>
+        <v>65676.26989443241</v>
       </c>
       <c r="E21" t="n">
-        <v>655390.4634391568</v>
+        <v>198544.0198944324</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="B22" t="n">
-        <v>556281</v>
+        <v>164130.75</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>260187.4634391568</v>
+        <v>65676.26989443241</v>
       </c>
       <c r="E22" t="n">
-        <v>816468.4634391568</v>
+        <v>229807.0198944324</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="B23" t="n">
-        <v>623709</v>
+        <v>195393.75</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>353837.4634391568</v>
+        <v>65676.26989443241</v>
       </c>
       <c r="E23" t="n">
-        <v>977546.4634391568</v>
+        <v>261070.0198944324</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="B24" t="n">
-        <v>691137</v>
+        <v>226656.75</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>447487.4634391568</v>
+        <v>65676.26989443241</v>
       </c>
       <c r="E24" t="n">
-        <v>1138624.463439157</v>
+        <v>292333.0198944324</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="B25" t="n">
-        <v>758565</v>
+        <v>257919.75</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>541137.4634391568</v>
+        <v>65676.26989443241</v>
       </c>
       <c r="E25" t="n">
-        <v>1299702.463439157</v>
+        <v>323596.0198944324</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="B26" t="n">
-        <v>825993</v>
+        <v>289182.75</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>634787.4634391568</v>
+        <v>65676.26989443241</v>
       </c>
       <c r="E26" t="n">
-        <v>1460780.463439157</v>
+        <v>354859.0198944324</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="B27" t="n">
-        <v>893421</v>
+        <v>320445.75</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>728437.4634391568</v>
+        <v>65676.26989443241</v>
       </c>
       <c r="E27" t="n">
-        <v>1621858.463439157</v>
+        <v>386122.0198944324</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="B28" t="n">
-        <v>960849</v>
+        <v>351708.75</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>822087.4634391568</v>
+        <v>19701.26989443241</v>
       </c>
       <c r="E28" t="n">
-        <v>1782936.463439157</v>
+        <v>371410.0198944324</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="B29" t="n">
-        <v>1028277</v>
+        <v>382971.75</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>915737.4634391568</v>
+        <v>-26273.73010556759</v>
       </c>
       <c r="E29" t="n">
-        <v>1944014.463439157</v>
+        <v>356698.0198944324</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="B30" t="n">
-        <v>1095705</v>
+        <v>414234.75</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>1009387.463439157</v>
+        <v>-72248.73010556759</v>
       </c>
       <c r="E30" t="n">
-        <v>2105092.463439157</v>
+        <v>341986.0198944324</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="B31" t="n">
-        <v>1163133</v>
+        <v>445497.75</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>1103037.463439157</v>
+        <v>-118223.7301055676</v>
       </c>
       <c r="E31" t="n">
-        <v>2266170.463439157</v>
+        <v>327274.0198944324</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="B32" t="n">
-        <v>1230561</v>
+        <v>476760.75</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>1196687.463439157</v>
+        <v>-164198.7301055676</v>
       </c>
       <c r="E32" t="n">
-        <v>2427248.463439157</v>
+        <v>312562.0198944324</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="B33" t="n">
-        <v>1297989</v>
+        <v>508023.75</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>1243512.463439157</v>
+        <v>-164198.7301055675</v>
       </c>
       <c r="E33" t="n">
-        <v>2541501.463439157</v>
+        <v>343825.0198944325</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="B34" t="n">
-        <v>1365417</v>
+        <v>539286.75</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>1290337.463439157</v>
+        <v>-164198.7301055676</v>
       </c>
       <c r="E34" t="n">
-        <v>2655754.463439157</v>
+        <v>375088.0198944324</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="B35" t="n">
-        <v>1432845</v>
+        <v>570549.75</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>1337162.463439157</v>
+        <v>-164198.7301055676</v>
       </c>
       <c r="E35" t="n">
-        <v>2770007.463439157</v>
+        <v>406351.0198944324</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="B36" t="n">
-        <v>1500273</v>
+        <v>601812.75</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>1383987.463439157</v>
+        <v>-164198.7301055676</v>
       </c>
       <c r="E36" t="n">
-        <v>2884260.463439157</v>
+        <v>437614.0198944324</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="B37" t="n">
-        <v>1567701</v>
+        <v>633075.75</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>1430812.463439157</v>
+        <v>-164198.7301055676</v>
       </c>
       <c r="E37" t="n">
-        <v>2998513.463439157</v>
+        <v>468877.0198944324</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="B38" t="n">
-        <v>1635129</v>
+        <v>664338.75</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>1477637.463439157</v>
+        <v>-164198.7301055676</v>
       </c>
       <c r="E38" t="n">
-        <v>3112766.463439157</v>
+        <v>500140.0198944324</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="B39" t="n">
-        <v>1702557</v>
+        <v>695601.75</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>1524462.463439157</v>
+        <v>-164198.7301055677</v>
       </c>
       <c r="E39" t="n">
-        <v>3227019.463439157</v>
+        <v>531403.0198944323</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="B40" t="n">
-        <v>1769985</v>
+        <v>726864.75</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>1571287.463439157</v>
+        <v>-164198.7301055677</v>
       </c>
       <c r="E40" t="n">
-        <v>3341272.463439157</v>
+        <v>562666.0198944323</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="B41" t="n">
-        <v>1837413</v>
+        <v>758127.75</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>1618112.463439157</v>
+        <v>-164198.7301055677</v>
       </c>
       <c r="E41" t="n">
-        <v>3455525.463439157</v>
+        <v>593929.0198944323</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
+        <v>80</v>
+      </c>
+      <c r="B42" t="n">
+        <v>789390.75</v>
+      </c>
+      <c r="C42" t="n">
+        <v>0</v>
+      </c>
+      <c r="D42" t="n">
+        <v>-164198.7301055677</v>
+      </c>
+      <c r="E42" t="n">
+        <v>625192.0198944323</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>81</v>
+      </c>
+      <c r="B43" t="n">
+        <v>820653.75</v>
+      </c>
+      <c r="C43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D43" t="n">
+        <v>-210173.7301055677</v>
+      </c>
+      <c r="E43" t="n">
+        <v>610480.0198944323</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>82</v>
+      </c>
+      <c r="B44" t="n">
+        <v>851916.75</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0</v>
+      </c>
+      <c r="D44" t="n">
+        <v>-256148.7301055675</v>
+      </c>
+      <c r="E44" t="n">
+        <v>595768.0198944325</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>83</v>
+      </c>
+      <c r="B45" t="n">
+        <v>883179.75</v>
+      </c>
+      <c r="C45" t="n">
+        <v>0</v>
+      </c>
+      <c r="D45" t="n">
+        <v>-302123.7301055677</v>
+      </c>
+      <c r="E45" t="n">
+        <v>581056.0198944323</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>84</v>
+      </c>
+      <c r="B46" t="n">
+        <v>914442.75</v>
+      </c>
+      <c r="C46" t="n">
+        <v>0</v>
+      </c>
+      <c r="D46" t="n">
+        <v>-348098.7301055677</v>
+      </c>
+      <c r="E46" t="n">
+        <v>566344.0198944323</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>85</v>
+      </c>
+      <c r="B47" t="n">
+        <v>945705.75</v>
+      </c>
+      <c r="C47" t="n">
+        <v>0</v>
+      </c>
+      <c r="D47" t="n">
+        <v>-394073.7301055677</v>
+      </c>
+      <c r="E47" t="n">
+        <v>551632.0198944323</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>86</v>
+      </c>
+      <c r="B48" t="n">
+        <v>976968.75</v>
+      </c>
+      <c r="C48" t="n">
+        <v>0</v>
+      </c>
+      <c r="D48" t="n">
+        <v>-486023.7301055676</v>
+      </c>
+      <c r="E48" t="n">
+        <v>490945.0198944324</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>87</v>
+      </c>
+      <c r="B49" t="n">
+        <v>1008231.75</v>
+      </c>
+      <c r="C49" t="n">
+        <v>0</v>
+      </c>
+      <c r="D49" t="n">
+        <v>-577973.7301055675</v>
+      </c>
+      <c r="E49" t="n">
+        <v>430258.0198944325</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>88</v>
+      </c>
+      <c r="B50" t="n">
+        <v>1039494.75</v>
+      </c>
+      <c r="C50" t="n">
+        <v>0</v>
+      </c>
+      <c r="D50" t="n">
+        <v>-669923.7301055674</v>
+      </c>
+      <c r="E50" t="n">
+        <v>369571.0198944326</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>89</v>
+      </c>
+      <c r="B51" t="n">
+        <v>1070757.75</v>
+      </c>
+      <c r="C51" t="n">
+        <v>0</v>
+      </c>
+      <c r="D51" t="n">
+        <v>-761873.7301055675</v>
+      </c>
+      <c r="E51" t="n">
+        <v>308884.0198944325</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>90</v>
+      </c>
+      <c r="B52" t="n">
+        <v>1102020.75</v>
+      </c>
+      <c r="C52" t="n">
+        <v>0</v>
+      </c>
+      <c r="D52" t="n">
+        <v>-853823.7301055675</v>
+      </c>
+      <c r="E52" t="n">
+        <v>248197.0198944325</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>91</v>
+      </c>
+      <c r="B53" t="n">
+        <v>1133283.75</v>
+      </c>
+      <c r="C53" t="n">
+        <v>0</v>
+      </c>
+      <c r="D53" t="n">
+        <v>-945773.7301055675</v>
+      </c>
+      <c r="E53" t="n">
+        <v>187510.0198944325</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>92</v>
+      </c>
+      <c r="B54" t="n">
+        <v>1164546.75</v>
+      </c>
+      <c r="C54" t="n">
+        <v>0</v>
+      </c>
+      <c r="D54" t="n">
+        <v>-1037723.730105568</v>
+      </c>
+      <c r="E54" t="n">
+        <v>126823.0198944324</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>93</v>
+      </c>
+      <c r="B55" t="n">
+        <v>1195809.75</v>
+      </c>
+      <c r="C55" t="n">
+        <v>0</v>
+      </c>
+      <c r="D55" t="n">
+        <v>-1129673.730105567</v>
+      </c>
+      <c r="E55" t="n">
+        <v>66136.01989443274</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>94</v>
+      </c>
+      <c r="B56" t="n">
+        <v>1227072.75</v>
+      </c>
+      <c r="C56" t="n">
+        <v>0</v>
+      </c>
+      <c r="D56" t="n">
+        <v>-1221623.730105567</v>
+      </c>
+      <c r="E56" t="n">
+        <v>5449.019894432509</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
         <v>95</v>
       </c>
-      <c r="B42" t="n">
-        <v>1904841</v>
-      </c>
-      <c r="C42" t="n">
-        <v>0</v>
-      </c>
-      <c r="D42" t="n">
-        <v>1664937.463439157</v>
-      </c>
-      <c r="E42" t="n">
-        <v>3569778.463439157</v>
+      <c r="B57" t="n">
+        <v>1258335.75</v>
+      </c>
+      <c r="C57" t="n">
+        <v>0</v>
+      </c>
+      <c r="D57" t="n">
+        <v>-1313573.730105567</v>
+      </c>
+      <c r="E57" t="n">
+        <v>-55237.98010556749</v>
       </c>
     </row>
   </sheetData>
@@ -4154,7 +5429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E42"/>
+  <dimension ref="A1:E57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4191,699 +5466,954 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="B2" t="n">
-        <v>-792279</v>
+        <v>-461129.25</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>-114412.5365608433</v>
+        <v>-118223.7301055676</v>
       </c>
       <c r="E2" t="n">
-        <v>-906691.5365608432</v>
+        <v>-579352.9801055676</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="B3" t="n">
-        <v>-724851</v>
+        <v>-429866.25</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>-67587.53656084323</v>
+        <v>-26273.73010556759</v>
       </c>
       <c r="E3" t="n">
-        <v>-792438.5365608432</v>
+        <v>-456139.9801055676</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="B4" t="n">
-        <v>-657423</v>
+        <v>-398603.25</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>-20762.53656084325</v>
+        <v>65676.26989443241</v>
       </c>
       <c r="E4" t="n">
-        <v>-678185.5365608432</v>
+        <v>-332926.9801055676</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="B5" t="n">
-        <v>-589995</v>
+        <v>-367340.25</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>26062.46343915674</v>
+        <v>65676.26989443241</v>
       </c>
       <c r="E5" t="n">
-        <v>-563932.5365608432</v>
+        <v>-301663.9801055676</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="B6" t="n">
-        <v>-522567</v>
+        <v>-336077.25</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>72887.46343915677</v>
+        <v>65676.26989443241</v>
       </c>
       <c r="E6" t="n">
-        <v>-449679.5365608432</v>
+        <v>-270400.9801055676</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="B7" t="n">
-        <v>-455139</v>
+        <v>-304814.25</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>119712.4634391568</v>
+        <v>65676.26989443241</v>
       </c>
       <c r="E7" t="n">
-        <v>-335426.5365608432</v>
+        <v>-239137.9801055676</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="B8" t="n">
-        <v>-387711</v>
+        <v>-273551.25</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>119712.4634391568</v>
+        <v>65676.26989443241</v>
       </c>
       <c r="E8" t="n">
-        <v>-267998.5365608432</v>
+        <v>-207874.9801055676</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="B9" t="n">
-        <v>-320283</v>
+        <v>-242288.25</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>119712.4634391568</v>
+        <v>65676.26989443241</v>
       </c>
       <c r="E9" t="n">
-        <v>-200570.5365608432</v>
+        <v>-176611.9801055676</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="B10" t="n">
-        <v>-252855</v>
+        <v>-211025.25</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>72887.4634391568</v>
+        <v>65676.26989443241</v>
       </c>
       <c r="E10" t="n">
-        <v>-179967.5365608432</v>
+        <v>-145348.9801055676</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="B11" t="n">
-        <v>-185427</v>
+        <v>-179762.25</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>26062.4634391568</v>
+        <v>65676.26989443241</v>
       </c>
       <c r="E11" t="n">
-        <v>-159364.5365608432</v>
+        <v>-114085.9801055676</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="B12" t="n">
-        <v>-117999</v>
+        <v>-148499.25</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>-20762.5365608432</v>
+        <v>65676.26989443241</v>
       </c>
       <c r="E12" t="n">
-        <v>-138761.5365608432</v>
+        <v>-82822.98010556759</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="B13" t="n">
-        <v>-50571</v>
+        <v>-117236.25</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>-67587.5365608432</v>
+        <v>65676.26989443241</v>
       </c>
       <c r="E13" t="n">
-        <v>-118158.5365608432</v>
+        <v>-51559.98010556759</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="B14" t="n">
-        <v>16857</v>
+        <v>-85973.25</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>-114412.5365608432</v>
+        <v>65676.26989443241</v>
       </c>
       <c r="E14" t="n">
-        <v>-97555.53656084323</v>
+        <v>-20296.98010556759</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="B15" t="n">
-        <v>84285</v>
+        <v>-54710.25</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>-161237.5365608432</v>
+        <v>65676.26989443241</v>
       </c>
       <c r="E15" t="n">
-        <v>-76952.53656084323</v>
+        <v>10966.01989443241</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="B16" t="n">
-        <v>151713</v>
+        <v>-23447.25</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>-161237.5365608432</v>
+        <v>65676.26989443241</v>
       </c>
       <c r="E16" t="n">
-        <v>-9524.536560843233</v>
+        <v>42229.01989443241</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="B17" t="n">
-        <v>219141</v>
+        <v>7815.75</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>-161237.5365608432</v>
+        <v>65676.26989443241</v>
       </c>
       <c r="E17" t="n">
-        <v>57903.46343915677</v>
+        <v>73492.01989443241</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="B18" t="n">
-        <v>286569</v>
+        <v>39078.75</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>-114412.5365608432</v>
+        <v>65676.26989443241</v>
       </c>
       <c r="E18" t="n">
-        <v>172156.4634391568</v>
+        <v>104755.0198944324</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="B19" t="n">
-        <v>353997</v>
+        <v>70341.75</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>-20762.53656084323</v>
+        <v>65676.26989443241</v>
       </c>
       <c r="E19" t="n">
-        <v>333234.4634391568</v>
+        <v>136018.0198944324</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="B20" t="n">
-        <v>421425</v>
+        <v>101604.75</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>72887.46343915677</v>
+        <v>65676.26989443241</v>
       </c>
       <c r="E20" t="n">
-        <v>494312.4634391568</v>
+        <v>167281.0198944324</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="B21" t="n">
-        <v>488853</v>
+        <v>132867.75</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>166537.4634391568</v>
+        <v>65676.26989443241</v>
       </c>
       <c r="E21" t="n">
-        <v>655390.4634391568</v>
+        <v>198544.0198944324</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="B22" t="n">
-        <v>556281</v>
+        <v>164130.75</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>260187.4634391568</v>
+        <v>65676.26989443241</v>
       </c>
       <c r="E22" t="n">
-        <v>816468.4634391568</v>
+        <v>229807.0198944324</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="B23" t="n">
-        <v>623709</v>
+        <v>195393.75</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>353837.4634391568</v>
+        <v>65676.26989443241</v>
       </c>
       <c r="E23" t="n">
-        <v>977546.4634391568</v>
+        <v>261070.0198944324</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="B24" t="n">
-        <v>691137</v>
+        <v>226656.75</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>447487.4634391568</v>
+        <v>65676.26989443241</v>
       </c>
       <c r="E24" t="n">
-        <v>1138624.463439157</v>
+        <v>292333.0198944324</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="B25" t="n">
-        <v>758565</v>
+        <v>257919.75</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>541137.4634391568</v>
+        <v>65676.26989443241</v>
       </c>
       <c r="E25" t="n">
-        <v>1299702.463439157</v>
+        <v>323596.0198944324</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="B26" t="n">
-        <v>825993</v>
+        <v>289182.75</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>634787.4634391568</v>
+        <v>65676.26989443241</v>
       </c>
       <c r="E26" t="n">
-        <v>1460780.463439157</v>
+        <v>354859.0198944324</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="B27" t="n">
-        <v>893421</v>
+        <v>320445.75</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>728437.4634391568</v>
+        <v>65676.26989443241</v>
       </c>
       <c r="E27" t="n">
-        <v>1621858.463439157</v>
+        <v>386122.0198944324</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="B28" t="n">
-        <v>960849</v>
+        <v>351708.75</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>822087.4634391568</v>
+        <v>19701.26989443241</v>
       </c>
       <c r="E28" t="n">
-        <v>1782936.463439157</v>
+        <v>371410.0198944324</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="B29" t="n">
-        <v>1028277</v>
+        <v>382971.75</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>915737.4634391568</v>
+        <v>-26273.73010556759</v>
       </c>
       <c r="E29" t="n">
-        <v>1944014.463439157</v>
+        <v>356698.0198944324</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="B30" t="n">
-        <v>1095705</v>
+        <v>414234.75</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>1009387.463439157</v>
+        <v>-72248.73010556759</v>
       </c>
       <c r="E30" t="n">
-        <v>2105092.463439157</v>
+        <v>341986.0198944324</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="B31" t="n">
-        <v>1163133</v>
+        <v>445497.75</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>1103037.463439157</v>
+        <v>-118223.7301055676</v>
       </c>
       <c r="E31" t="n">
-        <v>2266170.463439157</v>
+        <v>327274.0198944324</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="B32" t="n">
-        <v>1230561</v>
+        <v>476760.75</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>1196687.463439157</v>
+        <v>-164198.7301055676</v>
       </c>
       <c r="E32" t="n">
-        <v>2427248.463439157</v>
+        <v>312562.0198944324</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="B33" t="n">
-        <v>1297989</v>
+        <v>508023.75</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>1243512.463439157</v>
+        <v>-164198.7301055675</v>
       </c>
       <c r="E33" t="n">
-        <v>2541501.463439157</v>
+        <v>343825.0198944325</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="B34" t="n">
-        <v>1365417</v>
+        <v>539286.75</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>1290337.463439157</v>
+        <v>-164198.7301055676</v>
       </c>
       <c r="E34" t="n">
-        <v>2655754.463439157</v>
+        <v>375088.0198944324</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="B35" t="n">
-        <v>1432845</v>
+        <v>570549.75</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>1337162.463439157</v>
+        <v>-164198.7301055676</v>
       </c>
       <c r="E35" t="n">
-        <v>2770007.463439157</v>
+        <v>406351.0198944324</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="B36" t="n">
-        <v>1500273</v>
+        <v>601812.75</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>1383987.463439157</v>
+        <v>-164198.7301055676</v>
       </c>
       <c r="E36" t="n">
-        <v>2884260.463439157</v>
+        <v>437614.0198944324</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="B37" t="n">
-        <v>1567701</v>
+        <v>633075.75</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>1430812.463439157</v>
+        <v>-164198.7301055676</v>
       </c>
       <c r="E37" t="n">
-        <v>2998513.463439157</v>
+        <v>468877.0198944324</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="B38" t="n">
-        <v>1635129</v>
+        <v>664338.75</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>1477637.463439157</v>
+        <v>-164198.7301055676</v>
       </c>
       <c r="E38" t="n">
-        <v>3112766.463439157</v>
+        <v>500140.0198944324</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="B39" t="n">
-        <v>1702557</v>
+        <v>695601.75</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>1524462.463439157</v>
+        <v>-164198.7301055677</v>
       </c>
       <c r="E39" t="n">
-        <v>3227019.463439157</v>
+        <v>531403.0198944323</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="B40" t="n">
-        <v>1769985</v>
+        <v>726864.75</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>1571287.463439157</v>
+        <v>-164198.7301055677</v>
       </c>
       <c r="E40" t="n">
-        <v>3341272.463439157</v>
+        <v>562666.0198944323</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="B41" t="n">
-        <v>1837413</v>
+        <v>758127.75</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>1618112.463439157</v>
+        <v>-164198.7301055677</v>
       </c>
       <c r="E41" t="n">
-        <v>3455525.463439157</v>
+        <v>593929.0198944323</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
+        <v>80</v>
+      </c>
+      <c r="B42" t="n">
+        <v>789390.75</v>
+      </c>
+      <c r="C42" t="n">
+        <v>0</v>
+      </c>
+      <c r="D42" t="n">
+        <v>-164198.7301055677</v>
+      </c>
+      <c r="E42" t="n">
+        <v>625192.0198944323</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>81</v>
+      </c>
+      <c r="B43" t="n">
+        <v>820653.75</v>
+      </c>
+      <c r="C43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D43" t="n">
+        <v>-210173.7301055677</v>
+      </c>
+      <c r="E43" t="n">
+        <v>610480.0198944323</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>82</v>
+      </c>
+      <c r="B44" t="n">
+        <v>851916.75</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0</v>
+      </c>
+      <c r="D44" t="n">
+        <v>-256148.7301055675</v>
+      </c>
+      <c r="E44" t="n">
+        <v>595768.0198944325</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>83</v>
+      </c>
+      <c r="B45" t="n">
+        <v>883179.75</v>
+      </c>
+      <c r="C45" t="n">
+        <v>0</v>
+      </c>
+      <c r="D45" t="n">
+        <v>-302123.7301055677</v>
+      </c>
+      <c r="E45" t="n">
+        <v>581056.0198944323</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>84</v>
+      </c>
+      <c r="B46" t="n">
+        <v>914442.75</v>
+      </c>
+      <c r="C46" t="n">
+        <v>0</v>
+      </c>
+      <c r="D46" t="n">
+        <v>-348098.7301055677</v>
+      </c>
+      <c r="E46" t="n">
+        <v>566344.0198944323</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>85</v>
+      </c>
+      <c r="B47" t="n">
+        <v>945705.75</v>
+      </c>
+      <c r="C47" t="n">
+        <v>0</v>
+      </c>
+      <c r="D47" t="n">
+        <v>-394073.7301055677</v>
+      </c>
+      <c r="E47" t="n">
+        <v>551632.0198944323</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>86</v>
+      </c>
+      <c r="B48" t="n">
+        <v>976968.75</v>
+      </c>
+      <c r="C48" t="n">
+        <v>0</v>
+      </c>
+      <c r="D48" t="n">
+        <v>-486023.7301055676</v>
+      </c>
+      <c r="E48" t="n">
+        <v>490945.0198944324</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>87</v>
+      </c>
+      <c r="B49" t="n">
+        <v>1008231.75</v>
+      </c>
+      <c r="C49" t="n">
+        <v>0</v>
+      </c>
+      <c r="D49" t="n">
+        <v>-577973.7301055675</v>
+      </c>
+      <c r="E49" t="n">
+        <v>430258.0198944325</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>88</v>
+      </c>
+      <c r="B50" t="n">
+        <v>1039494.75</v>
+      </c>
+      <c r="C50" t="n">
+        <v>0</v>
+      </c>
+      <c r="D50" t="n">
+        <v>-669923.7301055674</v>
+      </c>
+      <c r="E50" t="n">
+        <v>369571.0198944326</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>89</v>
+      </c>
+      <c r="B51" t="n">
+        <v>1070757.75</v>
+      </c>
+      <c r="C51" t="n">
+        <v>0</v>
+      </c>
+      <c r="D51" t="n">
+        <v>-761873.7301055675</v>
+      </c>
+      <c r="E51" t="n">
+        <v>308884.0198944325</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>90</v>
+      </c>
+      <c r="B52" t="n">
+        <v>1102020.75</v>
+      </c>
+      <c r="C52" t="n">
+        <v>0</v>
+      </c>
+      <c r="D52" t="n">
+        <v>-853823.7301055675</v>
+      </c>
+      <c r="E52" t="n">
+        <v>248197.0198944325</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>91</v>
+      </c>
+      <c r="B53" t="n">
+        <v>1133283.75</v>
+      </c>
+      <c r="C53" t="n">
+        <v>0</v>
+      </c>
+      <c r="D53" t="n">
+        <v>-945773.7301055675</v>
+      </c>
+      <c r="E53" t="n">
+        <v>187510.0198944325</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>92</v>
+      </c>
+      <c r="B54" t="n">
+        <v>1164546.75</v>
+      </c>
+      <c r="C54" t="n">
+        <v>0</v>
+      </c>
+      <c r="D54" t="n">
+        <v>-1037723.730105568</v>
+      </c>
+      <c r="E54" t="n">
+        <v>126823.0198944324</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>93</v>
+      </c>
+      <c r="B55" t="n">
+        <v>1195809.75</v>
+      </c>
+      <c r="C55" t="n">
+        <v>0</v>
+      </c>
+      <c r="D55" t="n">
+        <v>-1129673.730105567</v>
+      </c>
+      <c r="E55" t="n">
+        <v>66136.01989443274</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>94</v>
+      </c>
+      <c r="B56" t="n">
+        <v>1227072.75</v>
+      </c>
+      <c r="C56" t="n">
+        <v>0</v>
+      </c>
+      <c r="D56" t="n">
+        <v>-1221623.730105567</v>
+      </c>
+      <c r="E56" t="n">
+        <v>5449.019894432509</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
         <v>95</v>
       </c>
-      <c r="B42" t="n">
-        <v>1904841</v>
-      </c>
-      <c r="C42" t="n">
-        <v>0</v>
-      </c>
-      <c r="D42" t="n">
-        <v>1664937.463439157</v>
-      </c>
-      <c r="E42" t="n">
-        <v>3569778.463439157</v>
+      <c r="B57" t="n">
+        <v>1258335.75</v>
+      </c>
+      <c r="C57" t="n">
+        <v>0</v>
+      </c>
+      <c r="D57" t="n">
+        <v>-1313573.730105567</v>
+      </c>
+      <c r="E57" t="n">
+        <v>-55237.98010556749</v>
       </c>
     </row>
   </sheetData>
@@ -4897,7 +6427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E42"/>
+  <dimension ref="A1:E57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4934,699 +6464,954 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="B2" t="n">
-        <v>-792279</v>
+        <v>-461129.25</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>-212522.2482195711</v>
+        <v>-331800.7281500666</v>
       </c>
       <c r="E2" t="n">
-        <v>-1004801.248219571</v>
+        <v>-792929.9781500667</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="B3" t="n">
-        <v>-724851</v>
+        <v>-429866.25</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>-185919.1927364546</v>
+        <v>-288336.0929964769</v>
       </c>
       <c r="E3" t="n">
-        <v>-910770.1927364545</v>
+        <v>-718202.3429964769</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="B4" t="n">
-        <v>-657423</v>
+        <v>-398603.25</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>-161654.8327881153</v>
+        <v>-248836.6136624041</v>
       </c>
       <c r="E4" t="n">
-        <v>-819077.8327881154</v>
+        <v>-647439.8636624041</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="B5" t="n">
-        <v>-589995</v>
+        <v>-367340.25</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>-139660.9661724196</v>
+        <v>-213186.9469357879</v>
       </c>
       <c r="E5" t="n">
-        <v>-729655.9661724196</v>
+        <v>-580527.1969357879</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="B6" t="n">
-        <v>-522567</v>
+        <v>-336077.25</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>-119773.7393906561</v>
+        <v>-181250.2430274976</v>
       </c>
       <c r="E6" t="n">
-        <v>-642340.7393906561</v>
+        <v>-517327.4930274977</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="B7" t="n">
-        <v>-455139</v>
+        <v>-304814.25</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>-101730.786290459</v>
+        <v>-152874.8729099875</v>
       </c>
       <c r="E7" t="n">
-        <v>-556869.7862904591</v>
+        <v>-457689.1229099875</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="B8" t="n">
-        <v>-387711</v>
+        <v>-273551.25</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>-85174.85769954098</v>
+        <v>-127900.6655499509</v>
       </c>
       <c r="E8" t="n">
-        <v>-472885.857699541</v>
+        <v>-401451.9155499509</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="B9" t="n">
-        <v>-320283</v>
+        <v>-242288.25</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>-69664.19438425328</v>
+        <v>-106164.4772550365</v>
       </c>
       <c r="E9" t="n">
-        <v>-389947.1943842533</v>
+        <v>-348452.7272550365</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="B10" t="n">
-        <v>-252855</v>
+        <v>-211025.25</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>-54689.24499095451</v>
+        <v>-87504.98642754873</v>
       </c>
       <c r="E10" t="n">
-        <v>-307544.2449909545</v>
+        <v>-298530.2364275487</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="B11" t="n">
-        <v>-185427</v>
+        <v>-179762.25</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>-39694.6761251283</v>
+        <v>-71766.66750657528</v>
       </c>
       <c r="E11" t="n">
-        <v>-225121.6761251283</v>
+        <v>-251528.9175065753</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="B12" t="n">
-        <v>-117999</v>
+        <v>-148499.25</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>-24105.05545340405</v>
+        <v>-58802.94623147747</v>
       </c>
       <c r="E12" t="n">
-        <v>-142104.0554534041</v>
+        <v>-207302.1962314775</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="B13" t="n">
-        <v>-50571</v>
+        <v>-117236.25</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>-7352.196513156094</v>
+        <v>-48478.57446343606</v>
       </c>
       <c r="E13" t="n">
-        <v>-57923.19651315609</v>
+        <v>-165714.8244634361</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="B14" t="n">
-        <v>16857</v>
+        <v>-85973.25</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>11098.00287693248</v>
+        <v>-40671.28756836335</v>
       </c>
       <c r="E14" t="n">
-        <v>27955.00287693248</v>
+        <v>-126644.5375683633</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="B15" t="n">
-        <v>84285</v>
+        <v>-54710.25</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>31721.29499319227</v>
+        <v>-35272.82233721253</v>
       </c>
       <c r="E15" t="n">
-        <v>116006.2949931923</v>
+        <v>-89983.07233721254</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="B16" t="n">
-        <v>151713</v>
+        <v>-23447.25</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>54915.11583391279</v>
+        <v>-32189.38044731346</v>
       </c>
       <c r="E16" t="n">
-        <v>206628.1158339128</v>
+        <v>-55636.63044731346</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="B17" t="n">
-        <v>219141</v>
+        <v>7815.75</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>80984.12524665736</v>
+        <v>-31341.62345096602</v>
       </c>
       <c r="E17" t="n">
-        <v>300125.1252466573</v>
+        <v>-23525.87345096602</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="B18" t="n">
-        <v>286569</v>
+        <v>39078.75</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>110131.8466707418</v>
+        <v>-32664.28198818282</v>
       </c>
       <c r="E18" t="n">
-        <v>396700.8466707418</v>
+        <v>6414.468011817182</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="B19" t="n">
-        <v>353997</v>
+        <v>70341.75</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>142458.3826881407</v>
+        <v>-36105.45589374451</v>
       </c>
       <c r="E19" t="n">
-        <v>496455.3826881407</v>
+        <v>34236.29410625549</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="B20" t="n">
-        <v>421425</v>
+        <v>101604.75</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>177963.6452161862</v>
+        <v>-41625.67434686334</v>
       </c>
       <c r="E20" t="n">
-        <v>599388.6452161863</v>
+        <v>59979.07565313666</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="B21" t="n">
-        <v>488853</v>
+        <v>132867.75</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>216555.1405566095</v>
+        <v>-49196.77713401421</v>
       </c>
       <c r="E21" t="n">
-        <v>705408.1405566095</v>
+        <v>83670.97286598579</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="B22" t="n">
-        <v>556281</v>
+        <v>164130.75</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>258059.1188185044</v>
+        <v>-58800.67011787396</v>
       </c>
       <c r="E22" t="n">
-        <v>814340.1188185044</v>
+        <v>105330.079882126</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="B23" t="n">
-        <v>623709</v>
+        <v>195393.75</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>302233.8337406759</v>
+        <v>-70428.00054054859</v>
       </c>
       <c r="E23" t="n">
-        <v>925942.8337406759</v>
+        <v>124965.7494594514</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="B24" t="n">
-        <v>691137</v>
+        <v>226656.75</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>348783.7377512264</v>
+        <v>-84076.79105357124</v>
       </c>
       <c r="E24" t="n">
-        <v>1039920.737751226</v>
+        <v>142579.9589464288</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="B25" t="n">
-        <v>758565</v>
+        <v>257919.75</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>397373.6181343527</v>
+        <v>-99751.06543168562</v>
       </c>
       <c r="E25" t="n">
-        <v>1155938.618134353</v>
+        <v>158168.6845683144</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="B26" t="n">
-        <v>825993</v>
+        <v>289182.75</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>447641.9179142519</v>
+        <v>-117459.4937639762</v>
       </c>
       <c r="E26" t="n">
-        <v>1273634.917914252</v>
+        <v>171723.2562360239</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="B27" t="n">
-        <v>893421</v>
+        <v>320445.75</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>499212.7370014309</v>
+        <v>-137214.080437266</v>
       </c>
       <c r="E27" t="n">
-        <v>1392633.737001431</v>
+        <v>183231.669562734</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="B28" t="n">
-        <v>960849</v>
+        <v>351708.75</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>551706.2415896289</v>
+        <v>-159028.9143187277</v>
       </c>
       <c r="E28" t="n">
-        <v>1512555.241589629</v>
+        <v>192679.8356812723</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="B29" t="n">
-        <v>1028277</v>
+        <v>382971.75</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>604747.4006945192</v>
+        <v>-182918.9970895617</v>
       </c>
       <c r="E29" t="n">
-        <v>1633024.400694519</v>
+        <v>200052.7529104383</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="B30" t="n">
-        <v>1095705</v>
+        <v>414234.75</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>657973.1078047634</v>
+        <v>-208899.1625736346</v>
       </c>
       <c r="E30" t="n">
-        <v>1753678.107804763</v>
+        <v>205335.5874263654</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="B31" t="n">
-        <v>1163133</v>
+        <v>445497.75</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>711037.8325262801</v>
+        <v>-236983.0970595995</v>
       </c>
       <c r="E31" t="n">
-        <v>1874170.83252628</v>
+        <v>208514.6529404005</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="B32" t="n">
-        <v>1230561</v>
+        <v>476760.75</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>763617.9885530423</v>
+        <v>-267182.4679719254</v>
       </c>
       <c r="E32" t="n">
-        <v>1994178.988553042</v>
+        <v>209578.2820280746</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="B33" t="n">
-        <v>1297989</v>
+        <v>508023.75</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>815415.2109420893</v>
+        <v>-299506.1657695124</v>
       </c>
       <c r="E33" t="n">
-        <v>2113404.21094209</v>
+        <v>208517.5842304876</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="B34" t="n">
-        <v>1365417</v>
+        <v>539286.75</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>866158.7193309283</v>
+        <v>-333959.6616250112</v>
       </c>
       <c r="E34" t="n">
-        <v>2231575.719330928</v>
+        <v>205327.0883749888</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="B35" t="n">
-        <v>1432845</v>
+        <v>570549.75</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>915606.9153493464</v>
+        <v>-370544.4812650167</v>
       </c>
       <c r="E35" t="n">
-        <v>2348451.915349347</v>
+        <v>200005.2687349833</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="B36" t="n">
-        <v>1500273</v>
+        <v>601812.75</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>963548.330833626</v>
+        <v>-409257.7933437187</v>
       </c>
       <c r="E36" t="n">
-        <v>2463821.330833626</v>
+        <v>192554.9566562813</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="B37" t="n">
-        <v>1567701</v>
+        <v>633075.75</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>1009802.014665108</v>
+        <v>-450092.108899257</v>
       </c>
       <c r="E37" t="n">
-        <v>2577503.014665108</v>
+        <v>182983.641100743</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="B38" t="n">
-        <v>1635129</v>
+        <v>664338.75</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>1054217.423611942</v>
+        <v>-493035.0868239154</v>
       </c>
       <c r="E38" t="n">
-        <v>2689346.423611942</v>
+        <v>171303.6631760846</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="B39" t="n">
-        <v>1702557</v>
+        <v>695601.75</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>1096673.86771643</v>
+        <v>-538069.4388854401</v>
       </c>
       <c r="E39" t="n">
-        <v>2799230.867716431</v>
+        <v>157532.3111145599</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="B40" t="n">
-        <v>1769985</v>
+        <v>726864.75</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>1137079.553168192</v>
+        <v>-585172.9266817719</v>
       </c>
       <c r="E40" t="n">
-        <v>2907064.553168192</v>
+        <v>141691.8233182281</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="B41" t="n">
-        <v>1837413</v>
+        <v>758127.75</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>1175370.263843761</v>
+        <v>-634318.4420041074</v>
       </c>
       <c r="E41" t="n">
-        <v>3012783.263843761</v>
+        <v>123809.3079958926</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
+        <v>80</v>
+      </c>
+      <c r="B42" t="n">
+        <v>789390.75</v>
+      </c>
+      <c r="C42" t="n">
+        <v>0</v>
+      </c>
+      <c r="D42" t="n">
+        <v>-685474.1614248697</v>
+      </c>
+      <c r="E42" t="n">
+        <v>103916.5885751303</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>81</v>
+      </c>
+      <c r="B43" t="n">
+        <v>820653.75</v>
+      </c>
+      <c r="C43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D43" t="n">
+        <v>-738603.7655126335</v>
+      </c>
+      <c r="E43" t="n">
+        <v>82049.98448736651</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>82</v>
+      </c>
+      <c r="B44" t="n">
+        <v>851916.75</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0</v>
+      </c>
+      <c r="D44" t="n">
+        <v>-793666.7128932027</v>
+      </c>
+      <c r="E44" t="n">
+        <v>58250.03710679733</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>83</v>
+      </c>
+      <c r="B45" t="n">
+        <v>883179.75</v>
+      </c>
+      <c r="C45" t="n">
+        <v>0</v>
+      </c>
+      <c r="D45" t="n">
+        <v>-850618.5594074714</v>
+      </c>
+      <c r="E45" t="n">
+        <v>32561.19059252855</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>84</v>
+      </c>
+      <c r="B46" t="n">
+        <v>914442.75</v>
+      </c>
+      <c r="C46" t="n">
+        <v>0</v>
+      </c>
+      <c r="D46" t="n">
+        <v>-909411.3128398206</v>
+      </c>
+      <c r="E46" t="n">
+        <v>5031.437160179368</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>85</v>
+      </c>
+      <c r="B47" t="n">
+        <v>945705.75</v>
+      </c>
+      <c r="C47" t="n">
+        <v>0</v>
+      </c>
+      <c r="D47" t="n">
+        <v>-969993.8140807087</v>
+      </c>
+      <c r="E47" t="n">
+        <v>-24288.06408070866</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>86</v>
+      </c>
+      <c r="B48" t="n">
+        <v>976968.75</v>
+      </c>
+      <c r="C48" t="n">
+        <v>0</v>
+      </c>
+      <c r="D48" t="n">
+        <v>-1032312.136115816</v>
+      </c>
+      <c r="E48" t="n">
+        <v>-55343.38611581642</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>87</v>
+      </c>
+      <c r="B49" t="n">
+        <v>1008231.75</v>
+      </c>
+      <c r="C49" t="n">
+        <v>0</v>
+      </c>
+      <c r="D49" t="n">
+        <v>-1096309.992873824</v>
+      </c>
+      <c r="E49" t="n">
+        <v>-88078.24287382374</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>88</v>
+      </c>
+      <c r="B50" t="n">
+        <v>1039494.75</v>
+      </c>
+      <c r="C50" t="n">
+        <v>0</v>
+      </c>
+      <c r="D50" t="n">
+        <v>-1161929.150687422</v>
+      </c>
+      <c r="E50" t="n">
+        <v>-122434.4006874221</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>89</v>
+      </c>
+      <c r="B51" t="n">
+        <v>1070757.75</v>
+      </c>
+      <c r="C51" t="n">
+        <v>0</v>
+      </c>
+      <c r="D51" t="n">
+        <v>-1229109.83590096</v>
+      </c>
+      <c r="E51" t="n">
+        <v>-158352.0859009605</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>90</v>
+      </c>
+      <c r="B52" t="n">
+        <v>1102020.75</v>
+      </c>
+      <c r="C52" t="n">
+        <v>0</v>
+      </c>
+      <c r="D52" t="n">
+        <v>-1297791.132968252</v>
+      </c>
+      <c r="E52" t="n">
+        <v>-195770.3829682521</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>91</v>
+      </c>
+      <c r="B53" t="n">
+        <v>1133283.75</v>
+      </c>
+      <c r="C53" t="n">
+        <v>0</v>
+      </c>
+      <c r="D53" t="n">
+        <v>-1367911.368203435</v>
+      </c>
+      <c r="E53" t="n">
+        <v>-234627.6182034346</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>92</v>
+      </c>
+      <c r="B54" t="n">
+        <v>1164546.75</v>
+      </c>
+      <c r="C54" t="n">
+        <v>0</v>
+      </c>
+      <c r="D54" t="n">
+        <v>-1439408.475156622</v>
+      </c>
+      <c r="E54" t="n">
+        <v>-274861.725156622</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>93</v>
+      </c>
+      <c r="B55" t="n">
+        <v>1195809.75</v>
+      </c>
+      <c r="C55" t="n">
+        <v>0</v>
+      </c>
+      <c r="D55" t="n">
+        <v>-1512220.338368147</v>
+      </c>
+      <c r="E55" t="n">
+        <v>-316410.5883681471</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>94</v>
+      </c>
+      <c r="B56" t="n">
+        <v>1227072.75</v>
+      </c>
+      <c r="C56" t="n">
+        <v>0</v>
+      </c>
+      <c r="D56" t="n">
+        <v>-1586285.112996955</v>
+      </c>
+      <c r="E56" t="n">
+        <v>-359212.3629969549</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
         <v>95</v>
       </c>
-      <c r="B42" t="n">
-        <v>1904841</v>
-      </c>
-      <c r="C42" t="n">
-        <v>0</v>
-      </c>
-      <c r="D42" t="n">
-        <v>1211507.724909038</v>
-      </c>
-      <c r="E42" t="n">
-        <v>3116348.724909038</v>
+      <c r="B57" t="n">
+        <v>1258335.75</v>
+      </c>
+      <c r="C57" t="n">
+        <v>0</v>
+      </c>
+      <c r="D57" t="n">
+        <v>-1661541.518509651</v>
+      </c>
+      <c r="E57" t="n">
+        <v>-403205.7685096511</v>
       </c>
     </row>
   </sheetData>
@@ -5640,7 +7425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E42"/>
+  <dimension ref="A1:E57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5677,699 +7462,954 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="B2" t="n">
-        <v>-792279</v>
+        <v>-461129.25</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>-196676.7316183283</v>
+        <v>-317567.5484723588</v>
       </c>
       <c r="E2" t="n">
-        <v>-988955.7316183283</v>
+        <v>-778696.7984723588</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="B3" t="n">
-        <v>-724851</v>
+        <v>-429866.25</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>-168269.8829892171</v>
+        <v>-273130.7332925752</v>
       </c>
       <c r="E3" t="n">
-        <v>-893120.8829892171</v>
+        <v>-702996.9832925752</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="B4" t="n">
-        <v>-657423</v>
+        <v>-398603.25</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>-142805.8415010276</v>
+        <v>-232844.5181103327</v>
       </c>
       <c r="E4" t="n">
-        <v>-800228.8415010276</v>
+        <v>-631447.7681103328</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="B5" t="n">
-        <v>-589995</v>
+        <v>-367340.25</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>-120443.0333825664</v>
+        <v>-196580.2715431719</v>
       </c>
       <c r="E5" t="n">
-        <v>-710438.0333825664</v>
+        <v>-563920.521543172</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="B6" t="n">
-        <v>-522567</v>
+        <v>-336077.25</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>-101227.9760067071</v>
+        <v>-164181.7049617578</v>
       </c>
       <c r="E6" t="n">
-        <v>-623794.9760067071</v>
+        <v>-500258.9549617578</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="B7" t="n">
-        <v>-455139</v>
+        <v>-304814.25</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>-85070.58147653559</v>
+        <v>-135473.3407027405</v>
       </c>
       <c r="E7" t="n">
-        <v>-540209.5814765356</v>
+        <v>-440287.5907027405</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="B8" t="n">
-        <v>-387711</v>
+        <v>-273551.25</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>-71724.50750482731</v>
+        <v>-110268.4628379593</v>
       </c>
       <c r="E8" t="n">
-        <v>-459435.5075048273</v>
+        <v>-383819.7128379593</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="B9" t="n">
-        <v>-320283</v>
+        <v>-242288.25</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>-60774.61242239204</v>
+        <v>-88376.26288394036</v>
       </c>
       <c r="E9" t="n">
-        <v>-381057.6124223921</v>
+        <v>-330664.5128839404</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="B10" t="n">
-        <v>-252855</v>
+        <v>-211025.25</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>-51634.23173475076</v>
+        <v>-69607.99822814374</v>
       </c>
       <c r="E10" t="n">
-        <v>-304489.2317347508</v>
+        <v>-280633.2482281437</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="B11" t="n">
-        <v>-185427</v>
+        <v>-179762.25</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>-43555.63590526965</v>
+        <v>-53782.07446005539</v>
       </c>
       <c r="E11" t="n">
-        <v>-228982.6359052696</v>
+        <v>-233544.3244600554</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="B12" t="n">
-        <v>-117999</v>
+        <v>-148499.25</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>-35656.87704863596</v>
+        <v>-40728.03994208641</v>
       </c>
       <c r="E12" t="n">
-        <v>-153655.877048636</v>
+        <v>-189227.2899420864</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="B13" t="n">
-        <v>-50571</v>
+        <v>-117236.25</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>-26966.59416748057</v>
+        <v>-30289.54009578734</v>
       </c>
       <c r="E13" t="n">
-        <v>-77537.59416748057</v>
+        <v>-147525.7900957873</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="B14" t="n">
-        <v>16857</v>
+        <v>-85973.25</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>-16485.10873915266</v>
+        <v>-22326.32026109047</v>
       </c>
       <c r="E14" t="n">
-        <v>371.8912608473402</v>
+        <v>-108299.5702610905</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="B15" t="n">
-        <v>84285</v>
+        <v>-54710.25</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>-3256.031954032307</v>
+        <v>-16715.39126856082</v>
       </c>
       <c r="E15" t="n">
-        <v>81028.96804596769</v>
+        <v>-71425.64126856082</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="B16" t="n">
-        <v>151713</v>
+        <v>-23447.25</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>13560.99371050119</v>
+        <v>-13351.48357236933</v>
       </c>
       <c r="E16" t="n">
-        <v>165273.9937105012</v>
+        <v>-36798.73357236933</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="B17" t="n">
-        <v>219141</v>
+        <v>7815.75</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>34627.42522948171</v>
+        <v>-12146.91685240795</v>
       </c>
       <c r="E17" t="n">
-        <v>253768.4252294817</v>
+        <v>-4331.166852407954</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="B18" t="n">
-        <v>286569</v>
+        <v>39078.75</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>60382.6459536059</v>
+        <v>-13031.00536940603</v>
       </c>
       <c r="E18" t="n">
-        <v>346951.6459536059</v>
+        <v>26047.74463059397</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="B19" t="n">
-        <v>353997</v>
+        <v>70341.75</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>91026.50741858769</v>
+        <v>-15949.10777794679</v>
       </c>
       <c r="E19" t="n">
-        <v>445023.5074185877</v>
+        <v>54392.64222205321</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="B20" t="n">
-        <v>421425</v>
+        <v>101604.75</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>126528.3305355177</v>
+        <v>-20861.4159003082</v>
       </c>
       <c r="E20" t="n">
-        <v>547953.3305355177</v>
+        <v>80743.3340996918</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="B21" t="n">
-        <v>488853</v>
+        <v>132867.75</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>166657.985584287</v>
+        <v>-27741.56198671865</v>
       </c>
       <c r="E21" t="n">
-        <v>655510.985584287</v>
+        <v>105126.1880132814</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="B22" t="n">
-        <v>556281</v>
+        <v>164130.75</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>211031.1232520855</v>
+        <v>-36575.10958082411</v>
       </c>
       <c r="E22" t="n">
-        <v>767312.1232520855</v>
+        <v>127555.6404191759</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="B23" t="n">
-        <v>623709</v>
+        <v>195393.75</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>259159.4051601863</v>
+        <v>-47357.98014949317</v>
       </c>
       <c r="E23" t="n">
-        <v>882868.4051601863</v>
+        <v>148035.7698505068</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="B24" t="n">
-        <v>691137</v>
+        <v>226656.75</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>310497.5978702372</v>
+        <v>-60094.85659459319</v>
       </c>
       <c r="E24" t="n">
-        <v>1001634.597870237</v>
+        <v>166561.8934054068</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="B25" t="n">
-        <v>758565</v>
+        <v>257919.75</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>364481.92852025</v>
+        <v>-74797.5957880904</v>
       </c>
       <c r="E25" t="n">
-        <v>1123046.92852025</v>
+        <v>183122.1542119096</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="B26" t="n">
-        <v>825993</v>
+        <v>289182.75</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>420557.1725572043</v>
+        <v>-91483.67527025315</v>
       </c>
       <c r="E26" t="n">
-        <v>1246550.172557204</v>
+        <v>197699.0747297468</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="B27" t="n">
-        <v>893421</v>
+        <v>320445.75</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>478192.6833556523</v>
+        <v>-110174.6939776242</v>
       </c>
       <c r="E27" t="n">
-        <v>1371613.683355652</v>
+        <v>210271.0560223758</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="B28" t="n">
-        <v>960849</v>
+        <v>351708.75</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>536889.4452927472</v>
+        <v>-130894.942993075</v>
       </c>
       <c r="E28" t="n">
-        <v>1497738.445292747</v>
+        <v>220813.8070069251</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="B29" t="n">
-        <v>1028277</v>
+        <v>382971.75</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>596181.0870815166</v>
+        <v>-153670.0594792024</v>
       </c>
       <c r="E29" t="n">
-        <v>1624458.087081517</v>
+        <v>229301.6905207976</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="B30" t="n">
-        <v>1095705</v>
+        <v>414234.75</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>655631.7808071476</v>
+        <v>-178525.7748306018</v>
       </c>
       <c r="E30" t="n">
-        <v>1751336.780807148</v>
+        <v>235708.9751693982</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="B31" t="n">
-        <v>1163133</v>
+        <v>445497.75</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>714833.3779003951</v>
+        <v>-205486.7663683518</v>
       </c>
       <c r="E31" t="n">
-        <v>1877966.377900395</v>
+        <v>240010.9836316482</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="B32" t="n">
-        <v>1230561</v>
+        <v>476760.75</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>773403.3183968891</v>
+        <v>-234575.6203715751</v>
       </c>
       <c r="E32" t="n">
-        <v>2003964.318396889</v>
+        <v>242185.1296284249</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="B33" t="n">
-        <v>1297989</v>
+        <v>508023.75</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>830984.0474106974</v>
+        <v>-265811.9127335576</v>
       </c>
       <c r="E33" t="n">
-        <v>2128973.047410698</v>
+        <v>242211.8372664424</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="B34" t="n">
-        <v>1365417</v>
+        <v>539286.75</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>887244.0337447312</v>
+        <v>-299211.4119457591</v>
       </c>
       <c r="E34" t="n">
-        <v>2252661.033744731</v>
+        <v>240075.3380542409</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="B35" t="n">
-        <v>1432845</v>
+        <v>570549.75</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>941880.0662481575</v>
+        <v>-334785.4074109553</v>
       </c>
       <c r="E35" t="n">
-        <v>2374725.066248158</v>
+        <v>235764.3425890447</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="B36" t="n">
-        <v>1500273</v>
+        <v>601812.75</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>994620.2935588298</v>
+        <v>-372540.1642708289</v>
       </c>
       <c r="E36" t="n">
-        <v>2494893.29355883</v>
+        <v>229272.5857291711</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="B37" t="n">
-        <v>1567701</v>
+        <v>633075.75</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>1045227.426790529</v>
+        <v>-412476.5040411445</v>
       </c>
       <c r="E37" t="n">
-        <v>2612928.426790528</v>
+        <v>220599.2459588555</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="B38" t="n">
-        <v>1635129</v>
+        <v>664338.75</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>1093501.587087757</v>
+        <v>-454589.5084370608</v>
       </c>
       <c r="E38" t="n">
-        <v>2728630.587087757</v>
+        <v>209749.2415629392</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="B39" t="n">
-        <v>1702557</v>
+        <v>695601.75</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>1139282.400691824</v>
+        <v>-498868.3419106723</v>
       </c>
       <c r="E39" t="n">
-        <v>2841839.400691824</v>
+        <v>196733.4080893277</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="B40" t="n">
-        <v>1769985</v>
+        <v>726864.75</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>1182450.085235585</v>
+        <v>-545296.1866808407</v>
       </c>
       <c r="E40" t="n">
-        <v>2952435.085235585</v>
+        <v>181568.5633191593</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="B41" t="n">
-        <v>1837413</v>
+        <v>758127.75</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>1222925.407353694</v>
+        <v>-593850.282474592</v>
       </c>
       <c r="E41" t="n">
-        <v>3060338.407353694</v>
+        <v>164277.467525408</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
+        <v>80</v>
+      </c>
+      <c r="B42" t="n">
+        <v>789390.75</v>
+      </c>
+      <c r="C42" t="n">
+        <v>0</v>
+      </c>
+      <c r="D42" t="n">
+        <v>-644502.0618709356</v>
+      </c>
+      <c r="E42" t="n">
+        <v>144888.6881290644</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>81</v>
+      </c>
+      <c r="B43" t="n">
+        <v>820653.75</v>
+      </c>
+      <c r="C43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D43" t="n">
+        <v>-697217.3710791698</v>
+      </c>
+      <c r="E43" t="n">
+        <v>123436.3789208302</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>82</v>
+      </c>
+      <c r="B44" t="n">
+        <v>851916.75</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0</v>
+      </c>
+      <c r="D44" t="n">
+        <v>-751956.7652167361</v>
+      </c>
+      <c r="E44" t="n">
+        <v>99959.98478326388</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>83</v>
+      </c>
+      <c r="B45" t="n">
+        <v>883179.75</v>
+      </c>
+      <c r="C45" t="n">
+        <v>0</v>
+      </c>
+      <c r="D45" t="n">
+        <v>-808675.8666836962</v>
+      </c>
+      <c r="E45" t="n">
+        <v>74503.88331630384</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>84</v>
+      </c>
+      <c r="B46" t="n">
+        <v>914442.75</v>
+      </c>
+      <c r="C46" t="n">
+        <v>0</v>
+      </c>
+      <c r="D46" t="n">
+        <v>-867325.775055591</v>
+      </c>
+      <c r="E46" t="n">
+        <v>47116.97494440898</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>85</v>
+      </c>
+      <c r="B47" t="n">
+        <v>945705.75</v>
+      </c>
+      <c r="C47" t="n">
+        <v>0</v>
+      </c>
+      <c r="D47" t="n">
+        <v>-927853.517016093</v>
+      </c>
+      <c r="E47" t="n">
+        <v>17852.23298390699</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>86</v>
+      </c>
+      <c r="B48" t="n">
+        <v>976968.75</v>
+      </c>
+      <c r="C48" t="n">
+        <v>0</v>
+      </c>
+      <c r="D48" t="n">
+        <v>-990202.5251983462</v>
+      </c>
+      <c r="E48" t="n">
+        <v>-13233.77519834624</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>87</v>
+      </c>
+      <c r="B49" t="n">
+        <v>1008231.75</v>
+      </c>
+      <c r="C49" t="n">
+        <v>0</v>
+      </c>
+      <c r="D49" t="n">
+        <v>-1054313.13536595</v>
+      </c>
+      <c r="E49" t="n">
+        <v>-46081.38536594994</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>88</v>
+      </c>
+      <c r="B50" t="n">
+        <v>1039494.75</v>
+      </c>
+      <c r="C50" t="n">
+        <v>0</v>
+      </c>
+      <c r="D50" t="n">
+        <v>-1120123.092103388</v>
+      </c>
+      <c r="E50" t="n">
+        <v>-80628.34210338816</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>89</v>
+      </c>
+      <c r="B51" t="n">
+        <v>1070757.75</v>
+      </c>
+      <c r="C51" t="n">
+        <v>0</v>
+      </c>
+      <c r="D51" t="n">
+        <v>-1187568.054061972</v>
+      </c>
+      <c r="E51" t="n">
+        <v>-116810.3040619716</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>90</v>
+      </c>
+      <c r="B52" t="n">
+        <v>1102020.75</v>
+      </c>
+      <c r="C52" t="n">
+        <v>0</v>
+      </c>
+      <c r="D52" t="n">
+        <v>-1256582.090781996</v>
+      </c>
+      <c r="E52" t="n">
+        <v>-154561.340781996</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>91</v>
+      </c>
+      <c r="B53" t="n">
+        <v>1133283.75</v>
+      </c>
+      <c r="C53" t="n">
+        <v>0</v>
+      </c>
+      <c r="D53" t="n">
+        <v>-1327098.164147054</v>
+      </c>
+      <c r="E53" t="n">
+        <v>-193814.4141470538</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>92</v>
+      </c>
+      <c r="B54" t="n">
+        <v>1164546.75</v>
+      </c>
+      <c r="C54" t="n">
+        <v>0</v>
+      </c>
+      <c r="D54" t="n">
+        <v>-1399048.588588179</v>
+      </c>
+      <c r="E54" t="n">
+        <v>-234501.8385881791</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>93</v>
+      </c>
+      <c r="B55" t="n">
+        <v>1195809.75</v>
+      </c>
+      <c r="C55" t="n">
+        <v>0</v>
+      </c>
+      <c r="D55" t="n">
+        <v>-1472365.465212946</v>
+      </c>
+      <c r="E55" t="n">
+        <v>-276555.7152129458</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>94</v>
+      </c>
+      <c r="B56" t="n">
+        <v>1227072.75</v>
+      </c>
+      <c r="C56" t="n">
+        <v>0</v>
+      </c>
+      <c r="D56" t="n">
+        <v>-1546981.086061802</v>
+      </c>
+      <c r="E56" t="n">
+        <v>-319908.3360618022</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
         <v>95</v>
       </c>
-      <c r="B42" t="n">
-        <v>1904841</v>
-      </c>
-      <c r="C42" t="n">
-        <v>0</v>
-      </c>
-      <c r="D42" t="n">
-        <v>1260668.509139853</v>
-      </c>
-      <c r="E42" t="n">
-        <v>3165509.509139853</v>
+      <c r="B57" t="n">
+        <v>1258335.75</v>
+      </c>
+      <c r="C57" t="n">
+        <v>0</v>
+      </c>
+      <c r="D57" t="n">
+        <v>-1622828.305669418</v>
+      </c>
+      <c r="E57" t="n">
+        <v>-364492.5556694176</v>
       </c>
     </row>
   </sheetData>

--- a/NZU PnL Output.xlsx
+++ b/NZU PnL Output.xlsx
@@ -479,16 +479,16 @@
         <v>40</v>
       </c>
       <c r="B2" t="n">
-        <v>-461129.25</v>
+        <v>-518489.325</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>-265453.0685156828</v>
+        <v>-122316.5794497971</v>
       </c>
       <c r="E2" t="n">
-        <v>-726582.3185156828</v>
+        <v>-640805.9044497971</v>
       </c>
     </row>
     <row r="3">
@@ -496,16 +496,16 @@
         <v>41</v>
       </c>
       <c r="B3" t="n">
-        <v>-429866.25</v>
+        <v>-484490.025</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>-217510.2420710672</v>
+        <v>-98358.24452521038</v>
       </c>
       <c r="E3" t="n">
-        <v>-647376.4920710672</v>
+        <v>-582848.2695252104</v>
       </c>
     </row>
     <row r="4">
@@ -513,16 +513,16 @@
         <v>42</v>
       </c>
       <c r="B4" t="n">
-        <v>-398603.25</v>
+        <v>-450490.725</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>-174751.2336195467</v>
+        <v>-76989.43343652827</v>
       </c>
       <c r="E4" t="n">
-        <v>-573354.4836195466</v>
+        <v>-527480.1584365283</v>
       </c>
     </row>
     <row r="5">
@@ -530,16 +530,16 @@
         <v>43</v>
       </c>
       <c r="B5" t="n">
-        <v>-367340.25</v>
+        <v>-416491.425</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>-136993.1316602656</v>
+        <v>-58119.33530400709</v>
       </c>
       <c r="E5" t="n">
-        <v>-504333.3816602656</v>
+        <v>-474610.7603040072</v>
       </c>
     </row>
     <row r="6">
@@ -547,16 +547,16 @@
         <v>44</v>
       </c>
       <c r="B6" t="n">
-        <v>-336077.25</v>
+        <v>-382492.125</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>-103975.3908233099</v>
+        <v>-41619.27409002219</v>
       </c>
       <c r="E6" t="n">
-        <v>-440052.6408233099</v>
+        <v>-424111.3990900222</v>
       </c>
     </row>
     <row r="7">
@@ -564,16 +564,16 @@
         <v>45</v>
       </c>
       <c r="B7" t="n">
-        <v>-304814.25</v>
+        <v>-348492.825</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>-75379.90103960402</v>
+        <v>-27333.34453881052</v>
       </c>
       <c r="E7" t="n">
-        <v>-380194.151039604</v>
+        <v>-375826.1695388105</v>
       </c>
     </row>
     <row r="8">
@@ -581,16 +581,16 @@
         <v>46</v>
       </c>
       <c r="B8" t="n">
-        <v>-273551.25</v>
+        <v>-314493.525</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>-50851.75095707709</v>
+        <v>-15089.57390205579</v>
       </c>
       <c r="E8" t="n">
-        <v>-324403.0009570771</v>
+        <v>-329583.0989020558</v>
       </c>
     </row>
     <row r="9">
@@ -598,16 +598,16 @@
         <v>47</v>
       </c>
       <c r="B9" t="n">
-        <v>-242288.25</v>
+        <v>-280494.225</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>-30019.24705810539</v>
+        <v>-4710.863327834093</v>
       </c>
       <c r="E9" t="n">
-        <v>-272307.4970581054</v>
+        <v>-285205.0883278341</v>
       </c>
     </row>
     <row r="10">
@@ -615,16 +615,16 @@
         <v>48</v>
       </c>
       <c r="B10" t="n">
-        <v>-211025.25</v>
+        <v>-246494.925</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>-12512.07321504726</v>
+        <v>3974.909209478821</v>
       </c>
       <c r="E10" t="n">
-        <v>-223537.3232150472</v>
+        <v>-242520.0157905212</v>
       </c>
     </row>
     <row r="11">
@@ -632,16 +632,16 @@
         <v>49</v>
       </c>
       <c r="B11" t="n">
-        <v>-179762.25</v>
+        <v>-212495.625</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>2023.196402599075</v>
+        <v>11126.10984536619</v>
       </c>
       <c r="E11" t="n">
-        <v>-177739.0535974009</v>
+        <v>-201369.5151546338</v>
       </c>
     </row>
     <row r="12">
@@ -649,16 +649,16 @@
         <v>50</v>
       </c>
       <c r="B12" t="n">
-        <v>-148499.25</v>
+        <v>-178496.325</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>13910.71466267253</v>
+        <v>16880.24933942108</v>
       </c>
       <c r="E12" t="n">
-        <v>-134588.5353373275</v>
+        <v>-161616.0756605789</v>
       </c>
     </row>
     <row r="13">
@@ -666,16 +666,16 @@
         <v>51</v>
       </c>
       <c r="B13" t="n">
-        <v>-117236.25</v>
+        <v>-144497.025</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>23436.32678541439</v>
+        <v>21348.79263138371</v>
       </c>
       <c r="E13" t="n">
-        <v>-93799.92321458561</v>
+        <v>-123148.2323686163</v>
       </c>
     </row>
     <row r="14">
@@ -683,16 +683,16 @@
         <v>52</v>
       </c>
       <c r="B14" t="n">
-        <v>-85973.25</v>
+        <v>-110497.725</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>30841.87538390818</v>
+        <v>24613.98176596681</v>
       </c>
       <c r="E14" t="n">
-        <v>-55131.37461609182</v>
+        <v>-85883.7432340332</v>
       </c>
     </row>
     <row r="15">
@@ -700,16 +700,16 @@
         <v>53</v>
       </c>
       <c r="B15" t="n">
-        <v>-54710.25</v>
+        <v>-76498.425</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>36322.64849288356</v>
+        <v>26727.6515034824</v>
       </c>
       <c r="E15" t="n">
-        <v>-18387.60150711644</v>
+        <v>-49770.7734965176</v>
       </c>
     </row>
     <row r="16">
@@ -717,16 +717,16 @@
         <v>54</v>
       </c>
       <c r="B16" t="n">
-        <v>-23447.25</v>
+        <v>-42499.125</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>40027.6206205965</v>
+        <v>27711.89489986037</v>
       </c>
       <c r="E16" t="n">
-        <v>16580.3706205965</v>
+        <v>-14787.23010013963</v>
       </c>
     </row>
     <row r="17">
@@ -734,16 +734,16 @@
         <v>55</v>
       </c>
       <c r="B17" t="n">
-        <v>7815.75</v>
+        <v>-8499.825000000001</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>42062.01902084349</v>
+        <v>27561.32416379198</v>
       </c>
       <c r="E17" t="n">
-        <v>49877.76902084349</v>
+        <v>19061.49916379198</v>
       </c>
     </row>
     <row r="18">
@@ -751,16 +751,16 @@
         <v>56</v>
       </c>
       <c r="B18" t="n">
-        <v>39078.75</v>
+        <v>25499.475</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>42491.66748176247</v>
+        <v>26246.58004349938</v>
       </c>
       <c r="E18" t="n">
-        <v>81570.41748176247</v>
+        <v>51746.05504349938</v>
       </c>
     </row>
     <row r="19">
@@ -768,16 +768,16 @@
         <v>57</v>
       </c>
       <c r="B19" t="n">
-        <v>70341.75</v>
+        <v>59498.775</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>41348.52134245864</v>
+        <v>23718.68095278378</v>
       </c>
       <c r="E19" t="n">
-        <v>111690.2713424586</v>
+        <v>83217.45595278378</v>
       </c>
     </row>
     <row r="20">
@@ -785,16 +785,16 @@
         <v>58</v>
       </c>
       <c r="B20" t="n">
-        <v>101604.75</v>
+        <v>93498.07500000001</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>38636.81218794137</v>
+        <v>19913.77859960415</v>
       </c>
       <c r="E20" t="n">
-        <v>140241.5621879414</v>
+        <v>113411.8535996042</v>
       </c>
     </row>
     <row r="21">
@@ -802,16 +802,16 @@
         <v>59</v>
       </c>
       <c r="B21" t="n">
-        <v>132867.75</v>
+        <v>127497.375</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>34339.26748559699</v>
+        <v>14757.90301337694</v>
       </c>
       <c r="E21" t="n">
-        <v>167207.017485597</v>
+        <v>142255.278013377</v>
       </c>
     </row>
     <row r="22">
@@ -819,16 +819,16 @@
         <v>60</v>
       </c>
       <c r="B22" t="n">
-        <v>164130.75</v>
+        <v>161496.675</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>28422.9538231093</v>
+        <v>8171.334020022437</v>
       </c>
       <c r="E22" t="n">
-        <v>192553.7038231093</v>
+        <v>169668.0090200225</v>
       </c>
     </row>
     <row r="23">
@@ -836,16 +836,16 @@
         <v>61</v>
       </c>
       <c r="B23" t="n">
-        <v>195393.75</v>
+        <v>195495.975</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>20844.40283301178</v>
+        <v>72.32062760020199</v>
       </c>
       <c r="E23" t="n">
-        <v>216238.1528330118</v>
+        <v>195568.2956276002</v>
       </c>
     </row>
     <row r="24">
@@ -853,16 +853,16 @@
         <v>62</v>
       </c>
       <c r="B24" t="n">
-        <v>226656.75</v>
+        <v>229495.275</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>11553.80390155221</v>
+        <v>-9620.027085594542</v>
       </c>
       <c r="E24" t="n">
-        <v>238210.5539015522</v>
+        <v>219875.2479144055</v>
       </c>
     </row>
     <row r="25">
@@ -870,16 +870,16 @@
         <v>63</v>
       </c>
       <c r="B25" t="n">
-        <v>257919.75</v>
+        <v>263494.575</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>498.173837495764</v>
+        <v>-20983.74042963994</v>
       </c>
       <c r="E25" t="n">
-        <v>258417.9238374958</v>
+        <v>242510.8345703601</v>
       </c>
     </row>
     <row r="26">
@@ -887,16 +887,16 @@
         <v>64</v>
       </c>
       <c r="B26" t="n">
-        <v>289182.75</v>
+        <v>297493.875</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>-12376.47182414361</v>
+        <v>-34092.85461673328</v>
       </c>
       <c r="E26" t="n">
-        <v>276806.2781758564</v>
+        <v>263401.0203832667</v>
       </c>
     </row>
     <row r="27">
@@ -904,16 +904,16 @@
         <v>65</v>
       </c>
       <c r="B27" t="n">
-        <v>320445.75</v>
+        <v>331493.175</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>-27123.82837837738</v>
+        <v>-49017.0138714223</v>
       </c>
       <c r="E27" t="n">
-        <v>293321.9216216226</v>
+        <v>282476.1611285778</v>
       </c>
     </row>
     <row r="28">
@@ -921,16 +921,16 @@
         <v>66</v>
       </c>
       <c r="B28" t="n">
-        <v>351708.75</v>
+        <v>365492.475</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>-43796.71013585741</v>
+        <v>-65821.64350914856</v>
       </c>
       <c r="E28" t="n">
-        <v>307912.0398641426</v>
+        <v>299670.8314908515</v>
       </c>
     </row>
     <row r="29">
@@ -938,16 +938,16 @@
         <v>67</v>
       </c>
       <c r="B29" t="n">
-        <v>382971.75</v>
+        <v>399491.775</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>-62446.9407638383</v>
+        <v>-84568.48317731955</v>
       </c>
       <c r="E29" t="n">
-        <v>320524.8092361617</v>
+        <v>314923.2918226805</v>
       </c>
     </row>
     <row r="30">
@@ -955,16 +955,16 @@
         <v>68</v>
       </c>
       <c r="B30" t="n">
-        <v>414234.75</v>
+        <v>433491.075</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>-83125.50412561207</v>
+        <v>-105316.2724282074</v>
       </c>
       <c r="E30" t="n">
-        <v>331109.2458743879</v>
+        <v>328174.8025717926</v>
       </c>
     </row>
     <row r="31">
@@ -972,16 +972,16 @@
         <v>69</v>
       </c>
       <c r="B31" t="n">
-        <v>445497.75</v>
+        <v>467490.375</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>-105882.7533809746</v>
+        <v>-128121.3999764127</v>
       </c>
       <c r="E31" t="n">
-        <v>339614.9966190254</v>
+        <v>339368.9750235874</v>
       </c>
     </row>
     <row r="32">
@@ -989,16 +989,16 @@
         <v>70</v>
       </c>
       <c r="B32" t="n">
-        <v>476760.75</v>
+        <v>501489.675</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>-130768.5136938986</v>
+        <v>-153038.3653768781</v>
       </c>
       <c r="E32" t="n">
-        <v>345992.2363061014</v>
+        <v>348451.309623122</v>
       </c>
     </row>
     <row r="33">
@@ -1006,16 +1006,16 @@
         <v>71</v>
       </c>
       <c r="B33" t="n">
-        <v>508023.75</v>
+        <v>535488.975</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>-157831.962353055</v>
+        <v>-180119.9494973171</v>
       </c>
       <c r="E33" t="n">
-        <v>350191.787646945</v>
+        <v>355369.0255026829</v>
       </c>
     </row>
     <row r="34">
@@ -1023,16 +1023,16 @@
         <v>72</v>
       </c>
       <c r="B34" t="n">
-        <v>539286.75</v>
+        <v>569488.275</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>-187121.2223296888</v>
+        <v>-209417.0411976868</v>
       </c>
       <c r="E34" t="n">
-        <v>352165.5276703112</v>
+        <v>360071.2338023132</v>
       </c>
     </row>
     <row r="35">
@@ -1040,16 +1040,16 @@
         <v>73</v>
       </c>
       <c r="B35" t="n">
-        <v>570549.75</v>
+        <v>603487.5750000001</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>-218682.6551235717</v>
+        <v>-240978.116109433</v>
       </c>
       <c r="E35" t="n">
-        <v>351867.0948764283</v>
+        <v>362509.4588905671</v>
       </c>
     </row>
     <row r="36">
@@ -1057,16 +1057,16 @@
         <v>74</v>
       </c>
       <c r="B36" t="n">
-        <v>601812.75</v>
+        <v>637486.875</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>-252559.8814967307</v>
+        <v>-274848.404778339</v>
       </c>
       <c r="E36" t="n">
-        <v>349252.8685032693</v>
+        <v>362638.470221661</v>
       </c>
     </row>
     <row r="37">
@@ -1074,16 +1074,16 @@
         <v>75</v>
       </c>
       <c r="B37" t="n">
-        <v>633075.75</v>
+        <v>671486.175</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>-288792.591363707</v>
+        <v>-311068.8187822737</v>
       </c>
       <c r="E37" t="n">
-        <v>344283.158636293</v>
+        <v>360417.3562177264</v>
       </c>
     </row>
     <row r="38">
@@ -1091,16 +1091,16 @@
         <v>76</v>
       </c>
       <c r="B38" t="n">
-        <v>664338.75</v>
+        <v>705485.4750000001</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>-327415.225341485</v>
+        <v>-349674.7234569393</v>
       </c>
       <c r="E38" t="n">
-        <v>336923.524658515</v>
+        <v>355810.7515430608</v>
       </c>
     </row>
     <row r="39">
@@ -1108,16 +1108,16 @@
         <v>77</v>
       </c>
       <c r="B39" t="n">
-        <v>695601.75</v>
+        <v>739484.775</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>-368455.6203370809</v>
+        <v>-390694.6546609318</v>
       </c>
       <c r="E39" t="n">
-        <v>327146.1296629191</v>
+        <v>348790.1203390682</v>
       </c>
     </row>
     <row r="40">
@@ -1125,16 +1125,16 @@
         <v>78</v>
       </c>
       <c r="B40" t="n">
-        <v>726864.75</v>
+        <v>773484.0750000001</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>-411933.7112438937</v>
+        <v>-434149.0757727058</v>
       </c>
       <c r="E40" t="n">
-        <v>314931.0387561063</v>
+        <v>339334.9992272943</v>
       </c>
     </row>
     <row r="41">
@@ -1142,16 +1142,16 @@
         <v>79</v>
       </c>
       <c r="B41" t="n">
-        <v>758127.75</v>
+        <v>807483.375</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>-457860.3722378924</v>
+        <v>-480049.2617418958</v>
       </c>
       <c r="E41" t="n">
-        <v>300267.3777621076</v>
+        <v>327434.1132581042</v>
       </c>
     </row>
     <row r="42">
@@ -1159,16 +1159,16 @@
         <v>80</v>
       </c>
       <c r="B42" t="n">
-        <v>789390.75</v>
+        <v>841482.675</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>-506236.4665933106</v>
+        <v>-528396.3817873544</v>
       </c>
       <c r="E42" t="n">
-        <v>283154.2834066894</v>
+        <v>313086.2932126457</v>
       </c>
     </row>
     <row r="43">
@@ -1176,16 +1176,16 @@
         <v>81</v>
       </c>
       <c r="B43" t="n">
-        <v>820653.75</v>
+        <v>875481.9750000001</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>-557052.1557192783</v>
+        <v>-579180.8335745182</v>
       </c>
       <c r="E43" t="n">
-        <v>263601.5942807217</v>
+        <v>296301.1414254819</v>
       </c>
     </row>
     <row r="44">
@@ -1193,16 +1193,16 @@
         <v>82</v>
       </c>
       <c r="B44" t="n">
-        <v>851916.75</v>
+        <v>909481.275</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>-610286.4984245612</v>
+        <v>-632381.8615704619</v>
       </c>
       <c r="E44" t="n">
-        <v>241630.2515754388</v>
+        <v>277099.4134295381</v>
       </c>
     </row>
     <row r="45">
@@ -1210,16 +1210,16 @@
         <v>83</v>
       </c>
       <c r="B45" t="n">
-        <v>883179.75</v>
+        <v>943480.5750000001</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>-665907.3520833545</v>
+        <v>-687967.4725866496</v>
       </c>
       <c r="E45" t="n">
-        <v>217272.3979166455</v>
+        <v>255513.1024133505</v>
       </c>
     </row>
     <row r="46">
@@ -1227,16 +1227,16 @@
         <v>84</v>
       </c>
       <c r="B46" t="n">
-        <v>914442.75</v>
+        <v>977479.875</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>-723871.5698163395</v>
+        <v>-745894.6436778358</v>
       </c>
       <c r="E46" t="n">
-        <v>190571.1801836605</v>
+        <v>231585.2313221642</v>
       </c>
     </row>
     <row r="47">
@@ -1244,16 +1244,16 @@
         <v>85</v>
       </c>
       <c r="B47" t="n">
-        <v>945705.75</v>
+        <v>1011479.175</v>
       </c>
       <c r="C47" t="n">
         <v>0</v>
       </c>
       <c r="D47" t="n">
-        <v>-784125.472988822</v>
+        <v>-806109.8025285879</v>
       </c>
       <c r="E47" t="n">
-        <v>161580.277011178</v>
+        <v>205369.3724714122</v>
       </c>
     </row>
     <row r="48">
@@ -1261,16 +1261,16 @@
         <v>86</v>
       </c>
       <c r="B48" t="n">
-        <v>976968.75</v>
+        <v>1045478.475</v>
       </c>
       <c r="C48" t="n">
         <v>0</v>
       </c>
       <c r="D48" t="n">
-        <v>-846605.5668106857</v>
+        <v>-868549.5487642634</v>
       </c>
       <c r="E48" t="n">
-        <v>130363.1831893143</v>
+        <v>176928.9262357367</v>
       </c>
     </row>
     <row r="49">
@@ -1278,16 +1278,16 @@
         <v>87</v>
       </c>
       <c r="B49" t="n">
-        <v>1008231.75</v>
+        <v>1079477.775</v>
       </c>
       <c r="C49" t="n">
         <v>0</v>
       </c>
       <c r="D49" t="n">
-        <v>-911239.4587848148</v>
+        <v>-933141.5764451327</v>
       </c>
       <c r="E49" t="n">
-        <v>96992.29121518519</v>
+        <v>146336.1985548674</v>
       </c>
     </row>
     <row r="50">
@@ -1295,16 +1295,16 @@
         <v>88</v>
       </c>
       <c r="B50" t="n">
-        <v>1039494.75</v>
+        <v>1113477.075</v>
       </c>
       <c r="C50" t="n">
         <v>0</v>
       </c>
       <c r="D50" t="n">
-        <v>-977946.9350815228</v>
+        <v>-999805.7532229051</v>
       </c>
       <c r="E50" t="n">
-        <v>61547.8149184772</v>
+        <v>113671.3217770949</v>
       </c>
     </row>
     <row r="51">
@@ -1312,16 +1312,16 @@
         <v>89</v>
       </c>
       <c r="B51" t="n">
-        <v>1070757.75</v>
+        <v>1147476.375</v>
       </c>
       <c r="C51" t="n">
         <v>0</v>
       </c>
       <c r="D51" t="n">
-        <v>-1046641.148293203</v>
+        <v>-1068455.309928631</v>
       </c>
       <c r="E51" t="n">
-        <v>24116.60170679726</v>
+        <v>79021.06507136882</v>
       </c>
     </row>
     <row r="52">
@@ -1329,16 +1329,16 @@
         <v>90</v>
       </c>
       <c r="B52" t="n">
-        <v>1102020.75</v>
+        <v>1181475.675</v>
       </c>
       <c r="C52" t="n">
         <v>0</v>
       </c>
       <c r="D52" t="n">
-        <v>-1117229.870983729</v>
+        <v>-1138998.095252703</v>
       </c>
       <c r="E52" t="n">
-        <v>-15209.12098372914</v>
+        <v>42477.57974729687</v>
       </c>
     </row>
     <row r="53">
@@ -1346,16 +1346,16 @@
         <v>91</v>
       </c>
       <c r="B53" t="n">
-        <v>1133283.75</v>
+        <v>1215474.975</v>
       </c>
       <c r="C53" t="n">
         <v>0</v>
       </c>
       <c r="D53" t="n">
-        <v>-1189616.772459332</v>
+        <v>-1211337.853135612</v>
       </c>
       <c r="E53" t="n">
-        <v>-56333.0224593319</v>
+        <v>4137.121864388464</v>
       </c>
     </row>
     <row r="54">
@@ -1363,16 +1363,16 @@
         <v>92</v>
       </c>
       <c r="B54" t="n">
-        <v>1164546.75</v>
+        <v>1249474.275</v>
       </c>
       <c r="C54" t="n">
         <v>0</v>
       </c>
       <c r="D54" t="n">
-        <v>-1263702.68070275</v>
+        <v>-1285375.484960276</v>
       </c>
       <c r="E54" t="n">
-        <v>-99155.93070275011</v>
+        <v>-35901.20996027556</v>
       </c>
     </row>
     <row r="55">
@@ -1380,16 +1380,16 @@
         <v>93</v>
       </c>
       <c r="B55" t="n">
-        <v>1195809.75</v>
+        <v>1283473.575</v>
       </c>
       <c r="C55" t="n">
         <v>0</v>
       </c>
       <c r="D55" t="n">
-        <v>-1339386.796908671</v>
+        <v>-1361010.264098824</v>
       </c>
       <c r="E55" t="n">
-        <v>-143577.0469086706</v>
+        <v>-77536.68909882335</v>
       </c>
     </row>
     <row r="56">
@@ -1397,16 +1397,16 @@
         <v>94</v>
       </c>
       <c r="B56" t="n">
-        <v>1227072.75</v>
+        <v>1317472.875</v>
       </c>
       <c r="C56" t="n">
         <v>0</v>
       </c>
       <c r="D56" t="n">
-        <v>-1416567.836067527</v>
+        <v>-1438140.976348671</v>
       </c>
       <c r="E56" t="n">
-        <v>-189495.0860675271</v>
+        <v>-120668.1013486707</v>
       </c>
     </row>
     <row r="57">
@@ -1414,16 +1414,16 @@
         <v>95</v>
       </c>
       <c r="B57" t="n">
-        <v>1258335.75</v>
+        <v>1351472.175</v>
       </c>
       <c r="C57" t="n">
         <v>0</v>
       </c>
       <c r="D57" t="n">
-        <v>-1495145.073171185</v>
+        <v>-1516666.965897595</v>
       </c>
       <c r="E57" t="n">
-        <v>-236809.3231711851</v>
+        <v>-165194.7908975945</v>
       </c>
     </row>
   </sheetData>
@@ -1477,16 +1477,16 @@
         <v>40</v>
       </c>
       <c r="B2" t="n">
-        <v>-461129.25</v>
+        <v>-518489.325</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>-221330.7495102272</v>
+        <v>-100273.991311777</v>
       </c>
       <c r="E2" t="n">
-        <v>-682459.9995102272</v>
+        <v>-618763.316311777</v>
       </c>
     </row>
     <row r="3">
@@ -1494,16 +1494,16 @@
         <v>41</v>
       </c>
       <c r="B3" t="n">
-        <v>-429866.25</v>
+        <v>-484490.025</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>-169859.6511644838</v>
+        <v>-74555.13891858381</v>
       </c>
       <c r="E3" t="n">
-        <v>-599725.9011644837</v>
+        <v>-559045.1639185839</v>
       </c>
     </row>
     <row r="4">
@@ -1511,16 +1511,16 @@
         <v>42</v>
       </c>
       <c r="B4" t="n">
-        <v>-398603.25</v>
+        <v>-450490.725</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>-125064.0689851782</v>
+        <v>-52171.71914658184</v>
       </c>
       <c r="E4" t="n">
-        <v>-523667.3189851781</v>
+        <v>-502662.4441465819</v>
       </c>
     </row>
     <row r="5">
@@ -1528,16 +1528,16 @@
         <v>43</v>
       </c>
       <c r="B5" t="n">
-        <v>-367340.25</v>
+        <v>-416491.425</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>-86749.55918744989</v>
+        <v>-33026.38413640219</v>
       </c>
       <c r="E5" t="n">
-        <v>-454089.8091874499</v>
+        <v>-449517.8091364022</v>
       </c>
     </row>
     <row r="6">
@@ -1545,16 +1545,16 @@
         <v>44</v>
       </c>
       <c r="B6" t="n">
-        <v>-336077.25</v>
+        <v>-382492.125</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>-54536.9651491615</v>
+        <v>-16929.2904231197</v>
       </c>
       <c r="E6" t="n">
-        <v>-390614.2151491615</v>
+        <v>-399421.4154231197</v>
       </c>
     </row>
     <row r="7">
@@ -1562,16 +1562,16 @@
         <v>45</v>
       </c>
       <c r="B7" t="n">
-        <v>-304814.25</v>
+        <v>-348492.825</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>-27906.75211254803</v>
+        <v>-3620.087076486903</v>
       </c>
       <c r="E7" t="n">
-        <v>-332721.002112548</v>
+        <v>-352112.9120764869</v>
       </c>
     </row>
     <row r="8">
@@ -1579,16 +1579,16 @@
         <v>46</v>
       </c>
       <c r="B8" t="n">
-        <v>-273551.25</v>
+        <v>-314493.525</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>-6247.86457585985</v>
+        <v>7207.931902227436</v>
       </c>
       <c r="E8" t="n">
-        <v>-279799.1145758599</v>
+        <v>-307285.5930977726</v>
       </c>
     </row>
     <row r="9">
@@ -1596,16 +1596,16 @@
         <v>47</v>
       </c>
       <c r="B9" t="n">
-        <v>-242288.25</v>
+        <v>-280494.225</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>11095.30177831218</v>
+        <v>15884.73498648033</v>
       </c>
       <c r="E9" t="n">
-        <v>-231192.9482216878</v>
+        <v>-264609.4900135197</v>
       </c>
     </row>
     <row r="10">
@@ -1613,16 +1613,16 @@
         <v>48</v>
       </c>
       <c r="B10" t="n">
-        <v>-211025.25</v>
+        <v>-246494.925</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>24782.46067047091</v>
+        <v>22743.83808160691</v>
       </c>
       <c r="E10" t="n">
-        <v>-186242.7893295291</v>
+        <v>-223751.0869183931</v>
       </c>
     </row>
     <row r="11">
@@ -1630,16 +1630,16 @@
         <v>49</v>
       </c>
       <c r="B11" t="n">
-        <v>-179762.25</v>
+        <v>-212495.625</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>35446.07819844635</v>
+        <v>28107.17303581435</v>
       </c>
       <c r="E11" t="n">
-        <v>-144316.1718015536</v>
+        <v>-184388.4519641856</v>
       </c>
     </row>
     <row r="12">
@@ -1647,16 +1647,16 @@
         <v>50</v>
       </c>
       <c r="B12" t="n">
-        <v>-148499.25</v>
+        <v>-178496.325</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>43669.60003184443</v>
+        <v>32274.60384297642</v>
       </c>
       <c r="E12" t="n">
-        <v>-104829.6499681556</v>
+        <v>-146221.7211570236</v>
       </c>
     </row>
     <row r="13">
@@ -1664,16 +1664,16 @@
         <v>51</v>
       </c>
       <c r="B13" t="n">
-        <v>-117236.25</v>
+        <v>-144497.025</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>49974.01278597041</v>
+        <v>35517.1032475489</v>
       </c>
       <c r="E13" t="n">
-        <v>-67262.23721402959</v>
+        <v>-108979.9217524511</v>
       </c>
     </row>
     <row r="14">
@@ -1681,16 +1681,16 @@
         <v>52</v>
       </c>
       <c r="B14" t="n">
-        <v>-85973.25</v>
+        <v>-110497.725</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>54810.19661426781</v>
+        <v>38071.75843928829</v>
       </c>
       <c r="E14" t="n">
-        <v>-31163.05338573219</v>
+        <v>-72425.96656071171</v>
       </c>
     </row>
     <row r="15">
@@ -1698,16 +1698,16 @@
         <v>53</v>
       </c>
       <c r="B15" t="n">
-        <v>-54710.25</v>
+        <v>-76498.425</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>58553.85359067783</v>
+        <v>40136.31419739214</v>
       </c>
       <c r="E15" t="n">
-        <v>3843.603590677827</v>
+        <v>-36362.11080260786</v>
       </c>
     </row>
     <row r="16">
@@ -1715,16 +1715,16 @@
         <v>54</v>
       </c>
       <c r="B16" t="n">
-        <v>-23447.25</v>
+        <v>-42499.125</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>61499.94219901603</v>
+        <v>41861.13287769177</v>
       </c>
       <c r="E16" t="n">
-        <v>38052.69219901603</v>
+        <v>-637.9921223082274</v>
       </c>
     </row>
     <row r="17">
@@ -1732,16 +1732,16 @@
         <v>55</v>
       </c>
       <c r="B17" t="n">
-        <v>7815.75</v>
+        <v>-8499.825000000001</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>63854.67376465665</v>
+        <v>43337.47687020507</v>
       </c>
       <c r="E17" t="n">
-        <v>71670.42376465665</v>
+        <v>34837.65187020507</v>
       </c>
     </row>
     <row r="18">
@@ -1749,16 +1749,16 @@
         <v>56</v>
       </c>
       <c r="B18" t="n">
-        <v>39078.75</v>
+        <v>25499.475</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>65725.17676939342</v>
+        <v>44582.90407004325</v>
       </c>
       <c r="E18" t="n">
-        <v>104803.9267693934</v>
+        <v>70082.37907004326</v>
       </c>
     </row>
     <row r="19">
@@ -1766,16 +1766,16 @@
         <v>57</v>
       </c>
       <c r="B19" t="n">
-        <v>70341.75</v>
+        <v>59498.775</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>67109.45400738057</v>
+        <v>45526.9012543827</v>
       </c>
       <c r="E19" t="n">
-        <v>137451.2040073806</v>
+        <v>105025.6762543827</v>
       </c>
     </row>
     <row r="20">
@@ -1783,16 +1783,16 @@
         <v>58</v>
       </c>
       <c r="B20" t="n">
-        <v>101604.75</v>
+        <v>93498.07500000001</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>67891.37192430324</v>
+        <v>46001.82197075475</v>
       </c>
       <c r="E20" t="n">
-        <v>169496.1219243032</v>
+        <v>139499.8969707548</v>
       </c>
     </row>
     <row r="21">
@@ -1800,16 +1800,16 @@
         <v>59</v>
       </c>
       <c r="B21" t="n">
-        <v>132867.75</v>
+        <v>127497.375</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>67846.10447961255</v>
+        <v>45744.73542712536</v>
       </c>
       <c r="E21" t="n">
-        <v>200713.8544796125</v>
+        <v>173242.1104271254</v>
       </c>
     </row>
     <row r="22">
@@ -1817,16 +1817,16 @@
         <v>60</v>
       </c>
       <c r="B22" t="n">
-        <v>164130.75</v>
+        <v>161496.675</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>66660.011888872</v>
+        <v>44414.24385226557</v>
       </c>
       <c r="E22" t="n">
-        <v>230790.761888872</v>
+        <v>205910.9188522656</v>
       </c>
     </row>
     <row r="23">
@@ -1834,16 +1834,16 @@
         <v>61</v>
       </c>
       <c r="B23" t="n">
-        <v>195393.75</v>
+        <v>195495.975</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>63965.46543754781</v>
+        <v>41622.7844825347</v>
       </c>
       <c r="E23" t="n">
-        <v>259359.2154375478</v>
+        <v>237118.7594825347</v>
       </c>
     </row>
     <row r="24">
@@ -1851,16 +1851,16 @@
         <v>62</v>
       </c>
       <c r="B24" t="n">
-        <v>226656.75</v>
+        <v>229495.275</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>59386.65227134992</v>
+        <v>36980.41207039484</v>
       </c>
       <c r="E24" t="n">
-        <v>286043.4022713499</v>
+        <v>266475.6870703949</v>
       </c>
     </row>
     <row r="25">
@@ -1868,16 +1868,16 @@
         <v>63</v>
       </c>
       <c r="B25" t="n">
-        <v>257919.75</v>
+        <v>263494.575</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>52588.50790438574</v>
+        <v>30142.15024058447</v>
       </c>
       <c r="E25" t="n">
-        <v>310508.2579043857</v>
+        <v>293636.7252405845</v>
       </c>
     </row>
     <row r="26">
@@ -1885,16 +1885,16 @@
         <v>64</v>
       </c>
       <c r="B26" t="n">
-        <v>289182.75</v>
+        <v>297493.875</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>43319.13177239835</v>
+        <v>20849.20030227956</v>
       </c>
       <c r="E26" t="n">
-        <v>332501.8817723984</v>
+        <v>318343.0753022796</v>
       </c>
     </row>
     <row r="27">
@@ -1902,16 +1902,16 @@
         <v>65</v>
       </c>
       <c r="B27" t="n">
-        <v>320445.75</v>
+        <v>331493.175</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>31437.08198150536</v>
+        <v>8955.337702194753</v>
       </c>
       <c r="E27" t="n">
-        <v>351882.8319815054</v>
+        <v>340448.5127021948</v>
       </c>
     </row>
     <row r="28">
@@ -1919,16 +1919,16 @@
         <v>66</v>
       </c>
       <c r="B28" t="n">
-        <v>351708.75</v>
+        <v>365492.475</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>16918.48506755609</v>
+        <v>-5566.629315348422</v>
       </c>
       <c r="E28" t="n">
-        <v>368627.2350675561</v>
+        <v>359925.8456846516</v>
       </c>
     </row>
     <row r="29">
@@ -1936,16 +1936,16 @@
         <v>67</v>
       </c>
       <c r="B29" t="n">
-        <v>382971.75</v>
+        <v>399491.775</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>-156.2883720008103</v>
+        <v>-22638.64281788401</v>
       </c>
       <c r="E29" t="n">
-        <v>382815.4616279992</v>
+        <v>376853.132182116</v>
       </c>
     </row>
     <row r="30">
@@ -1953,16 +1953,16 @@
         <v>68</v>
       </c>
       <c r="B30" t="n">
-        <v>414234.75</v>
+        <v>433491.075</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>-19632.1024262101</v>
+        <v>-42107.18802935157</v>
       </c>
       <c r="E30" t="n">
-        <v>394602.6475737899</v>
+        <v>391383.8869706484</v>
       </c>
     </row>
     <row r="31">
@@ -1970,16 +1970,16 @@
         <v>69</v>
       </c>
       <c r="B31" t="n">
-        <v>445497.75</v>
+        <v>467490.375</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>-41317.4450450622</v>
+        <v>-63781.89216629157</v>
       </c>
       <c r="E31" t="n">
-        <v>404180.3049549378</v>
+        <v>403708.4828337084</v>
       </c>
     </row>
     <row r="32">
@@ -1987,16 +1987,16 @@
         <v>70</v>
       </c>
       <c r="B32" t="n">
-        <v>476760.75</v>
+        <v>501489.675</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>-65023.67053728498</v>
+        <v>-87474.9046919144</v>
       </c>
       <c r="E32" t="n">
-        <v>411737.079462715</v>
+        <v>414014.7703080857</v>
       </c>
     </row>
     <row r="33">
@@ -2004,16 +2004,16 @@
         <v>71</v>
       </c>
       <c r="B33" t="n">
-        <v>508023.75</v>
+        <v>535488.975</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>-90598.20321294173</v>
+        <v>-113034.1917887391</v>
       </c>
       <c r="E33" t="n">
-        <v>417425.5467870582</v>
+        <v>422454.7832112609</v>
       </c>
     </row>
     <row r="34">
@@ -2021,16 +2021,16 @@
         <v>72</v>
       </c>
       <c r="B34" t="n">
-        <v>539286.75</v>
+        <v>569488.275</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>-117947.2450727278</v>
+        <v>-140366.3059395334</v>
       </c>
       <c r="E34" t="n">
-        <v>421339.5049272722</v>
+        <v>429121.9690604666</v>
       </c>
     </row>
     <row r="35">
@@ -2038,16 +2038,16 @@
         <v>73</v>
       </c>
       <c r="B35" t="n">
-        <v>570549.75</v>
+        <v>603487.5750000001</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>-147046.3478064547</v>
+        <v>-169447.0028593903</v>
       </c>
       <c r="E35" t="n">
-        <v>423503.4021935453</v>
+        <v>434040.5721406097</v>
       </c>
     </row>
     <row r="36">
@@ -2055,16 +2055,16 @@
         <v>74</v>
       </c>
       <c r="B36" t="n">
-        <v>601812.75</v>
+        <v>637486.875</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>-177939.6578397917</v>
+        <v>-200320.5217634558</v>
       </c>
       <c r="E36" t="n">
-        <v>423873.0921602083</v>
+        <v>437166.3532365442</v>
       </c>
     </row>
     <row r="37">
@@ -2072,16 +2072,16 @@
         <v>75</v>
       </c>
       <c r="B37" t="n">
-        <v>633075.75</v>
+        <v>671486.175</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>-210730.2848187464</v>
+        <v>-233089.9832230386</v>
       </c>
       <c r="E37" t="n">
-        <v>422345.4651812536</v>
+        <v>438396.1917769615</v>
       </c>
     </row>
     <row r="38">
@@ -2089,16 +2089,16 @@
         <v>76</v>
       </c>
       <c r="B38" t="n">
-        <v>664338.75</v>
+        <v>705485.4750000001</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>-245564.9754075337</v>
+        <v>-267902.0882004031</v>
       </c>
       <c r="E38" t="n">
-        <v>418773.7745924663</v>
+        <v>437583.386799597</v>
       </c>
     </row>
     <row r="39">
@@ -2106,16 +2106,16 @@
         <v>77</v>
       </c>
       <c r="B39" t="n">
-        <v>695601.75</v>
+        <v>739484.775</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>-282616.2402495246</v>
+        <v>-304929.266659405</v>
       </c>
       <c r="E39" t="n">
-        <v>412985.5097504754</v>
+        <v>434555.508340595</v>
       </c>
     </row>
     <row r="40">
@@ -2123,16 +2123,16 @@
         <v>78</v>
       </c>
       <c r="B40" t="n">
-        <v>726864.75</v>
+        <v>773484.0750000001</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>-322064.5482522604</v>
+        <v>-344351.8899742132</v>
       </c>
       <c r="E40" t="n">
-        <v>404800.2017477396</v>
+        <v>429132.1850257869</v>
       </c>
     </row>
     <row r="41">
@@ -2140,16 +2140,16 @@
         <v>79</v>
       </c>
       <c r="B41" t="n">
-        <v>758127.75</v>
+        <v>807483.375</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>-364082.4441362571</v>
+        <v>-386342.4030538626</v>
       </c>
       <c r="E41" t="n">
-        <v>394045.3058637429</v>
+        <v>421140.9719461374</v>
       </c>
     </row>
     <row r="42">
@@ -2157,16 +2157,16 @@
         <v>80</v>
       </c>
       <c r="B42" t="n">
-        <v>789390.75</v>
+        <v>841482.675</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>-408821.6774486558</v>
+        <v>-431052.4644668557</v>
       </c>
       <c r="E42" t="n">
-        <v>380569.0725513442</v>
+        <v>410430.2105331443</v>
       </c>
     </row>
     <row r="43">
@@ -2174,16 +2174,16 @@
         <v>81</v>
       </c>
       <c r="B43" t="n">
-        <v>820653.75</v>
+        <v>875481.9750000001</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>-456403.7842651214</v>
+        <v>-478603.5360263146</v>
       </c>
       <c r="E43" t="n">
-        <v>364249.9657348786</v>
+        <v>396878.4389736855</v>
       </c>
     </row>
     <row r="44">
@@ -2191,16 +2191,16 @@
         <v>82</v>
       </c>
       <c r="B44" t="n">
-        <v>851916.75</v>
+        <v>909481.275</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>-506914.0896230967</v>
+        <v>-529080.8902445751</v>
       </c>
       <c r="E44" t="n">
-        <v>345002.6603769033</v>
+        <v>380400.3847554249</v>
       </c>
     </row>
     <row r="45">
@@ -2208,16 +2208,16 @@
         <v>83</v>
       </c>
       <c r="B45" t="n">
-        <v>883179.75</v>
+        <v>943480.5750000001</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>-560398.7981504905</v>
+        <v>-582530.7035633875</v>
       </c>
       <c r="E45" t="n">
-        <v>322780.9518495095</v>
+        <v>360949.8714366126</v>
       </c>
     </row>
     <row r="46">
@@ -2225,16 +2225,16 @@
         <v>84</v>
       </c>
       <c r="B46" t="n">
-        <v>914442.75</v>
+        <v>977479.875</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>-616864.6821167683</v>
+        <v>-638959.7450528981</v>
       </c>
       <c r="E46" t="n">
-        <v>297578.0678832317</v>
+        <v>338520.1299471019</v>
       </c>
     </row>
     <row r="47">
@@ -2242,16 +2242,16 @@
         <v>85</v>
       </c>
       <c r="B47" t="n">
-        <v>945705.75</v>
+        <v>1011479.175</v>
       </c>
       <c r="C47" t="n">
         <v>0</v>
       </c>
       <c r="D47" t="n">
-        <v>-676280.8206968217</v>
+        <v>-698337.1148203104</v>
       </c>
       <c r="E47" t="n">
-        <v>269424.9293031783</v>
+        <v>313142.0601796897</v>
       </c>
     </row>
     <row r="48">
@@ -2259,16 +2259,16 @@
         <v>86</v>
       </c>
       <c r="B48" t="n">
-        <v>976968.75</v>
+        <v>1045478.475</v>
       </c>
       <c r="C48" t="n">
         <v>0</v>
       </c>
       <c r="D48" t="n">
-        <v>-738581.8548663226</v>
+        <v>-760597.4969567636</v>
       </c>
       <c r="E48" t="n">
-        <v>238386.8951336774</v>
+        <v>284880.9780432365</v>
       </c>
     </row>
     <row r="49">
@@ -2276,16 +2276,16 @@
         <v>87</v>
       </c>
       <c r="B49" t="n">
-        <v>1008231.75</v>
+        <v>1079477.775</v>
       </c>
       <c r="C49" t="n">
         <v>0</v>
       </c>
       <c r="D49" t="n">
-        <v>-803672.2704392001</v>
+        <v>-825645.43988965</v>
       </c>
       <c r="E49" t="n">
-        <v>204559.4795607999</v>
+        <v>253832.3351103502</v>
       </c>
     </row>
     <row r="50">
@@ -2293,16 +2293,16 @@
         <v>88</v>
       </c>
       <c r="B50" t="n">
-        <v>1039494.75</v>
+        <v>1113477.075</v>
       </c>
       <c r="C50" t="n">
         <v>0</v>
       </c>
       <c r="D50" t="n">
-        <v>-871431.2876594162</v>
+        <v>-893360.2428521103</v>
       </c>
       <c r="E50" t="n">
-        <v>168063.4623405838</v>
+        <v>220116.8321478897</v>
       </c>
     </row>
     <row r="51">
@@ -2310,16 +2310,16 @@
         <v>89</v>
       </c>
       <c r="B51" t="n">
-        <v>1070757.75</v>
+        <v>1147476.375</v>
       </c>
       <c r="C51" t="n">
         <v>0</v>
       </c>
       <c r="D51" t="n">
-        <v>-941718.0072825236</v>
+        <v>-963601.0986490531</v>
       </c>
       <c r="E51" t="n">
-        <v>129039.7427174764</v>
+        <v>183875.2763509469</v>
       </c>
     </row>
     <row r="52">
@@ -2327,16 +2327,16 @@
         <v>90</v>
       </c>
       <c r="B52" t="n">
-        <v>1102020.75</v>
+        <v>1181475.675</v>
       </c>
       <c r="C52" t="n">
         <v>0</v>
       </c>
       <c r="D52" t="n">
-        <v>-1014376.533330114</v>
+        <v>-1036212.213095142</v>
       </c>
       <c r="E52" t="n">
-        <v>87644.21666988579</v>
+        <v>145263.4619048579</v>
       </c>
     </row>
     <row r="53">
@@ -2344,16 +2344,16 @@
         <v>91</v>
       </c>
       <c r="B53" t="n">
-        <v>1133283.75</v>
+        <v>1215474.975</v>
       </c>
       <c r="C53" t="n">
         <v>0</v>
       </c>
       <c r="D53" t="n">
-        <v>-1089240.858088742</v>
+        <v>-1111027.686842352</v>
       </c>
       <c r="E53" t="n">
-        <v>44042.89191125822</v>
+        <v>104447.2881576479</v>
       </c>
     </row>
     <row r="54">
@@ -2361,16 +2361,16 @@
         <v>92</v>
       </c>
       <c r="B54" t="n">
-        <v>1164546.75</v>
+        <v>1249474.275</v>
       </c>
       <c r="C54" t="n">
         <v>0</v>
       </c>
       <c r="D54" t="n">
-        <v>-1166139.353741452</v>
+        <v>-1187876.004090585</v>
       </c>
       <c r="E54" t="n">
-        <v>-1592.603741452098</v>
+        <v>61598.27090941533</v>
       </c>
     </row>
     <row r="55">
@@ -2378,16 +2378,16 @@
         <v>93</v>
       </c>
       <c r="B55" t="n">
-        <v>1195809.75</v>
+        <v>1283473.575</v>
       </c>
       <c r="C55" t="n">
         <v>0</v>
       </c>
       <c r="D55" t="n">
-        <v>-1244898.766529239</v>
+        <v>-1266584.024148971</v>
       </c>
       <c r="E55" t="n">
-        <v>-49089.01652923925</v>
+        <v>16889.55085102911</v>
       </c>
     </row>
     <row r="56">
@@ -2395,16 +2395,16 @@
         <v>94</v>
       </c>
       <c r="B56" t="n">
-        <v>1227072.75</v>
+        <v>1317472.875</v>
       </c>
       <c r="C56" t="n">
         <v>0</v>
       </c>
       <c r="D56" t="n">
-        <v>-1325347.653305966</v>
+        <v>-1346980.415752116</v>
       </c>
       <c r="E56" t="n">
-        <v>-98274.90330596594</v>
+        <v>-29507.54075211566</v>
       </c>
     </row>
     <row r="57">
@@ -2412,16 +2412,16 @@
         <v>95</v>
       </c>
       <c r="B57" t="n">
-        <v>1258335.75</v>
+        <v>1351472.175</v>
       </c>
       <c r="C57" t="n">
         <v>0</v>
       </c>
       <c r="D57" t="n">
-        <v>-1407319.236821929</v>
+        <v>-1428898.51048282</v>
       </c>
       <c r="E57" t="n">
-        <v>-148983.4868219295</v>
+        <v>-77426.33548282017</v>
       </c>
     </row>
   </sheetData>
@@ -2475,16 +2475,16 @@
         <v>40</v>
       </c>
       <c r="B2" t="n">
-        <v>-461129.25</v>
+        <v>-518489.325</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>-118223.7301055676</v>
+        <v>-48754.17540580614</v>
       </c>
       <c r="E2" t="n">
-        <v>-579352.9801055676</v>
+        <v>-567243.5004058061</v>
       </c>
     </row>
     <row r="3">
@@ -2492,16 +2492,16 @@
         <v>41</v>
       </c>
       <c r="B3" t="n">
-        <v>-429866.25</v>
+        <v>-484490.025</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>-26273.73010556759</v>
+        <v>-2809.175405806149</v>
       </c>
       <c r="E3" t="n">
-        <v>-456139.9801055676</v>
+        <v>-487299.2004058062</v>
       </c>
     </row>
     <row r="4">
@@ -2509,16 +2509,16 @@
         <v>42</v>
       </c>
       <c r="B4" t="n">
-        <v>-398603.25</v>
+        <v>-450490.725</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>65676.26989443241</v>
+        <v>43135.82459419385</v>
       </c>
       <c r="E4" t="n">
-        <v>-332926.9801055676</v>
+        <v>-407354.9004058062</v>
       </c>
     </row>
     <row r="5">
@@ -2526,16 +2526,16 @@
         <v>43</v>
       </c>
       <c r="B5" t="n">
-        <v>-367340.25</v>
+        <v>-416491.425</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>65676.26989443241</v>
+        <v>43135.82459419385</v>
       </c>
       <c r="E5" t="n">
-        <v>-301663.9801055676</v>
+        <v>-373355.6004058062</v>
       </c>
     </row>
     <row r="6">
@@ -2543,16 +2543,16 @@
         <v>44</v>
       </c>
       <c r="B6" t="n">
-        <v>-336077.25</v>
+        <v>-382492.125</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>65676.26989443241</v>
+        <v>43135.82459419385</v>
       </c>
       <c r="E6" t="n">
-        <v>-270400.9801055676</v>
+        <v>-339356.3004058062</v>
       </c>
     </row>
     <row r="7">
@@ -2560,16 +2560,16 @@
         <v>45</v>
       </c>
       <c r="B7" t="n">
-        <v>-304814.25</v>
+        <v>-348492.825</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>65676.26989443241</v>
+        <v>43135.82459419385</v>
       </c>
       <c r="E7" t="n">
-        <v>-239137.9801055676</v>
+        <v>-305357.0004058062</v>
       </c>
     </row>
     <row r="8">
@@ -2577,16 +2577,16 @@
         <v>46</v>
       </c>
       <c r="B8" t="n">
-        <v>-273551.25</v>
+        <v>-314493.525</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>65676.26989443241</v>
+        <v>43135.82459419385</v>
       </c>
       <c r="E8" t="n">
-        <v>-207874.9801055676</v>
+        <v>-271357.7004058062</v>
       </c>
     </row>
     <row r="9">
@@ -2594,16 +2594,16 @@
         <v>47</v>
       </c>
       <c r="B9" t="n">
-        <v>-242288.25</v>
+        <v>-280494.225</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>65676.26989443241</v>
+        <v>43135.82459419385</v>
       </c>
       <c r="E9" t="n">
-        <v>-176611.9801055676</v>
+        <v>-237358.4004058062</v>
       </c>
     </row>
     <row r="10">
@@ -2611,16 +2611,16 @@
         <v>48</v>
       </c>
       <c r="B10" t="n">
-        <v>-211025.25</v>
+        <v>-246494.925</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>65676.26989443241</v>
+        <v>43135.82459419385</v>
       </c>
       <c r="E10" t="n">
-        <v>-145348.9801055676</v>
+        <v>-203359.1004058062</v>
       </c>
     </row>
     <row r="11">
@@ -2628,16 +2628,16 @@
         <v>49</v>
       </c>
       <c r="B11" t="n">
-        <v>-179762.25</v>
+        <v>-212495.625</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>65676.26989443241</v>
+        <v>43135.82459419385</v>
       </c>
       <c r="E11" t="n">
-        <v>-114085.9801055676</v>
+        <v>-169359.8004058062</v>
       </c>
     </row>
     <row r="12">
@@ -2645,16 +2645,16 @@
         <v>50</v>
       </c>
       <c r="B12" t="n">
-        <v>-148499.25</v>
+        <v>-178496.325</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>65676.26989443241</v>
+        <v>43135.82459419385</v>
       </c>
       <c r="E12" t="n">
-        <v>-82822.98010556759</v>
+        <v>-135360.5004058062</v>
       </c>
     </row>
     <row r="13">
@@ -2662,16 +2662,16 @@
         <v>51</v>
       </c>
       <c r="B13" t="n">
-        <v>-117236.25</v>
+        <v>-144497.025</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>65676.26989443241</v>
+        <v>43135.82459419385</v>
       </c>
       <c r="E13" t="n">
-        <v>-51559.98010556759</v>
+        <v>-101361.2004058061</v>
       </c>
     </row>
     <row r="14">
@@ -2679,16 +2679,16 @@
         <v>52</v>
       </c>
       <c r="B14" t="n">
-        <v>-85973.25</v>
+        <v>-110497.725</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>65676.26989443241</v>
+        <v>43135.82459419385</v>
       </c>
       <c r="E14" t="n">
-        <v>-20296.98010556759</v>
+        <v>-67361.90040580615</v>
       </c>
     </row>
     <row r="15">
@@ -2696,16 +2696,16 @@
         <v>53</v>
       </c>
       <c r="B15" t="n">
-        <v>-54710.25</v>
+        <v>-76498.425</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>65676.26989443241</v>
+        <v>43135.82459419385</v>
       </c>
       <c r="E15" t="n">
-        <v>10966.01989443241</v>
+        <v>-33362.60040580615</v>
       </c>
     </row>
     <row r="16">
@@ -2713,16 +2713,16 @@
         <v>54</v>
       </c>
       <c r="B16" t="n">
-        <v>-23447.25</v>
+        <v>-42499.125</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>65676.26989443241</v>
+        <v>43135.82459419385</v>
       </c>
       <c r="E16" t="n">
-        <v>42229.01989443241</v>
+        <v>636.6995941938512</v>
       </c>
     </row>
     <row r="17">
@@ -2730,16 +2730,16 @@
         <v>55</v>
       </c>
       <c r="B17" t="n">
-        <v>7815.75</v>
+        <v>-8499.825000000001</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>65676.26989443241</v>
+        <v>43135.82459419385</v>
       </c>
       <c r="E17" t="n">
-        <v>73492.01989443241</v>
+        <v>34635.99959419385</v>
       </c>
     </row>
     <row r="18">
@@ -2747,16 +2747,16 @@
         <v>56</v>
       </c>
       <c r="B18" t="n">
-        <v>39078.75</v>
+        <v>25499.475</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>65676.26989443241</v>
+        <v>43135.82459419385</v>
       </c>
       <c r="E18" t="n">
-        <v>104755.0198944324</v>
+        <v>68635.29959419386</v>
       </c>
     </row>
     <row r="19">
@@ -2764,16 +2764,16 @@
         <v>57</v>
       </c>
       <c r="B19" t="n">
-        <v>70341.75</v>
+        <v>59498.775</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>65676.26989443241</v>
+        <v>43135.82459419385</v>
       </c>
       <c r="E19" t="n">
-        <v>136018.0198944324</v>
+        <v>102634.5995941939</v>
       </c>
     </row>
     <row r="20">
@@ -2781,16 +2781,16 @@
         <v>58</v>
       </c>
       <c r="B20" t="n">
-        <v>101604.75</v>
+        <v>93498.07500000001</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>65676.26989443241</v>
+        <v>43135.82459419385</v>
       </c>
       <c r="E20" t="n">
-        <v>167281.0198944324</v>
+        <v>136633.8995941938</v>
       </c>
     </row>
     <row r="21">
@@ -2798,16 +2798,16 @@
         <v>59</v>
       </c>
       <c r="B21" t="n">
-        <v>132867.75</v>
+        <v>127497.375</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>65676.26989443241</v>
+        <v>43135.82459419385</v>
       </c>
       <c r="E21" t="n">
-        <v>198544.0198944324</v>
+        <v>170633.1995941938</v>
       </c>
     </row>
     <row r="22">
@@ -2815,16 +2815,16 @@
         <v>60</v>
       </c>
       <c r="B22" t="n">
-        <v>164130.75</v>
+        <v>161496.675</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>65676.26989443241</v>
+        <v>43135.82459419385</v>
       </c>
       <c r="E22" t="n">
-        <v>229807.0198944324</v>
+        <v>204632.4995941939</v>
       </c>
     </row>
     <row r="23">
@@ -2832,16 +2832,16 @@
         <v>61</v>
       </c>
       <c r="B23" t="n">
-        <v>195393.75</v>
+        <v>195495.975</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>65676.26989443241</v>
+        <v>43135.82459419385</v>
       </c>
       <c r="E23" t="n">
-        <v>261070.0198944324</v>
+        <v>238631.7995941939</v>
       </c>
     </row>
     <row r="24">
@@ -2849,16 +2849,16 @@
         <v>62</v>
       </c>
       <c r="B24" t="n">
-        <v>226656.75</v>
+        <v>229495.275</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>65676.26989443241</v>
+        <v>43135.82459419385</v>
       </c>
       <c r="E24" t="n">
-        <v>292333.0198944324</v>
+        <v>272631.0995941939</v>
       </c>
     </row>
     <row r="25">
@@ -2866,16 +2866,16 @@
         <v>63</v>
       </c>
       <c r="B25" t="n">
-        <v>257919.75</v>
+        <v>263494.575</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>65676.26989443241</v>
+        <v>43135.82459419385</v>
       </c>
       <c r="E25" t="n">
-        <v>323596.0198944324</v>
+        <v>306630.3995941938</v>
       </c>
     </row>
     <row r="26">
@@ -2883,16 +2883,16 @@
         <v>64</v>
       </c>
       <c r="B26" t="n">
-        <v>289182.75</v>
+        <v>297493.875</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>65676.26989443241</v>
+        <v>43135.82459419385</v>
       </c>
       <c r="E26" t="n">
-        <v>354859.0198944324</v>
+        <v>340629.6995941938</v>
       </c>
     </row>
     <row r="27">
@@ -2900,16 +2900,16 @@
         <v>65</v>
       </c>
       <c r="B27" t="n">
-        <v>320445.75</v>
+        <v>331493.175</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>65676.26989443241</v>
+        <v>43135.82459419385</v>
       </c>
       <c r="E27" t="n">
-        <v>386122.0198944324</v>
+        <v>374628.9995941939</v>
       </c>
     </row>
     <row r="28">
@@ -2917,16 +2917,16 @@
         <v>66</v>
       </c>
       <c r="B28" t="n">
-        <v>351708.75</v>
+        <v>365492.475</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>19701.26989443241</v>
+        <v>-2809.175405806148</v>
       </c>
       <c r="E28" t="n">
-        <v>371410.0198944324</v>
+        <v>362683.2995941939</v>
       </c>
     </row>
     <row r="29">
@@ -2934,16 +2934,16 @@
         <v>67</v>
       </c>
       <c r="B29" t="n">
-        <v>382971.75</v>
+        <v>399491.775</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>-26273.73010556759</v>
+        <v>-48754.17540580616</v>
       </c>
       <c r="E29" t="n">
-        <v>356698.0198944324</v>
+        <v>350737.5995941939</v>
       </c>
     </row>
     <row r="30">
@@ -2951,16 +2951,16 @@
         <v>68</v>
       </c>
       <c r="B30" t="n">
-        <v>414234.75</v>
+        <v>433491.075</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>-72248.73010556759</v>
+        <v>-94699.17540580615</v>
       </c>
       <c r="E30" t="n">
-        <v>341986.0198944324</v>
+        <v>338791.8995941938</v>
       </c>
     </row>
     <row r="31">
@@ -2968,16 +2968,16 @@
         <v>69</v>
       </c>
       <c r="B31" t="n">
-        <v>445497.75</v>
+        <v>467490.375</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>-118223.7301055676</v>
+        <v>-140644.1754058062</v>
       </c>
       <c r="E31" t="n">
-        <v>327274.0198944324</v>
+        <v>326846.1995941938</v>
       </c>
     </row>
     <row r="32">
@@ -2985,16 +2985,16 @@
         <v>70</v>
       </c>
       <c r="B32" t="n">
-        <v>476760.75</v>
+        <v>501489.675</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>-164198.7301055676</v>
+        <v>-186589.1754058062</v>
       </c>
       <c r="E32" t="n">
-        <v>312562.0198944324</v>
+        <v>314900.4995941939</v>
       </c>
     </row>
     <row r="33">
@@ -3002,16 +3002,16 @@
         <v>71</v>
       </c>
       <c r="B33" t="n">
-        <v>508023.75</v>
+        <v>535488.975</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>-164198.7301055675</v>
+        <v>-186589.1754058061</v>
       </c>
       <c r="E33" t="n">
-        <v>343825.0198944325</v>
+        <v>348899.7995941938</v>
       </c>
     </row>
     <row r="34">
@@ -3019,16 +3019,16 @@
         <v>72</v>
       </c>
       <c r="B34" t="n">
-        <v>539286.75</v>
+        <v>569488.275</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>-164198.7301055676</v>
+        <v>-186589.1754058061</v>
       </c>
       <c r="E34" t="n">
-        <v>375088.0198944324</v>
+        <v>382899.0995941939</v>
       </c>
     </row>
     <row r="35">
@@ -3036,16 +3036,16 @@
         <v>73</v>
       </c>
       <c r="B35" t="n">
-        <v>570549.75</v>
+        <v>603487.5750000001</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>-164198.7301055676</v>
+        <v>-186589.1754058061</v>
       </c>
       <c r="E35" t="n">
-        <v>406351.0198944324</v>
+        <v>416898.399594194</v>
       </c>
     </row>
     <row r="36">
@@ -3053,16 +3053,16 @@
         <v>74</v>
       </c>
       <c r="B36" t="n">
-        <v>601812.75</v>
+        <v>637486.875</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>-164198.7301055676</v>
+        <v>-186589.1754058062</v>
       </c>
       <c r="E36" t="n">
-        <v>437614.0198944324</v>
+        <v>450897.6995941938</v>
       </c>
     </row>
     <row r="37">
@@ -3070,16 +3070,16 @@
         <v>75</v>
       </c>
       <c r="B37" t="n">
-        <v>633075.75</v>
+        <v>671486.175</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>-164198.7301055676</v>
+        <v>-186589.1754058062</v>
       </c>
       <c r="E37" t="n">
-        <v>468877.0198944324</v>
+        <v>484896.9995941939</v>
       </c>
     </row>
     <row r="38">
@@ -3087,16 +3087,16 @@
         <v>76</v>
       </c>
       <c r="B38" t="n">
-        <v>664338.75</v>
+        <v>705485.4750000001</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>-164198.7301055676</v>
+        <v>-186589.1754058062</v>
       </c>
       <c r="E38" t="n">
-        <v>500140.0198944324</v>
+        <v>518896.2995941939</v>
       </c>
     </row>
     <row r="39">
@@ -3104,16 +3104,16 @@
         <v>77</v>
       </c>
       <c r="B39" t="n">
-        <v>695601.75</v>
+        <v>739484.775</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>-164198.7301055677</v>
+        <v>-186589.1754058062</v>
       </c>
       <c r="E39" t="n">
-        <v>531403.0198944323</v>
+        <v>552895.5995941939</v>
       </c>
     </row>
     <row r="40">
@@ -3121,16 +3121,16 @@
         <v>78</v>
       </c>
       <c r="B40" t="n">
-        <v>726864.75</v>
+        <v>773484.0750000001</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>-164198.7301055677</v>
+        <v>-186589.1754058062</v>
       </c>
       <c r="E40" t="n">
-        <v>562666.0198944323</v>
+        <v>586894.8995941939</v>
       </c>
     </row>
     <row r="41">
@@ -3138,16 +3138,16 @@
         <v>79</v>
       </c>
       <c r="B41" t="n">
-        <v>758127.75</v>
+        <v>807483.375</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>-164198.7301055677</v>
+        <v>-186589.1754058062</v>
       </c>
       <c r="E41" t="n">
-        <v>593929.0198944323</v>
+        <v>620894.1995941938</v>
       </c>
     </row>
     <row r="42">
@@ -3155,16 +3155,16 @@
         <v>80</v>
       </c>
       <c r="B42" t="n">
-        <v>789390.75</v>
+        <v>841482.675</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>-164198.7301055677</v>
+        <v>-186589.1754058062</v>
       </c>
       <c r="E42" t="n">
-        <v>625192.0198944323</v>
+        <v>654893.4995941939</v>
       </c>
     </row>
     <row r="43">
@@ -3172,16 +3172,16 @@
         <v>81</v>
       </c>
       <c r="B43" t="n">
-        <v>820653.75</v>
+        <v>875481.9750000001</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>-210173.7301055677</v>
+        <v>-232534.1754058062</v>
       </c>
       <c r="E43" t="n">
-        <v>610480.0198944323</v>
+        <v>642947.7995941939</v>
       </c>
     </row>
     <row r="44">
@@ -3189,16 +3189,16 @@
         <v>82</v>
       </c>
       <c r="B44" t="n">
-        <v>851916.75</v>
+        <v>909481.275</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>-256148.7301055675</v>
+        <v>-278479.1754058062</v>
       </c>
       <c r="E44" t="n">
-        <v>595768.0198944325</v>
+        <v>631002.0995941937</v>
       </c>
     </row>
     <row r="45">
@@ -3206,16 +3206,16 @@
         <v>83</v>
       </c>
       <c r="B45" t="n">
-        <v>883179.75</v>
+        <v>943480.5750000001</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>-302123.7301055677</v>
+        <v>-324424.1754058063</v>
       </c>
       <c r="E45" t="n">
-        <v>581056.0198944323</v>
+        <v>619056.3995941938</v>
       </c>
     </row>
     <row r="46">
@@ -3223,16 +3223,16 @@
         <v>84</v>
       </c>
       <c r="B46" t="n">
-        <v>914442.75</v>
+        <v>977479.875</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>-348098.7301055677</v>
+        <v>-370369.1754058063</v>
       </c>
       <c r="E46" t="n">
-        <v>566344.0198944323</v>
+        <v>607110.6995941936</v>
       </c>
     </row>
     <row r="47">
@@ -3240,16 +3240,16 @@
         <v>85</v>
       </c>
       <c r="B47" t="n">
-        <v>945705.75</v>
+        <v>1011479.175</v>
       </c>
       <c r="C47" t="n">
         <v>0</v>
       </c>
       <c r="D47" t="n">
-        <v>-394073.7301055677</v>
+        <v>-416314.1754058064</v>
       </c>
       <c r="E47" t="n">
-        <v>551632.0198944323</v>
+        <v>595164.9995941937</v>
       </c>
     </row>
     <row r="48">
@@ -3257,16 +3257,16 @@
         <v>86</v>
       </c>
       <c r="B48" t="n">
-        <v>976968.75</v>
+        <v>1045478.475</v>
       </c>
       <c r="C48" t="n">
         <v>0</v>
       </c>
       <c r="D48" t="n">
-        <v>-486023.7301055676</v>
+        <v>-508204.1754058064</v>
       </c>
       <c r="E48" t="n">
-        <v>490945.0198944324</v>
+        <v>537274.2995941937</v>
       </c>
     </row>
     <row r="49">
@@ -3274,16 +3274,16 @@
         <v>87</v>
       </c>
       <c r="B49" t="n">
-        <v>1008231.75</v>
+        <v>1079477.775</v>
       </c>
       <c r="C49" t="n">
         <v>0</v>
       </c>
       <c r="D49" t="n">
-        <v>-577973.7301055675</v>
+        <v>-600094.1754058064</v>
       </c>
       <c r="E49" t="n">
-        <v>430258.0198944325</v>
+        <v>479383.5995941937</v>
       </c>
     </row>
     <row r="50">
@@ -3291,16 +3291,16 @@
         <v>88</v>
       </c>
       <c r="B50" t="n">
-        <v>1039494.75</v>
+        <v>1113477.075</v>
       </c>
       <c r="C50" t="n">
         <v>0</v>
       </c>
       <c r="D50" t="n">
-        <v>-669923.7301055674</v>
+        <v>-691984.1754058063</v>
       </c>
       <c r="E50" t="n">
-        <v>369571.0198944326</v>
+        <v>421492.8995941937</v>
       </c>
     </row>
     <row r="51">
@@ -3308,16 +3308,16 @@
         <v>89</v>
       </c>
       <c r="B51" t="n">
-        <v>1070757.75</v>
+        <v>1147476.375</v>
       </c>
       <c r="C51" t="n">
         <v>0</v>
       </c>
       <c r="D51" t="n">
-        <v>-761873.7301055675</v>
+        <v>-783874.1754058063</v>
       </c>
       <c r="E51" t="n">
-        <v>308884.0198944325</v>
+        <v>363602.1995941937</v>
       </c>
     </row>
     <row r="52">
@@ -3325,16 +3325,16 @@
         <v>90</v>
       </c>
       <c r="B52" t="n">
-        <v>1102020.75</v>
+        <v>1181475.675</v>
       </c>
       <c r="C52" t="n">
         <v>0</v>
       </c>
       <c r="D52" t="n">
-        <v>-853823.7301055675</v>
+        <v>-875764.1754058063</v>
       </c>
       <c r="E52" t="n">
-        <v>248197.0198944325</v>
+        <v>305711.4995941938</v>
       </c>
     </row>
     <row r="53">
@@ -3342,16 +3342,16 @@
         <v>91</v>
       </c>
       <c r="B53" t="n">
-        <v>1133283.75</v>
+        <v>1215474.975</v>
       </c>
       <c r="C53" t="n">
         <v>0</v>
       </c>
       <c r="D53" t="n">
-        <v>-945773.7301055675</v>
+        <v>-967654.1754058063</v>
       </c>
       <c r="E53" t="n">
-        <v>187510.0198944325</v>
+        <v>247820.7995941938</v>
       </c>
     </row>
     <row r="54">
@@ -3359,16 +3359,16 @@
         <v>92</v>
       </c>
       <c r="B54" t="n">
-        <v>1164546.75</v>
+        <v>1249474.275</v>
       </c>
       <c r="C54" t="n">
         <v>0</v>
       </c>
       <c r="D54" t="n">
-        <v>-1037723.730105568</v>
+        <v>-1059544.175405806</v>
       </c>
       <c r="E54" t="n">
-        <v>126823.0198944324</v>
+        <v>189930.0995941937</v>
       </c>
     </row>
     <row r="55">
@@ -3376,16 +3376,16 @@
         <v>93</v>
       </c>
       <c r="B55" t="n">
-        <v>1195809.75</v>
+        <v>1283473.575</v>
       </c>
       <c r="C55" t="n">
         <v>0</v>
       </c>
       <c r="D55" t="n">
-        <v>-1129673.730105567</v>
+        <v>-1151434.175405806</v>
       </c>
       <c r="E55" t="n">
-        <v>66136.01989443274</v>
+        <v>132039.3995941938</v>
       </c>
     </row>
     <row r="56">
@@ -3393,16 +3393,16 @@
         <v>94</v>
       </c>
       <c r="B56" t="n">
-        <v>1227072.75</v>
+        <v>1317472.875</v>
       </c>
       <c r="C56" t="n">
         <v>0</v>
       </c>
       <c r="D56" t="n">
-        <v>-1221623.730105567</v>
+        <v>-1243324.175405806</v>
       </c>
       <c r="E56" t="n">
-        <v>5449.019894432509</v>
+        <v>74148.69959419384</v>
       </c>
     </row>
     <row r="57">
@@ -3410,16 +3410,16 @@
         <v>95</v>
       </c>
       <c r="B57" t="n">
-        <v>1258335.75</v>
+        <v>1351472.175</v>
       </c>
       <c r="C57" t="n">
         <v>0</v>
       </c>
       <c r="D57" t="n">
-        <v>-1313573.730105567</v>
+        <v>-1335214.175405806</v>
       </c>
       <c r="E57" t="n">
-        <v>-55237.98010556749</v>
+        <v>16257.99959419388</v>
       </c>
     </row>
   </sheetData>
@@ -3473,16 +3473,16 @@
         <v>40</v>
       </c>
       <c r="B2" t="n">
-        <v>-461129.25</v>
+        <v>-518489.325</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>-118223.7301055676</v>
+        <v>-48754.17540580614</v>
       </c>
       <c r="E2" t="n">
-        <v>-579352.9801055676</v>
+        <v>-567243.5004058061</v>
       </c>
     </row>
     <row r="3">
@@ -3490,16 +3490,16 @@
         <v>41</v>
       </c>
       <c r="B3" t="n">
-        <v>-429866.25</v>
+        <v>-484490.025</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>-26273.73010556759</v>
+        <v>-2809.175405806149</v>
       </c>
       <c r="E3" t="n">
-        <v>-456139.9801055676</v>
+        <v>-487299.2004058062</v>
       </c>
     </row>
     <row r="4">
@@ -3507,16 +3507,16 @@
         <v>42</v>
       </c>
       <c r="B4" t="n">
-        <v>-398603.25</v>
+        <v>-450490.725</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>65676.26989443241</v>
+        <v>43135.82459419385</v>
       </c>
       <c r="E4" t="n">
-        <v>-332926.9801055676</v>
+        <v>-407354.9004058062</v>
       </c>
     </row>
     <row r="5">
@@ -3524,16 +3524,16 @@
         <v>43</v>
       </c>
       <c r="B5" t="n">
-        <v>-367340.25</v>
+        <v>-416491.425</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>65676.26989443241</v>
+        <v>43135.82459419385</v>
       </c>
       <c r="E5" t="n">
-        <v>-301663.9801055676</v>
+        <v>-373355.6004058062</v>
       </c>
     </row>
     <row r="6">
@@ -3541,16 +3541,16 @@
         <v>44</v>
       </c>
       <c r="B6" t="n">
-        <v>-336077.25</v>
+        <v>-382492.125</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>65676.26989443241</v>
+        <v>43135.82459419385</v>
       </c>
       <c r="E6" t="n">
-        <v>-270400.9801055676</v>
+        <v>-339356.3004058062</v>
       </c>
     </row>
     <row r="7">
@@ -3558,16 +3558,16 @@
         <v>45</v>
       </c>
       <c r="B7" t="n">
-        <v>-304814.25</v>
+        <v>-348492.825</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>65676.26989443241</v>
+        <v>43135.82459419385</v>
       </c>
       <c r="E7" t="n">
-        <v>-239137.9801055676</v>
+        <v>-305357.0004058062</v>
       </c>
     </row>
     <row r="8">
@@ -3575,16 +3575,16 @@
         <v>46</v>
       </c>
       <c r="B8" t="n">
-        <v>-273551.25</v>
+        <v>-314493.525</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>65676.26989443241</v>
+        <v>43135.82459419385</v>
       </c>
       <c r="E8" t="n">
-        <v>-207874.9801055676</v>
+        <v>-271357.7004058062</v>
       </c>
     </row>
     <row r="9">
@@ -3592,16 +3592,16 @@
         <v>47</v>
       </c>
       <c r="B9" t="n">
-        <v>-242288.25</v>
+        <v>-280494.225</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>65676.26989443241</v>
+        <v>43135.82459419385</v>
       </c>
       <c r="E9" t="n">
-        <v>-176611.9801055676</v>
+        <v>-237358.4004058062</v>
       </c>
     </row>
     <row r="10">
@@ -3609,16 +3609,16 @@
         <v>48</v>
       </c>
       <c r="B10" t="n">
-        <v>-211025.25</v>
+        <v>-246494.925</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>65676.26989443241</v>
+        <v>43135.82459419385</v>
       </c>
       <c r="E10" t="n">
-        <v>-145348.9801055676</v>
+        <v>-203359.1004058062</v>
       </c>
     </row>
     <row r="11">
@@ -3626,16 +3626,16 @@
         <v>49</v>
       </c>
       <c r="B11" t="n">
-        <v>-179762.25</v>
+        <v>-212495.625</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>65676.26989443241</v>
+        <v>43135.82459419385</v>
       </c>
       <c r="E11" t="n">
-        <v>-114085.9801055676</v>
+        <v>-169359.8004058062</v>
       </c>
     </row>
     <row r="12">
@@ -3643,16 +3643,16 @@
         <v>50</v>
       </c>
       <c r="B12" t="n">
-        <v>-148499.25</v>
+        <v>-178496.325</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>65676.26989443241</v>
+        <v>43135.82459419385</v>
       </c>
       <c r="E12" t="n">
-        <v>-82822.98010556759</v>
+        <v>-135360.5004058062</v>
       </c>
     </row>
     <row r="13">
@@ -3660,16 +3660,16 @@
         <v>51</v>
       </c>
       <c r="B13" t="n">
-        <v>-117236.25</v>
+        <v>-144497.025</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>65676.26989443241</v>
+        <v>43135.82459419385</v>
       </c>
       <c r="E13" t="n">
-        <v>-51559.98010556759</v>
+        <v>-101361.2004058061</v>
       </c>
     </row>
     <row r="14">
@@ -3677,16 +3677,16 @@
         <v>52</v>
       </c>
       <c r="B14" t="n">
-        <v>-85973.25</v>
+        <v>-110497.725</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>65676.26989443241</v>
+        <v>43135.82459419385</v>
       </c>
       <c r="E14" t="n">
-        <v>-20296.98010556759</v>
+        <v>-67361.90040580615</v>
       </c>
     </row>
     <row r="15">
@@ -3694,16 +3694,16 @@
         <v>53</v>
       </c>
       <c r="B15" t="n">
-        <v>-54710.25</v>
+        <v>-76498.425</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>65676.26989443241</v>
+        <v>43135.82459419385</v>
       </c>
       <c r="E15" t="n">
-        <v>10966.01989443241</v>
+        <v>-33362.60040580615</v>
       </c>
     </row>
     <row r="16">
@@ -3711,16 +3711,16 @@
         <v>54</v>
       </c>
       <c r="B16" t="n">
-        <v>-23447.25</v>
+        <v>-42499.125</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>65676.26989443241</v>
+        <v>43135.82459419385</v>
       </c>
       <c r="E16" t="n">
-        <v>42229.01989443241</v>
+        <v>636.6995941938512</v>
       </c>
     </row>
     <row r="17">
@@ -3728,16 +3728,16 @@
         <v>55</v>
       </c>
       <c r="B17" t="n">
-        <v>7815.75</v>
+        <v>-8499.825000000001</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>65676.26989443241</v>
+        <v>43135.82459419385</v>
       </c>
       <c r="E17" t="n">
-        <v>73492.01989443241</v>
+        <v>34635.99959419385</v>
       </c>
     </row>
     <row r="18">
@@ -3745,16 +3745,16 @@
         <v>56</v>
       </c>
       <c r="B18" t="n">
-        <v>39078.75</v>
+        <v>25499.475</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>65676.26989443241</v>
+        <v>43135.82459419385</v>
       </c>
       <c r="E18" t="n">
-        <v>104755.0198944324</v>
+        <v>68635.29959419386</v>
       </c>
     </row>
     <row r="19">
@@ -3762,16 +3762,16 @@
         <v>57</v>
       </c>
       <c r="B19" t="n">
-        <v>70341.75</v>
+        <v>59498.775</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>65676.26989443241</v>
+        <v>43135.82459419385</v>
       </c>
       <c r="E19" t="n">
-        <v>136018.0198944324</v>
+        <v>102634.5995941939</v>
       </c>
     </row>
     <row r="20">
@@ -3779,16 +3779,16 @@
         <v>58</v>
       </c>
       <c r="B20" t="n">
-        <v>101604.75</v>
+        <v>93498.07500000001</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>65676.26989443241</v>
+        <v>43135.82459419385</v>
       </c>
       <c r="E20" t="n">
-        <v>167281.0198944324</v>
+        <v>136633.8995941938</v>
       </c>
     </row>
     <row r="21">
@@ -3796,16 +3796,16 @@
         <v>59</v>
       </c>
       <c r="B21" t="n">
-        <v>132867.75</v>
+        <v>127497.375</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>65676.26989443241</v>
+        <v>43135.82459419385</v>
       </c>
       <c r="E21" t="n">
-        <v>198544.0198944324</v>
+        <v>170633.1995941938</v>
       </c>
     </row>
     <row r="22">
@@ -3813,16 +3813,16 @@
         <v>60</v>
       </c>
       <c r="B22" t="n">
-        <v>164130.75</v>
+        <v>161496.675</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>65676.26989443241</v>
+        <v>43135.82459419385</v>
       </c>
       <c r="E22" t="n">
-        <v>229807.0198944324</v>
+        <v>204632.4995941939</v>
       </c>
     </row>
     <row r="23">
@@ -3830,16 +3830,16 @@
         <v>61</v>
       </c>
       <c r="B23" t="n">
-        <v>195393.75</v>
+        <v>195495.975</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>65676.26989443241</v>
+        <v>43135.82459419385</v>
       </c>
       <c r="E23" t="n">
-        <v>261070.0198944324</v>
+        <v>238631.7995941939</v>
       </c>
     </row>
     <row r="24">
@@ -3847,16 +3847,16 @@
         <v>62</v>
       </c>
       <c r="B24" t="n">
-        <v>226656.75</v>
+        <v>229495.275</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>65676.26989443241</v>
+        <v>43135.82459419385</v>
       </c>
       <c r="E24" t="n">
-        <v>292333.0198944324</v>
+        <v>272631.0995941939</v>
       </c>
     </row>
     <row r="25">
@@ -3864,16 +3864,16 @@
         <v>63</v>
       </c>
       <c r="B25" t="n">
-        <v>257919.75</v>
+        <v>263494.575</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>65676.26989443241</v>
+        <v>43135.82459419385</v>
       </c>
       <c r="E25" t="n">
-        <v>323596.0198944324</v>
+        <v>306630.3995941938</v>
       </c>
     </row>
     <row r="26">
@@ -3881,16 +3881,16 @@
         <v>64</v>
       </c>
       <c r="B26" t="n">
-        <v>289182.75</v>
+        <v>297493.875</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>65676.26989443241</v>
+        <v>43135.82459419385</v>
       </c>
       <c r="E26" t="n">
-        <v>354859.0198944324</v>
+        <v>340629.6995941938</v>
       </c>
     </row>
     <row r="27">
@@ -3898,16 +3898,16 @@
         <v>65</v>
       </c>
       <c r="B27" t="n">
-        <v>320445.75</v>
+        <v>331493.175</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>65676.26989443241</v>
+        <v>43135.82459419385</v>
       </c>
       <c r="E27" t="n">
-        <v>386122.0198944324</v>
+        <v>374628.9995941939</v>
       </c>
     </row>
     <row r="28">
@@ -3915,16 +3915,16 @@
         <v>66</v>
       </c>
       <c r="B28" t="n">
-        <v>351708.75</v>
+        <v>365492.475</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>19701.26989443241</v>
+        <v>-2809.175405806148</v>
       </c>
       <c r="E28" t="n">
-        <v>371410.0198944324</v>
+        <v>362683.2995941939</v>
       </c>
     </row>
     <row r="29">
@@ -3932,16 +3932,16 @@
         <v>67</v>
       </c>
       <c r="B29" t="n">
-        <v>382971.75</v>
+        <v>399491.775</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>-26273.73010556759</v>
+        <v>-48754.17540580616</v>
       </c>
       <c r="E29" t="n">
-        <v>356698.0198944324</v>
+        <v>350737.5995941939</v>
       </c>
     </row>
     <row r="30">
@@ -3949,16 +3949,16 @@
         <v>68</v>
       </c>
       <c r="B30" t="n">
-        <v>414234.75</v>
+        <v>433491.075</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>-72248.73010556759</v>
+        <v>-94699.17540580615</v>
       </c>
       <c r="E30" t="n">
-        <v>341986.0198944324</v>
+        <v>338791.8995941938</v>
       </c>
     </row>
     <row r="31">
@@ -3966,16 +3966,16 @@
         <v>69</v>
       </c>
       <c r="B31" t="n">
-        <v>445497.75</v>
+        <v>467490.375</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>-118223.7301055676</v>
+        <v>-140644.1754058062</v>
       </c>
       <c r="E31" t="n">
-        <v>327274.0198944324</v>
+        <v>326846.1995941938</v>
       </c>
     </row>
     <row r="32">
@@ -3983,16 +3983,16 @@
         <v>70</v>
       </c>
       <c r="B32" t="n">
-        <v>476760.75</v>
+        <v>501489.675</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>-164198.7301055676</v>
+        <v>-186589.1754058062</v>
       </c>
       <c r="E32" t="n">
-        <v>312562.0198944324</v>
+        <v>314900.4995941939</v>
       </c>
     </row>
     <row r="33">
@@ -4000,16 +4000,16 @@
         <v>71</v>
       </c>
       <c r="B33" t="n">
-        <v>508023.75</v>
+        <v>535488.975</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>-164198.7301055675</v>
+        <v>-186589.1754058061</v>
       </c>
       <c r="E33" t="n">
-        <v>343825.0198944325</v>
+        <v>348899.7995941938</v>
       </c>
     </row>
     <row r="34">
@@ -4017,16 +4017,16 @@
         <v>72</v>
       </c>
       <c r="B34" t="n">
-        <v>539286.75</v>
+        <v>569488.275</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>-164198.7301055676</v>
+        <v>-186589.1754058061</v>
       </c>
       <c r="E34" t="n">
-        <v>375088.0198944324</v>
+        <v>382899.0995941939</v>
       </c>
     </row>
     <row r="35">
@@ -4034,16 +4034,16 @@
         <v>73</v>
       </c>
       <c r="B35" t="n">
-        <v>570549.75</v>
+        <v>603487.5750000001</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>-164198.7301055676</v>
+        <v>-186589.1754058061</v>
       </c>
       <c r="E35" t="n">
-        <v>406351.0198944324</v>
+        <v>416898.399594194</v>
       </c>
     </row>
     <row r="36">
@@ -4051,16 +4051,16 @@
         <v>74</v>
       </c>
       <c r="B36" t="n">
-        <v>601812.75</v>
+        <v>637486.875</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>-164198.7301055676</v>
+        <v>-186589.1754058062</v>
       </c>
       <c r="E36" t="n">
-        <v>437614.0198944324</v>
+        <v>450897.6995941938</v>
       </c>
     </row>
     <row r="37">
@@ -4068,16 +4068,16 @@
         <v>75</v>
       </c>
       <c r="B37" t="n">
-        <v>633075.75</v>
+        <v>671486.175</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>-164198.7301055676</v>
+        <v>-186589.1754058062</v>
       </c>
       <c r="E37" t="n">
-        <v>468877.0198944324</v>
+        <v>484896.9995941939</v>
       </c>
     </row>
     <row r="38">
@@ -4085,16 +4085,16 @@
         <v>76</v>
       </c>
       <c r="B38" t="n">
-        <v>664338.75</v>
+        <v>705485.4750000001</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>-164198.7301055676</v>
+        <v>-186589.1754058062</v>
       </c>
       <c r="E38" t="n">
-        <v>500140.0198944324</v>
+        <v>518896.2995941939</v>
       </c>
     </row>
     <row r="39">
@@ -4102,16 +4102,16 @@
         <v>77</v>
       </c>
       <c r="B39" t="n">
-        <v>695601.75</v>
+        <v>739484.775</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>-164198.7301055677</v>
+        <v>-186589.1754058062</v>
       </c>
       <c r="E39" t="n">
-        <v>531403.0198944323</v>
+        <v>552895.5995941939</v>
       </c>
     </row>
     <row r="40">
@@ -4119,16 +4119,16 @@
         <v>78</v>
       </c>
       <c r="B40" t="n">
-        <v>726864.75</v>
+        <v>773484.0750000001</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>-164198.7301055677</v>
+        <v>-186589.1754058062</v>
       </c>
       <c r="E40" t="n">
-        <v>562666.0198944323</v>
+        <v>586894.8995941939</v>
       </c>
     </row>
     <row r="41">
@@ -4136,16 +4136,16 @@
         <v>79</v>
       </c>
       <c r="B41" t="n">
-        <v>758127.75</v>
+        <v>807483.375</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>-164198.7301055677</v>
+        <v>-186589.1754058062</v>
       </c>
       <c r="E41" t="n">
-        <v>593929.0198944323</v>
+        <v>620894.1995941938</v>
       </c>
     </row>
     <row r="42">
@@ -4153,16 +4153,16 @@
         <v>80</v>
       </c>
       <c r="B42" t="n">
-        <v>789390.75</v>
+        <v>841482.675</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>-164198.7301055677</v>
+        <v>-186589.1754058062</v>
       </c>
       <c r="E42" t="n">
-        <v>625192.0198944323</v>
+        <v>654893.4995941939</v>
       </c>
     </row>
     <row r="43">
@@ -4170,16 +4170,16 @@
         <v>81</v>
       </c>
       <c r="B43" t="n">
-        <v>820653.75</v>
+        <v>875481.9750000001</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>-210173.7301055677</v>
+        <v>-232534.1754058062</v>
       </c>
       <c r="E43" t="n">
-        <v>610480.0198944323</v>
+        <v>642947.7995941939</v>
       </c>
     </row>
     <row r="44">
@@ -4187,16 +4187,16 @@
         <v>82</v>
       </c>
       <c r="B44" t="n">
-        <v>851916.75</v>
+        <v>909481.275</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>-256148.7301055675</v>
+        <v>-278479.1754058062</v>
       </c>
       <c r="E44" t="n">
-        <v>595768.0198944325</v>
+        <v>631002.0995941937</v>
       </c>
     </row>
     <row r="45">
@@ -4204,16 +4204,16 @@
         <v>83</v>
       </c>
       <c r="B45" t="n">
-        <v>883179.75</v>
+        <v>943480.5750000001</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>-302123.7301055677</v>
+        <v>-324424.1754058063</v>
       </c>
       <c r="E45" t="n">
-        <v>581056.0198944323</v>
+        <v>619056.3995941938</v>
       </c>
     </row>
     <row r="46">
@@ -4221,16 +4221,16 @@
         <v>84</v>
       </c>
       <c r="B46" t="n">
-        <v>914442.75</v>
+        <v>977479.875</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>-348098.7301055677</v>
+        <v>-370369.1754058063</v>
       </c>
       <c r="E46" t="n">
-        <v>566344.0198944323</v>
+        <v>607110.6995941936</v>
       </c>
     </row>
     <row r="47">
@@ -4238,16 +4238,16 @@
         <v>85</v>
       </c>
       <c r="B47" t="n">
-        <v>945705.75</v>
+        <v>1011479.175</v>
       </c>
       <c r="C47" t="n">
         <v>0</v>
       </c>
       <c r="D47" t="n">
-        <v>-394073.7301055677</v>
+        <v>-416314.1754058064</v>
       </c>
       <c r="E47" t="n">
-        <v>551632.0198944323</v>
+        <v>595164.9995941937</v>
       </c>
     </row>
     <row r="48">
@@ -4255,16 +4255,16 @@
         <v>86</v>
       </c>
       <c r="B48" t="n">
-        <v>976968.75</v>
+        <v>1045478.475</v>
       </c>
       <c r="C48" t="n">
         <v>0</v>
       </c>
       <c r="D48" t="n">
-        <v>-486023.7301055676</v>
+        <v>-508204.1754058064</v>
       </c>
       <c r="E48" t="n">
-        <v>490945.0198944324</v>
+        <v>537274.2995941937</v>
       </c>
     </row>
     <row r="49">
@@ -4272,16 +4272,16 @@
         <v>87</v>
       </c>
       <c r="B49" t="n">
-        <v>1008231.75</v>
+        <v>1079477.775</v>
       </c>
       <c r="C49" t="n">
         <v>0</v>
       </c>
       <c r="D49" t="n">
-        <v>-577973.7301055675</v>
+        <v>-600094.1754058064</v>
       </c>
       <c r="E49" t="n">
-        <v>430258.0198944325</v>
+        <v>479383.5995941937</v>
       </c>
     </row>
     <row r="50">
@@ -4289,16 +4289,16 @@
         <v>88</v>
       </c>
       <c r="B50" t="n">
-        <v>1039494.75</v>
+        <v>1113477.075</v>
       </c>
       <c r="C50" t="n">
         <v>0</v>
       </c>
       <c r="D50" t="n">
-        <v>-669923.7301055674</v>
+        <v>-691984.1754058063</v>
       </c>
       <c r="E50" t="n">
-        <v>369571.0198944326</v>
+        <v>421492.8995941937</v>
       </c>
     </row>
     <row r="51">
@@ -4306,16 +4306,16 @@
         <v>89</v>
       </c>
       <c r="B51" t="n">
-        <v>1070757.75</v>
+        <v>1147476.375</v>
       </c>
       <c r="C51" t="n">
         <v>0</v>
       </c>
       <c r="D51" t="n">
-        <v>-761873.7301055675</v>
+        <v>-783874.1754058063</v>
       </c>
       <c r="E51" t="n">
-        <v>308884.0198944325</v>
+        <v>363602.1995941937</v>
       </c>
     </row>
     <row r="52">
@@ -4323,16 +4323,16 @@
         <v>90</v>
       </c>
       <c r="B52" t="n">
-        <v>1102020.75</v>
+        <v>1181475.675</v>
       </c>
       <c r="C52" t="n">
         <v>0</v>
       </c>
       <c r="D52" t="n">
-        <v>-853823.7301055675</v>
+        <v>-875764.1754058063</v>
       </c>
       <c r="E52" t="n">
-        <v>248197.0198944325</v>
+        <v>305711.4995941938</v>
       </c>
     </row>
     <row r="53">
@@ -4340,16 +4340,16 @@
         <v>91</v>
       </c>
       <c r="B53" t="n">
-        <v>1133283.75</v>
+        <v>1215474.975</v>
       </c>
       <c r="C53" t="n">
         <v>0</v>
       </c>
       <c r="D53" t="n">
-        <v>-945773.7301055675</v>
+        <v>-967654.1754058063</v>
       </c>
       <c r="E53" t="n">
-        <v>187510.0198944325</v>
+        <v>247820.7995941938</v>
       </c>
     </row>
     <row r="54">
@@ -4357,16 +4357,16 @@
         <v>92</v>
       </c>
       <c r="B54" t="n">
-        <v>1164546.75</v>
+        <v>1249474.275</v>
       </c>
       <c r="C54" t="n">
         <v>0</v>
       </c>
       <c r="D54" t="n">
-        <v>-1037723.730105568</v>
+        <v>-1059544.175405806</v>
       </c>
       <c r="E54" t="n">
-        <v>126823.0198944324</v>
+        <v>189930.0995941937</v>
       </c>
     </row>
     <row r="55">
@@ -4374,16 +4374,16 @@
         <v>93</v>
       </c>
       <c r="B55" t="n">
-        <v>1195809.75</v>
+        <v>1283473.575</v>
       </c>
       <c r="C55" t="n">
         <v>0</v>
       </c>
       <c r="D55" t="n">
-        <v>-1129673.730105567</v>
+        <v>-1151434.175405806</v>
       </c>
       <c r="E55" t="n">
-        <v>66136.01989443274</v>
+        <v>132039.3995941938</v>
       </c>
     </row>
     <row r="56">
@@ -4391,16 +4391,16 @@
         <v>94</v>
       </c>
       <c r="B56" t="n">
-        <v>1227072.75</v>
+        <v>1317472.875</v>
       </c>
       <c r="C56" t="n">
         <v>0</v>
       </c>
       <c r="D56" t="n">
-        <v>-1221623.730105567</v>
+        <v>-1243324.175405806</v>
       </c>
       <c r="E56" t="n">
-        <v>5449.019894432509</v>
+        <v>74148.69959419384</v>
       </c>
     </row>
     <row r="57">
@@ -4408,16 +4408,16 @@
         <v>95</v>
       </c>
       <c r="B57" t="n">
-        <v>1258335.75</v>
+        <v>1351472.175</v>
       </c>
       <c r="C57" t="n">
         <v>0</v>
       </c>
       <c r="D57" t="n">
-        <v>-1313573.730105567</v>
+        <v>-1335214.175405806</v>
       </c>
       <c r="E57" t="n">
-        <v>-55237.98010556749</v>
+        <v>16257.99959419388</v>
       </c>
     </row>
   </sheetData>
@@ -4471,16 +4471,16 @@
         <v>40</v>
       </c>
       <c r="B2" t="n">
-        <v>-461129.25</v>
+        <v>-518489.325</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>-118223.7301055676</v>
+        <v>-48754.17540580614</v>
       </c>
       <c r="E2" t="n">
-        <v>-579352.9801055676</v>
+        <v>-567243.5004058061</v>
       </c>
     </row>
     <row r="3">
@@ -4488,16 +4488,16 @@
         <v>41</v>
       </c>
       <c r="B3" t="n">
-        <v>-429866.25</v>
+        <v>-484490.025</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>-26273.73010556759</v>
+        <v>-2809.175405806149</v>
       </c>
       <c r="E3" t="n">
-        <v>-456139.9801055676</v>
+        <v>-487299.2004058062</v>
       </c>
     </row>
     <row r="4">
@@ -4505,16 +4505,16 @@
         <v>42</v>
       </c>
       <c r="B4" t="n">
-        <v>-398603.25</v>
+        <v>-450490.725</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>65676.26989443241</v>
+        <v>43135.82459419385</v>
       </c>
       <c r="E4" t="n">
-        <v>-332926.9801055676</v>
+        <v>-407354.9004058062</v>
       </c>
     </row>
     <row r="5">
@@ -4522,16 +4522,16 @@
         <v>43</v>
       </c>
       <c r="B5" t="n">
-        <v>-367340.25</v>
+        <v>-416491.425</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>65676.26989443241</v>
+        <v>43135.82459419385</v>
       </c>
       <c r="E5" t="n">
-        <v>-301663.9801055676</v>
+        <v>-373355.6004058062</v>
       </c>
     </row>
     <row r="6">
@@ -4539,16 +4539,16 @@
         <v>44</v>
       </c>
       <c r="B6" t="n">
-        <v>-336077.25</v>
+        <v>-382492.125</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>65676.26989443241</v>
+        <v>43135.82459419385</v>
       </c>
       <c r="E6" t="n">
-        <v>-270400.9801055676</v>
+        <v>-339356.3004058062</v>
       </c>
     </row>
     <row r="7">
@@ -4556,16 +4556,16 @@
         <v>45</v>
       </c>
       <c r="B7" t="n">
-        <v>-304814.25</v>
+        <v>-348492.825</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>65676.26989443241</v>
+        <v>43135.82459419385</v>
       </c>
       <c r="E7" t="n">
-        <v>-239137.9801055676</v>
+        <v>-305357.0004058062</v>
       </c>
     </row>
     <row r="8">
@@ -4573,16 +4573,16 @@
         <v>46</v>
       </c>
       <c r="B8" t="n">
-        <v>-273551.25</v>
+        <v>-314493.525</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>65676.26989443241</v>
+        <v>43135.82459419385</v>
       </c>
       <c r="E8" t="n">
-        <v>-207874.9801055676</v>
+        <v>-271357.7004058062</v>
       </c>
     </row>
     <row r="9">
@@ -4590,16 +4590,16 @@
         <v>47</v>
       </c>
       <c r="B9" t="n">
-        <v>-242288.25</v>
+        <v>-280494.225</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>65676.26989443241</v>
+        <v>43135.82459419385</v>
       </c>
       <c r="E9" t="n">
-        <v>-176611.9801055676</v>
+        <v>-237358.4004058062</v>
       </c>
     </row>
     <row r="10">
@@ -4607,16 +4607,16 @@
         <v>48</v>
       </c>
       <c r="B10" t="n">
-        <v>-211025.25</v>
+        <v>-246494.925</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>65676.26989443241</v>
+        <v>43135.82459419385</v>
       </c>
       <c r="E10" t="n">
-        <v>-145348.9801055676</v>
+        <v>-203359.1004058062</v>
       </c>
     </row>
     <row r="11">
@@ -4624,16 +4624,16 @@
         <v>49</v>
       </c>
       <c r="B11" t="n">
-        <v>-179762.25</v>
+        <v>-212495.625</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>65676.26989443241</v>
+        <v>43135.82459419385</v>
       </c>
       <c r="E11" t="n">
-        <v>-114085.9801055676</v>
+        <v>-169359.8004058062</v>
       </c>
     </row>
     <row r="12">
@@ -4641,16 +4641,16 @@
         <v>50</v>
       </c>
       <c r="B12" t="n">
-        <v>-148499.25</v>
+        <v>-178496.325</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>65676.26989443241</v>
+        <v>43135.82459419385</v>
       </c>
       <c r="E12" t="n">
-        <v>-82822.98010556759</v>
+        <v>-135360.5004058062</v>
       </c>
     </row>
     <row r="13">
@@ -4658,16 +4658,16 @@
         <v>51</v>
       </c>
       <c r="B13" t="n">
-        <v>-117236.25</v>
+        <v>-144497.025</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>65676.26989443241</v>
+        <v>43135.82459419385</v>
       </c>
       <c r="E13" t="n">
-        <v>-51559.98010556759</v>
+        <v>-101361.2004058061</v>
       </c>
     </row>
     <row r="14">
@@ -4675,16 +4675,16 @@
         <v>52</v>
       </c>
       <c r="B14" t="n">
-        <v>-85973.25</v>
+        <v>-110497.725</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>65676.26989443241</v>
+        <v>43135.82459419385</v>
       </c>
       <c r="E14" t="n">
-        <v>-20296.98010556759</v>
+        <v>-67361.90040580615</v>
       </c>
     </row>
     <row r="15">
@@ -4692,16 +4692,16 @@
         <v>53</v>
       </c>
       <c r="B15" t="n">
-        <v>-54710.25</v>
+        <v>-76498.425</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>65676.26989443241</v>
+        <v>43135.82459419385</v>
       </c>
       <c r="E15" t="n">
-        <v>10966.01989443241</v>
+        <v>-33362.60040580615</v>
       </c>
     </row>
     <row r="16">
@@ -4709,16 +4709,16 @@
         <v>54</v>
       </c>
       <c r="B16" t="n">
-        <v>-23447.25</v>
+        <v>-42499.125</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>65676.26989443241</v>
+        <v>43135.82459419385</v>
       </c>
       <c r="E16" t="n">
-        <v>42229.01989443241</v>
+        <v>636.6995941938512</v>
       </c>
     </row>
     <row r="17">
@@ -4726,16 +4726,16 @@
         <v>55</v>
       </c>
       <c r="B17" t="n">
-        <v>7815.75</v>
+        <v>-8499.825000000001</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>65676.26989443241</v>
+        <v>43135.82459419385</v>
       </c>
       <c r="E17" t="n">
-        <v>73492.01989443241</v>
+        <v>34635.99959419385</v>
       </c>
     </row>
     <row r="18">
@@ -4743,16 +4743,16 @@
         <v>56</v>
       </c>
       <c r="B18" t="n">
-        <v>39078.75</v>
+        <v>25499.475</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>65676.26989443241</v>
+        <v>43135.82459419385</v>
       </c>
       <c r="E18" t="n">
-        <v>104755.0198944324</v>
+        <v>68635.29959419386</v>
       </c>
     </row>
     <row r="19">
@@ -4760,16 +4760,16 @@
         <v>57</v>
       </c>
       <c r="B19" t="n">
-        <v>70341.75</v>
+        <v>59498.775</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>65676.26989443241</v>
+        <v>43135.82459419385</v>
       </c>
       <c r="E19" t="n">
-        <v>136018.0198944324</v>
+        <v>102634.5995941939</v>
       </c>
     </row>
     <row r="20">
@@ -4777,16 +4777,16 @@
         <v>58</v>
       </c>
       <c r="B20" t="n">
-        <v>101604.75</v>
+        <v>93498.07500000001</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>65676.26989443241</v>
+        <v>43135.82459419385</v>
       </c>
       <c r="E20" t="n">
-        <v>167281.0198944324</v>
+        <v>136633.8995941938</v>
       </c>
     </row>
     <row r="21">
@@ -4794,16 +4794,16 @@
         <v>59</v>
       </c>
       <c r="B21" t="n">
-        <v>132867.75</v>
+        <v>127497.375</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>65676.26989443241</v>
+        <v>43135.82459419385</v>
       </c>
       <c r="E21" t="n">
-        <v>198544.0198944324</v>
+        <v>170633.1995941938</v>
       </c>
     </row>
     <row r="22">
@@ -4811,16 +4811,16 @@
         <v>60</v>
       </c>
       <c r="B22" t="n">
-        <v>164130.75</v>
+        <v>161496.675</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>65676.26989443241</v>
+        <v>43135.82459419385</v>
       </c>
       <c r="E22" t="n">
-        <v>229807.0198944324</v>
+        <v>204632.4995941939</v>
       </c>
     </row>
     <row r="23">
@@ -4828,16 +4828,16 @@
         <v>61</v>
       </c>
       <c r="B23" t="n">
-        <v>195393.75</v>
+        <v>195495.975</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>65676.26989443241</v>
+        <v>43135.82459419385</v>
       </c>
       <c r="E23" t="n">
-        <v>261070.0198944324</v>
+        <v>238631.7995941939</v>
       </c>
     </row>
     <row r="24">
@@ -4845,16 +4845,16 @@
         <v>62</v>
       </c>
       <c r="B24" t="n">
-        <v>226656.75</v>
+        <v>229495.275</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>65676.26989443241</v>
+        <v>43135.82459419385</v>
       </c>
       <c r="E24" t="n">
-        <v>292333.0198944324</v>
+        <v>272631.0995941939</v>
       </c>
     </row>
     <row r="25">
@@ -4862,16 +4862,16 @@
         <v>63</v>
       </c>
       <c r="B25" t="n">
-        <v>257919.75</v>
+        <v>263494.575</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>65676.26989443241</v>
+        <v>43135.82459419385</v>
       </c>
       <c r="E25" t="n">
-        <v>323596.0198944324</v>
+        <v>306630.3995941938</v>
       </c>
     </row>
     <row r="26">
@@ -4879,16 +4879,16 @@
         <v>64</v>
       </c>
       <c r="B26" t="n">
-        <v>289182.75</v>
+        <v>297493.875</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>65676.26989443241</v>
+        <v>43135.82459419385</v>
       </c>
       <c r="E26" t="n">
-        <v>354859.0198944324</v>
+        <v>340629.6995941938</v>
       </c>
     </row>
     <row r="27">
@@ -4896,16 +4896,16 @@
         <v>65</v>
       </c>
       <c r="B27" t="n">
-        <v>320445.75</v>
+        <v>331493.175</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>65676.26989443241</v>
+        <v>43135.82459419385</v>
       </c>
       <c r="E27" t="n">
-        <v>386122.0198944324</v>
+        <v>374628.9995941939</v>
       </c>
     </row>
     <row r="28">
@@ -4913,16 +4913,16 @@
         <v>66</v>
       </c>
       <c r="B28" t="n">
-        <v>351708.75</v>
+        <v>365492.475</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>19701.26989443241</v>
+        <v>-2809.175405806148</v>
       </c>
       <c r="E28" t="n">
-        <v>371410.0198944324</v>
+        <v>362683.2995941939</v>
       </c>
     </row>
     <row r="29">
@@ -4930,16 +4930,16 @@
         <v>67</v>
       </c>
       <c r="B29" t="n">
-        <v>382971.75</v>
+        <v>399491.775</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>-26273.73010556759</v>
+        <v>-48754.17540580616</v>
       </c>
       <c r="E29" t="n">
-        <v>356698.0198944324</v>
+        <v>350737.5995941939</v>
       </c>
     </row>
     <row r="30">
@@ -4947,16 +4947,16 @@
         <v>68</v>
       </c>
       <c r="B30" t="n">
-        <v>414234.75</v>
+        <v>433491.075</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>-72248.73010556759</v>
+        <v>-94699.17540580615</v>
       </c>
       <c r="E30" t="n">
-        <v>341986.0198944324</v>
+        <v>338791.8995941938</v>
       </c>
     </row>
     <row r="31">
@@ -4964,16 +4964,16 @@
         <v>69</v>
       </c>
       <c r="B31" t="n">
-        <v>445497.75</v>
+        <v>467490.375</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>-118223.7301055676</v>
+        <v>-140644.1754058062</v>
       </c>
       <c r="E31" t="n">
-        <v>327274.0198944324</v>
+        <v>326846.1995941938</v>
       </c>
     </row>
     <row r="32">
@@ -4981,16 +4981,16 @@
         <v>70</v>
       </c>
       <c r="B32" t="n">
-        <v>476760.75</v>
+        <v>501489.675</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>-164198.7301055676</v>
+        <v>-186589.1754058062</v>
       </c>
       <c r="E32" t="n">
-        <v>312562.0198944324</v>
+        <v>314900.4995941939</v>
       </c>
     </row>
     <row r="33">
@@ -4998,16 +4998,16 @@
         <v>71</v>
       </c>
       <c r="B33" t="n">
-        <v>508023.75</v>
+        <v>535488.975</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>-164198.7301055675</v>
+        <v>-186589.1754058061</v>
       </c>
       <c r="E33" t="n">
-        <v>343825.0198944325</v>
+        <v>348899.7995941938</v>
       </c>
     </row>
     <row r="34">
@@ -5015,16 +5015,16 @@
         <v>72</v>
       </c>
       <c r="B34" t="n">
-        <v>539286.75</v>
+        <v>569488.275</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>-164198.7301055676</v>
+        <v>-186589.1754058061</v>
       </c>
       <c r="E34" t="n">
-        <v>375088.0198944324</v>
+        <v>382899.0995941939</v>
       </c>
     </row>
     <row r="35">
@@ -5032,16 +5032,16 @@
         <v>73</v>
       </c>
       <c r="B35" t="n">
-        <v>570549.75</v>
+        <v>603487.5750000001</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>-164198.7301055676</v>
+        <v>-186589.1754058061</v>
       </c>
       <c r="E35" t="n">
-        <v>406351.0198944324</v>
+        <v>416898.399594194</v>
       </c>
     </row>
     <row r="36">
@@ -5049,16 +5049,16 @@
         <v>74</v>
       </c>
       <c r="B36" t="n">
-        <v>601812.75</v>
+        <v>637486.875</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>-164198.7301055676</v>
+        <v>-186589.1754058062</v>
       </c>
       <c r="E36" t="n">
-        <v>437614.0198944324</v>
+        <v>450897.6995941938</v>
       </c>
     </row>
     <row r="37">
@@ -5066,16 +5066,16 @@
         <v>75</v>
       </c>
       <c r="B37" t="n">
-        <v>633075.75</v>
+        <v>671486.175</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>-164198.7301055676</v>
+        <v>-186589.1754058062</v>
       </c>
       <c r="E37" t="n">
-        <v>468877.0198944324</v>
+        <v>484896.9995941939</v>
       </c>
     </row>
     <row r="38">
@@ -5083,16 +5083,16 @@
         <v>76</v>
       </c>
       <c r="B38" t="n">
-        <v>664338.75</v>
+        <v>705485.4750000001</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>-164198.7301055676</v>
+        <v>-186589.1754058062</v>
       </c>
       <c r="E38" t="n">
-        <v>500140.0198944324</v>
+        <v>518896.2995941939</v>
       </c>
     </row>
     <row r="39">
@@ -5100,16 +5100,16 @@
         <v>77</v>
       </c>
       <c r="B39" t="n">
-        <v>695601.75</v>
+        <v>739484.775</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>-164198.7301055677</v>
+        <v>-186589.1754058062</v>
       </c>
       <c r="E39" t="n">
-        <v>531403.0198944323</v>
+        <v>552895.5995941939</v>
       </c>
     </row>
     <row r="40">
@@ -5117,16 +5117,16 @@
         <v>78</v>
       </c>
       <c r="B40" t="n">
-        <v>726864.75</v>
+        <v>773484.0750000001</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>-164198.7301055677</v>
+        <v>-186589.1754058062</v>
       </c>
       <c r="E40" t="n">
-        <v>562666.0198944323</v>
+        <v>586894.8995941939</v>
       </c>
     </row>
     <row r="41">
@@ -5134,16 +5134,16 @@
         <v>79</v>
       </c>
       <c r="B41" t="n">
-        <v>758127.75</v>
+        <v>807483.375</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>-164198.7301055677</v>
+        <v>-186589.1754058062</v>
       </c>
       <c r="E41" t="n">
-        <v>593929.0198944323</v>
+        <v>620894.1995941938</v>
       </c>
     </row>
     <row r="42">
@@ -5151,16 +5151,16 @@
         <v>80</v>
       </c>
       <c r="B42" t="n">
-        <v>789390.75</v>
+        <v>841482.675</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>-164198.7301055677</v>
+        <v>-186589.1754058062</v>
       </c>
       <c r="E42" t="n">
-        <v>625192.0198944323</v>
+        <v>654893.4995941939</v>
       </c>
     </row>
     <row r="43">
@@ -5168,16 +5168,16 @@
         <v>81</v>
       </c>
       <c r="B43" t="n">
-        <v>820653.75</v>
+        <v>875481.9750000001</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>-210173.7301055677</v>
+        <v>-232534.1754058062</v>
       </c>
       <c r="E43" t="n">
-        <v>610480.0198944323</v>
+        <v>642947.7995941939</v>
       </c>
     </row>
     <row r="44">
@@ -5185,16 +5185,16 @@
         <v>82</v>
       </c>
       <c r="B44" t="n">
-        <v>851916.75</v>
+        <v>909481.275</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>-256148.7301055675</v>
+        <v>-278479.1754058062</v>
       </c>
       <c r="E44" t="n">
-        <v>595768.0198944325</v>
+        <v>631002.0995941937</v>
       </c>
     </row>
     <row r="45">
@@ -5202,16 +5202,16 @@
         <v>83</v>
       </c>
       <c r="B45" t="n">
-        <v>883179.75</v>
+        <v>943480.5750000001</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>-302123.7301055677</v>
+        <v>-324424.1754058063</v>
       </c>
       <c r="E45" t="n">
-        <v>581056.0198944323</v>
+        <v>619056.3995941938</v>
       </c>
     </row>
     <row r="46">
@@ -5219,16 +5219,16 @@
         <v>84</v>
       </c>
       <c r="B46" t="n">
-        <v>914442.75</v>
+        <v>977479.875</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>-348098.7301055677</v>
+        <v>-370369.1754058063</v>
       </c>
       <c r="E46" t="n">
-        <v>566344.0198944323</v>
+        <v>607110.6995941936</v>
       </c>
     </row>
     <row r="47">
@@ -5236,16 +5236,16 @@
         <v>85</v>
       </c>
       <c r="B47" t="n">
-        <v>945705.75</v>
+        <v>1011479.175</v>
       </c>
       <c r="C47" t="n">
         <v>0</v>
       </c>
       <c r="D47" t="n">
-        <v>-394073.7301055677</v>
+        <v>-416314.1754058064</v>
       </c>
       <c r="E47" t="n">
-        <v>551632.0198944323</v>
+        <v>595164.9995941937</v>
       </c>
     </row>
     <row r="48">
@@ -5253,16 +5253,16 @@
         <v>86</v>
       </c>
       <c r="B48" t="n">
-        <v>976968.75</v>
+        <v>1045478.475</v>
       </c>
       <c r="C48" t="n">
         <v>0</v>
       </c>
       <c r="D48" t="n">
-        <v>-486023.7301055676</v>
+        <v>-508204.1754058064</v>
       </c>
       <c r="E48" t="n">
-        <v>490945.0198944324</v>
+        <v>537274.2995941937</v>
       </c>
     </row>
     <row r="49">
@@ -5270,16 +5270,16 @@
         <v>87</v>
       </c>
       <c r="B49" t="n">
-        <v>1008231.75</v>
+        <v>1079477.775</v>
       </c>
       <c r="C49" t="n">
         <v>0</v>
       </c>
       <c r="D49" t="n">
-        <v>-577973.7301055675</v>
+        <v>-600094.1754058064</v>
       </c>
       <c r="E49" t="n">
-        <v>430258.0198944325</v>
+        <v>479383.5995941937</v>
       </c>
     </row>
     <row r="50">
@@ -5287,16 +5287,16 @@
         <v>88</v>
       </c>
       <c r="B50" t="n">
-        <v>1039494.75</v>
+        <v>1113477.075</v>
       </c>
       <c r="C50" t="n">
         <v>0</v>
       </c>
       <c r="D50" t="n">
-        <v>-669923.7301055674</v>
+        <v>-691984.1754058063</v>
       </c>
       <c r="E50" t="n">
-        <v>369571.0198944326</v>
+        <v>421492.8995941937</v>
       </c>
     </row>
     <row r="51">
@@ -5304,16 +5304,16 @@
         <v>89</v>
       </c>
       <c r="B51" t="n">
-        <v>1070757.75</v>
+        <v>1147476.375</v>
       </c>
       <c r="C51" t="n">
         <v>0</v>
       </c>
       <c r="D51" t="n">
-        <v>-761873.7301055675</v>
+        <v>-783874.1754058063</v>
       </c>
       <c r="E51" t="n">
-        <v>308884.0198944325</v>
+        <v>363602.1995941937</v>
       </c>
     </row>
     <row r="52">
@@ -5321,16 +5321,16 @@
         <v>90</v>
       </c>
       <c r="B52" t="n">
-        <v>1102020.75</v>
+        <v>1181475.675</v>
       </c>
       <c r="C52" t="n">
         <v>0</v>
       </c>
       <c r="D52" t="n">
-        <v>-853823.7301055675</v>
+        <v>-875764.1754058063</v>
       </c>
       <c r="E52" t="n">
-        <v>248197.0198944325</v>
+        <v>305711.4995941938</v>
       </c>
     </row>
     <row r="53">
@@ -5338,16 +5338,16 @@
         <v>91</v>
       </c>
       <c r="B53" t="n">
-        <v>1133283.75</v>
+        <v>1215474.975</v>
       </c>
       <c r="C53" t="n">
         <v>0</v>
       </c>
       <c r="D53" t="n">
-        <v>-945773.7301055675</v>
+        <v>-967654.1754058063</v>
       </c>
       <c r="E53" t="n">
-        <v>187510.0198944325</v>
+        <v>247820.7995941938</v>
       </c>
     </row>
     <row r="54">
@@ -5355,16 +5355,16 @@
         <v>92</v>
       </c>
       <c r="B54" t="n">
-        <v>1164546.75</v>
+        <v>1249474.275</v>
       </c>
       <c r="C54" t="n">
         <v>0</v>
       </c>
       <c r="D54" t="n">
-        <v>-1037723.730105568</v>
+        <v>-1059544.175405806</v>
       </c>
       <c r="E54" t="n">
-        <v>126823.0198944324</v>
+        <v>189930.0995941937</v>
       </c>
     </row>
     <row r="55">
@@ -5372,16 +5372,16 @@
         <v>93</v>
       </c>
       <c r="B55" t="n">
-        <v>1195809.75</v>
+        <v>1283473.575</v>
       </c>
       <c r="C55" t="n">
         <v>0</v>
       </c>
       <c r="D55" t="n">
-        <v>-1129673.730105567</v>
+        <v>-1151434.175405806</v>
       </c>
       <c r="E55" t="n">
-        <v>66136.01989443274</v>
+        <v>132039.3995941938</v>
       </c>
     </row>
     <row r="56">
@@ -5389,16 +5389,16 @@
         <v>94</v>
       </c>
       <c r="B56" t="n">
-        <v>1227072.75</v>
+        <v>1317472.875</v>
       </c>
       <c r="C56" t="n">
         <v>0</v>
       </c>
       <c r="D56" t="n">
-        <v>-1221623.730105567</v>
+        <v>-1243324.175405806</v>
       </c>
       <c r="E56" t="n">
-        <v>5449.019894432509</v>
+        <v>74148.69959419384</v>
       </c>
     </row>
     <row r="57">
@@ -5406,16 +5406,16 @@
         <v>95</v>
       </c>
       <c r="B57" t="n">
-        <v>1258335.75</v>
+        <v>1351472.175</v>
       </c>
       <c r="C57" t="n">
         <v>0</v>
       </c>
       <c r="D57" t="n">
-        <v>-1313573.730105567</v>
+        <v>-1335214.175405806</v>
       </c>
       <c r="E57" t="n">
-        <v>-55237.98010556749</v>
+        <v>16257.99959419388</v>
       </c>
     </row>
   </sheetData>
@@ -5469,16 +5469,16 @@
         <v>40</v>
       </c>
       <c r="B2" t="n">
-        <v>-461129.25</v>
+        <v>-518489.325</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>-118223.7301055676</v>
+        <v>-48754.17540580614</v>
       </c>
       <c r="E2" t="n">
-        <v>-579352.9801055676</v>
+        <v>-567243.5004058061</v>
       </c>
     </row>
     <row r="3">
@@ -5486,16 +5486,16 @@
         <v>41</v>
       </c>
       <c r="B3" t="n">
-        <v>-429866.25</v>
+        <v>-484490.025</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>-26273.73010556759</v>
+        <v>-2809.175405806149</v>
       </c>
       <c r="E3" t="n">
-        <v>-456139.9801055676</v>
+        <v>-487299.2004058062</v>
       </c>
     </row>
     <row r="4">
@@ -5503,16 +5503,16 @@
         <v>42</v>
       </c>
       <c r="B4" t="n">
-        <v>-398603.25</v>
+        <v>-450490.725</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>65676.26989443241</v>
+        <v>43135.82459419385</v>
       </c>
       <c r="E4" t="n">
-        <v>-332926.9801055676</v>
+        <v>-407354.9004058062</v>
       </c>
     </row>
     <row r="5">
@@ -5520,16 +5520,16 @@
         <v>43</v>
       </c>
       <c r="B5" t="n">
-        <v>-367340.25</v>
+        <v>-416491.425</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>65676.26989443241</v>
+        <v>43135.82459419385</v>
       </c>
       <c r="E5" t="n">
-        <v>-301663.9801055676</v>
+        <v>-373355.6004058062</v>
       </c>
     </row>
     <row r="6">
@@ -5537,16 +5537,16 @@
         <v>44</v>
       </c>
       <c r="B6" t="n">
-        <v>-336077.25</v>
+        <v>-382492.125</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>65676.26989443241</v>
+        <v>43135.82459419385</v>
       </c>
       <c r="E6" t="n">
-        <v>-270400.9801055676</v>
+        <v>-339356.3004058062</v>
       </c>
     </row>
     <row r="7">
@@ -5554,16 +5554,16 @@
         <v>45</v>
       </c>
       <c r="B7" t="n">
-        <v>-304814.25</v>
+        <v>-348492.825</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>65676.26989443241</v>
+        <v>43135.82459419385</v>
       </c>
       <c r="E7" t="n">
-        <v>-239137.9801055676</v>
+        <v>-305357.0004058062</v>
       </c>
     </row>
     <row r="8">
@@ -5571,16 +5571,16 @@
         <v>46</v>
       </c>
       <c r="B8" t="n">
-        <v>-273551.25</v>
+        <v>-314493.525</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>65676.26989443241</v>
+        <v>43135.82459419385</v>
       </c>
       <c r="E8" t="n">
-        <v>-207874.9801055676</v>
+        <v>-271357.7004058062</v>
       </c>
     </row>
     <row r="9">
@@ -5588,16 +5588,16 @@
         <v>47</v>
       </c>
       <c r="B9" t="n">
-        <v>-242288.25</v>
+        <v>-280494.225</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>65676.26989443241</v>
+        <v>43135.82459419385</v>
       </c>
       <c r="E9" t="n">
-        <v>-176611.9801055676</v>
+        <v>-237358.4004058062</v>
       </c>
     </row>
     <row r="10">
@@ -5605,16 +5605,16 @@
         <v>48</v>
       </c>
       <c r="B10" t="n">
-        <v>-211025.25</v>
+        <v>-246494.925</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>65676.26989443241</v>
+        <v>43135.82459419385</v>
       </c>
       <c r="E10" t="n">
-        <v>-145348.9801055676</v>
+        <v>-203359.1004058062</v>
       </c>
     </row>
     <row r="11">
@@ -5622,16 +5622,16 @@
         <v>49</v>
       </c>
       <c r="B11" t="n">
-        <v>-179762.25</v>
+        <v>-212495.625</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>65676.26989443241</v>
+        <v>43135.82459419385</v>
       </c>
       <c r="E11" t="n">
-        <v>-114085.9801055676</v>
+        <v>-169359.8004058062</v>
       </c>
     </row>
     <row r="12">
@@ -5639,16 +5639,16 @@
         <v>50</v>
       </c>
       <c r="B12" t="n">
-        <v>-148499.25</v>
+        <v>-178496.325</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>65676.26989443241</v>
+        <v>43135.82459419385</v>
       </c>
       <c r="E12" t="n">
-        <v>-82822.98010556759</v>
+        <v>-135360.5004058062</v>
       </c>
     </row>
     <row r="13">
@@ -5656,16 +5656,16 @@
         <v>51</v>
       </c>
       <c r="B13" t="n">
-        <v>-117236.25</v>
+        <v>-144497.025</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>65676.26989443241</v>
+        <v>43135.82459419385</v>
       </c>
       <c r="E13" t="n">
-        <v>-51559.98010556759</v>
+        <v>-101361.2004058061</v>
       </c>
     </row>
     <row r="14">
@@ -5673,16 +5673,16 @@
         <v>52</v>
       </c>
       <c r="B14" t="n">
-        <v>-85973.25</v>
+        <v>-110497.725</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>65676.26989443241</v>
+        <v>43135.82459419385</v>
       </c>
       <c r="E14" t="n">
-        <v>-20296.98010556759</v>
+        <v>-67361.90040580615</v>
       </c>
     </row>
     <row r="15">
@@ -5690,16 +5690,16 @@
         <v>53</v>
       </c>
       <c r="B15" t="n">
-        <v>-54710.25</v>
+        <v>-76498.425</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>65676.26989443241</v>
+        <v>43135.82459419385</v>
       </c>
       <c r="E15" t="n">
-        <v>10966.01989443241</v>
+        <v>-33362.60040580615</v>
       </c>
     </row>
     <row r="16">
@@ -5707,16 +5707,16 @@
         <v>54</v>
       </c>
       <c r="B16" t="n">
-        <v>-23447.25</v>
+        <v>-42499.125</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>65676.26989443241</v>
+        <v>43135.82459419385</v>
       </c>
       <c r="E16" t="n">
-        <v>42229.01989443241</v>
+        <v>636.6995941938512</v>
       </c>
     </row>
     <row r="17">
@@ -5724,16 +5724,16 @@
         <v>55</v>
       </c>
       <c r="B17" t="n">
-        <v>7815.75</v>
+        <v>-8499.825000000001</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>65676.26989443241</v>
+        <v>43135.82459419385</v>
       </c>
       <c r="E17" t="n">
-        <v>73492.01989443241</v>
+        <v>34635.99959419385</v>
       </c>
     </row>
     <row r="18">
@@ -5741,16 +5741,16 @@
         <v>56</v>
       </c>
       <c r="B18" t="n">
-        <v>39078.75</v>
+        <v>25499.475</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>65676.26989443241</v>
+        <v>43135.82459419385</v>
       </c>
       <c r="E18" t="n">
-        <v>104755.0198944324</v>
+        <v>68635.29959419386</v>
       </c>
     </row>
     <row r="19">
@@ -5758,16 +5758,16 @@
         <v>57</v>
       </c>
       <c r="B19" t="n">
-        <v>70341.75</v>
+        <v>59498.775</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>65676.26989443241</v>
+        <v>43135.82459419385</v>
       </c>
       <c r="E19" t="n">
-        <v>136018.0198944324</v>
+        <v>102634.5995941939</v>
       </c>
     </row>
     <row r="20">
@@ -5775,16 +5775,16 @@
         <v>58</v>
       </c>
       <c r="B20" t="n">
-        <v>101604.75</v>
+        <v>93498.07500000001</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>65676.26989443241</v>
+        <v>43135.82459419385</v>
       </c>
       <c r="E20" t="n">
-        <v>167281.0198944324</v>
+        <v>136633.8995941938</v>
       </c>
     </row>
     <row r="21">
@@ -5792,16 +5792,16 @@
         <v>59</v>
       </c>
       <c r="B21" t="n">
-        <v>132867.75</v>
+        <v>127497.375</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>65676.26989443241</v>
+        <v>43135.82459419385</v>
       </c>
       <c r="E21" t="n">
-        <v>198544.0198944324</v>
+        <v>170633.1995941938</v>
       </c>
     </row>
     <row r="22">
@@ -5809,16 +5809,16 @@
         <v>60</v>
       </c>
       <c r="B22" t="n">
-        <v>164130.75</v>
+        <v>161496.675</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>65676.26989443241</v>
+        <v>43135.82459419385</v>
       </c>
       <c r="E22" t="n">
-        <v>229807.0198944324</v>
+        <v>204632.4995941939</v>
       </c>
     </row>
     <row r="23">
@@ -5826,16 +5826,16 @@
         <v>61</v>
       </c>
       <c r="B23" t="n">
-        <v>195393.75</v>
+        <v>195495.975</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>65676.26989443241</v>
+        <v>43135.82459419385</v>
       </c>
       <c r="E23" t="n">
-        <v>261070.0198944324</v>
+        <v>238631.7995941939</v>
       </c>
     </row>
     <row r="24">
@@ -5843,16 +5843,16 @@
         <v>62</v>
       </c>
       <c r="B24" t="n">
-        <v>226656.75</v>
+        <v>229495.275</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>65676.26989443241</v>
+        <v>43135.82459419385</v>
       </c>
       <c r="E24" t="n">
-        <v>292333.0198944324</v>
+        <v>272631.0995941939</v>
       </c>
     </row>
     <row r="25">
@@ -5860,16 +5860,16 @@
         <v>63</v>
       </c>
       <c r="B25" t="n">
-        <v>257919.75</v>
+        <v>263494.575</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>65676.26989443241</v>
+        <v>43135.82459419385</v>
       </c>
       <c r="E25" t="n">
-        <v>323596.0198944324</v>
+        <v>306630.3995941938</v>
       </c>
     </row>
     <row r="26">
@@ -5877,16 +5877,16 @@
         <v>64</v>
       </c>
       <c r="B26" t="n">
-        <v>289182.75</v>
+        <v>297493.875</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>65676.26989443241</v>
+        <v>43135.82459419385</v>
       </c>
       <c r="E26" t="n">
-        <v>354859.0198944324</v>
+        <v>340629.6995941938</v>
       </c>
     </row>
     <row r="27">
@@ -5894,16 +5894,16 @@
         <v>65</v>
       </c>
       <c r="B27" t="n">
-        <v>320445.75</v>
+        <v>331493.175</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>65676.26989443241</v>
+        <v>43135.82459419385</v>
       </c>
       <c r="E27" t="n">
-        <v>386122.0198944324</v>
+        <v>374628.9995941939</v>
       </c>
     </row>
     <row r="28">
@@ -5911,16 +5911,16 @@
         <v>66</v>
       </c>
       <c r="B28" t="n">
-        <v>351708.75</v>
+        <v>365492.475</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>19701.26989443241</v>
+        <v>-2809.175405806148</v>
       </c>
       <c r="E28" t="n">
-        <v>371410.0198944324</v>
+        <v>362683.2995941939</v>
       </c>
     </row>
     <row r="29">
@@ -5928,16 +5928,16 @@
         <v>67</v>
       </c>
       <c r="B29" t="n">
-        <v>382971.75</v>
+        <v>399491.775</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>-26273.73010556759</v>
+        <v>-48754.17540580616</v>
       </c>
       <c r="E29" t="n">
-        <v>356698.0198944324</v>
+        <v>350737.5995941939</v>
       </c>
     </row>
     <row r="30">
@@ -5945,16 +5945,16 @@
         <v>68</v>
       </c>
       <c r="B30" t="n">
-        <v>414234.75</v>
+        <v>433491.075</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>-72248.73010556759</v>
+        <v>-94699.17540580615</v>
       </c>
       <c r="E30" t="n">
-        <v>341986.0198944324</v>
+        <v>338791.8995941938</v>
       </c>
     </row>
     <row r="31">
@@ -5962,16 +5962,16 @@
         <v>69</v>
       </c>
       <c r="B31" t="n">
-        <v>445497.75</v>
+        <v>467490.375</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>-118223.7301055676</v>
+        <v>-140644.1754058062</v>
       </c>
       <c r="E31" t="n">
-        <v>327274.0198944324</v>
+        <v>326846.1995941938</v>
       </c>
     </row>
     <row r="32">
@@ -5979,16 +5979,16 @@
         <v>70</v>
       </c>
       <c r="B32" t="n">
-        <v>476760.75</v>
+        <v>501489.675</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>-164198.7301055676</v>
+        <v>-186589.1754058062</v>
       </c>
       <c r="E32" t="n">
-        <v>312562.0198944324</v>
+        <v>314900.4995941939</v>
       </c>
     </row>
     <row r="33">
@@ -5996,16 +5996,16 @@
         <v>71</v>
       </c>
       <c r="B33" t="n">
-        <v>508023.75</v>
+        <v>535488.975</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>-164198.7301055675</v>
+        <v>-186589.1754058061</v>
       </c>
       <c r="E33" t="n">
-        <v>343825.0198944325</v>
+        <v>348899.7995941938</v>
       </c>
     </row>
     <row r="34">
@@ -6013,16 +6013,16 @@
         <v>72</v>
       </c>
       <c r="B34" t="n">
-        <v>539286.75</v>
+        <v>569488.275</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>-164198.7301055676</v>
+        <v>-186589.1754058061</v>
       </c>
       <c r="E34" t="n">
-        <v>375088.0198944324</v>
+        <v>382899.0995941939</v>
       </c>
     </row>
     <row r="35">
@@ -6030,16 +6030,16 @@
         <v>73</v>
       </c>
       <c r="B35" t="n">
-        <v>570549.75</v>
+        <v>603487.5750000001</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>-164198.7301055676</v>
+        <v>-186589.1754058061</v>
       </c>
       <c r="E35" t="n">
-        <v>406351.0198944324</v>
+        <v>416898.399594194</v>
       </c>
     </row>
     <row r="36">
@@ -6047,16 +6047,16 @@
         <v>74</v>
       </c>
       <c r="B36" t="n">
-        <v>601812.75</v>
+        <v>637486.875</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>-164198.7301055676</v>
+        <v>-186589.1754058062</v>
       </c>
       <c r="E36" t="n">
-        <v>437614.0198944324</v>
+        <v>450897.6995941938</v>
       </c>
     </row>
     <row r="37">
@@ -6064,16 +6064,16 @@
         <v>75</v>
       </c>
       <c r="B37" t="n">
-        <v>633075.75</v>
+        <v>671486.175</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>-164198.7301055676</v>
+        <v>-186589.1754058062</v>
       </c>
       <c r="E37" t="n">
-        <v>468877.0198944324</v>
+        <v>484896.9995941939</v>
       </c>
     </row>
     <row r="38">
@@ -6081,16 +6081,16 @@
         <v>76</v>
       </c>
       <c r="B38" t="n">
-        <v>664338.75</v>
+        <v>705485.4750000001</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>-164198.7301055676</v>
+        <v>-186589.1754058062</v>
       </c>
       <c r="E38" t="n">
-        <v>500140.0198944324</v>
+        <v>518896.2995941939</v>
       </c>
     </row>
     <row r="39">
@@ -6098,16 +6098,16 @@
         <v>77</v>
       </c>
       <c r="B39" t="n">
-        <v>695601.75</v>
+        <v>739484.775</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>-164198.7301055677</v>
+        <v>-186589.1754058062</v>
       </c>
       <c r="E39" t="n">
-        <v>531403.0198944323</v>
+        <v>552895.5995941939</v>
       </c>
     </row>
     <row r="40">
@@ -6115,16 +6115,16 @@
         <v>78</v>
       </c>
       <c r="B40" t="n">
-        <v>726864.75</v>
+        <v>773484.0750000001</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>-164198.7301055677</v>
+        <v>-186589.1754058062</v>
       </c>
       <c r="E40" t="n">
-        <v>562666.0198944323</v>
+        <v>586894.8995941939</v>
       </c>
     </row>
     <row r="41">
@@ -6132,16 +6132,16 @@
         <v>79</v>
       </c>
       <c r="B41" t="n">
-        <v>758127.75</v>
+        <v>807483.375</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>-164198.7301055677</v>
+        <v>-186589.1754058062</v>
       </c>
       <c r="E41" t="n">
-        <v>593929.0198944323</v>
+        <v>620894.1995941938</v>
       </c>
     </row>
     <row r="42">
@@ -6149,16 +6149,16 @@
         <v>80</v>
       </c>
       <c r="B42" t="n">
-        <v>789390.75</v>
+        <v>841482.675</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>-164198.7301055677</v>
+        <v>-186589.1754058062</v>
       </c>
       <c r="E42" t="n">
-        <v>625192.0198944323</v>
+        <v>654893.4995941939</v>
       </c>
     </row>
     <row r="43">
@@ -6166,16 +6166,16 @@
         <v>81</v>
       </c>
       <c r="B43" t="n">
-        <v>820653.75</v>
+        <v>875481.9750000001</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>-210173.7301055677</v>
+        <v>-232534.1754058062</v>
       </c>
       <c r="E43" t="n">
-        <v>610480.0198944323</v>
+        <v>642947.7995941939</v>
       </c>
     </row>
     <row r="44">
@@ -6183,16 +6183,16 @@
         <v>82</v>
       </c>
       <c r="B44" t="n">
-        <v>851916.75</v>
+        <v>909481.275</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>-256148.7301055675</v>
+        <v>-278479.1754058062</v>
       </c>
       <c r="E44" t="n">
-        <v>595768.0198944325</v>
+        <v>631002.0995941937</v>
       </c>
     </row>
     <row r="45">
@@ -6200,16 +6200,16 @@
         <v>83</v>
       </c>
       <c r="B45" t="n">
-        <v>883179.75</v>
+        <v>943480.5750000001</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>-302123.7301055677</v>
+        <v>-324424.1754058063</v>
       </c>
       <c r="E45" t="n">
-        <v>581056.0198944323</v>
+        <v>619056.3995941938</v>
       </c>
     </row>
     <row r="46">
@@ -6217,16 +6217,16 @@
         <v>84</v>
       </c>
       <c r="B46" t="n">
-        <v>914442.75</v>
+        <v>977479.875</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>-348098.7301055677</v>
+        <v>-370369.1754058063</v>
       </c>
       <c r="E46" t="n">
-        <v>566344.0198944323</v>
+        <v>607110.6995941936</v>
       </c>
     </row>
     <row r="47">
@@ -6234,16 +6234,16 @@
         <v>85</v>
       </c>
       <c r="B47" t="n">
-        <v>945705.75</v>
+        <v>1011479.175</v>
       </c>
       <c r="C47" t="n">
         <v>0</v>
       </c>
       <c r="D47" t="n">
-        <v>-394073.7301055677</v>
+        <v>-416314.1754058064</v>
       </c>
       <c r="E47" t="n">
-        <v>551632.0198944323</v>
+        <v>595164.9995941937</v>
       </c>
     </row>
     <row r="48">
@@ -6251,16 +6251,16 @@
         <v>86</v>
       </c>
       <c r="B48" t="n">
-        <v>976968.75</v>
+        <v>1045478.475</v>
       </c>
       <c r="C48" t="n">
         <v>0</v>
       </c>
       <c r="D48" t="n">
-        <v>-486023.7301055676</v>
+        <v>-508204.1754058064</v>
       </c>
       <c r="E48" t="n">
-        <v>490945.0198944324</v>
+        <v>537274.2995941937</v>
       </c>
     </row>
     <row r="49">
@@ -6268,16 +6268,16 @@
         <v>87</v>
       </c>
       <c r="B49" t="n">
-        <v>1008231.75</v>
+        <v>1079477.775</v>
       </c>
       <c r="C49" t="n">
         <v>0</v>
       </c>
       <c r="D49" t="n">
-        <v>-577973.7301055675</v>
+        <v>-600094.1754058064</v>
       </c>
       <c r="E49" t="n">
-        <v>430258.0198944325</v>
+        <v>479383.5995941937</v>
       </c>
     </row>
     <row r="50">
@@ -6285,16 +6285,16 @@
         <v>88</v>
       </c>
       <c r="B50" t="n">
-        <v>1039494.75</v>
+        <v>1113477.075</v>
       </c>
       <c r="C50" t="n">
         <v>0</v>
       </c>
       <c r="D50" t="n">
-        <v>-669923.7301055674</v>
+        <v>-691984.1754058063</v>
       </c>
       <c r="E50" t="n">
-        <v>369571.0198944326</v>
+        <v>421492.8995941937</v>
       </c>
     </row>
     <row r="51">
@@ -6302,16 +6302,16 @@
         <v>89</v>
       </c>
       <c r="B51" t="n">
-        <v>1070757.75</v>
+        <v>1147476.375</v>
       </c>
       <c r="C51" t="n">
         <v>0</v>
       </c>
       <c r="D51" t="n">
-        <v>-761873.7301055675</v>
+        <v>-783874.1754058063</v>
       </c>
       <c r="E51" t="n">
-        <v>308884.0198944325</v>
+        <v>363602.1995941937</v>
       </c>
     </row>
     <row r="52">
@@ -6319,16 +6319,16 @@
         <v>90</v>
       </c>
       <c r="B52" t="n">
-        <v>1102020.75</v>
+        <v>1181475.675</v>
       </c>
       <c r="C52" t="n">
         <v>0</v>
       </c>
       <c r="D52" t="n">
-        <v>-853823.7301055675</v>
+        <v>-875764.1754058063</v>
       </c>
       <c r="E52" t="n">
-        <v>248197.0198944325</v>
+        <v>305711.4995941938</v>
       </c>
     </row>
     <row r="53">
@@ -6336,16 +6336,16 @@
         <v>91</v>
       </c>
       <c r="B53" t="n">
-        <v>1133283.75</v>
+        <v>1215474.975</v>
       </c>
       <c r="C53" t="n">
         <v>0</v>
       </c>
       <c r="D53" t="n">
-        <v>-945773.7301055675</v>
+        <v>-967654.1754058063</v>
       </c>
       <c r="E53" t="n">
-        <v>187510.0198944325</v>
+        <v>247820.7995941938</v>
       </c>
     </row>
     <row r="54">
@@ -6353,16 +6353,16 @@
         <v>92</v>
       </c>
       <c r="B54" t="n">
-        <v>1164546.75</v>
+        <v>1249474.275</v>
       </c>
       <c r="C54" t="n">
         <v>0</v>
       </c>
       <c r="D54" t="n">
-        <v>-1037723.730105568</v>
+        <v>-1059544.175405806</v>
       </c>
       <c r="E54" t="n">
-        <v>126823.0198944324</v>
+        <v>189930.0995941937</v>
       </c>
     </row>
     <row r="55">
@@ -6370,16 +6370,16 @@
         <v>93</v>
       </c>
       <c r="B55" t="n">
-        <v>1195809.75</v>
+        <v>1283473.575</v>
       </c>
       <c r="C55" t="n">
         <v>0</v>
       </c>
       <c r="D55" t="n">
-        <v>-1129673.730105567</v>
+        <v>-1151434.175405806</v>
       </c>
       <c r="E55" t="n">
-        <v>66136.01989443274</v>
+        <v>132039.3995941938</v>
       </c>
     </row>
     <row r="56">
@@ -6387,16 +6387,16 @@
         <v>94</v>
       </c>
       <c r="B56" t="n">
-        <v>1227072.75</v>
+        <v>1317472.875</v>
       </c>
       <c r="C56" t="n">
         <v>0</v>
       </c>
       <c r="D56" t="n">
-        <v>-1221623.730105567</v>
+        <v>-1243324.175405806</v>
       </c>
       <c r="E56" t="n">
-        <v>5449.019894432509</v>
+        <v>74148.69959419384</v>
       </c>
     </row>
     <row r="57">
@@ -6404,16 +6404,16 @@
         <v>95</v>
       </c>
       <c r="B57" t="n">
-        <v>1258335.75</v>
+        <v>1351472.175</v>
       </c>
       <c r="C57" t="n">
         <v>0</v>
       </c>
       <c r="D57" t="n">
-        <v>-1313573.730105567</v>
+        <v>-1335214.175405806</v>
       </c>
       <c r="E57" t="n">
-        <v>-55237.98010556749</v>
+        <v>16257.99959419388</v>
       </c>
     </row>
   </sheetData>
@@ -6467,16 +6467,16 @@
         <v>40</v>
       </c>
       <c r="B2" t="n">
-        <v>-461129.25</v>
+        <v>-518489.325</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>-331800.7281500666</v>
+        <v>-155959.4052703528</v>
       </c>
       <c r="E2" t="n">
-        <v>-792929.9781500667</v>
+        <v>-674448.7302703529</v>
       </c>
     </row>
     <row r="3">
@@ -6484,16 +6484,16 @@
         <v>41</v>
       </c>
       <c r="B3" t="n">
-        <v>-429866.25</v>
+        <v>-484490.025</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>-288336.0929964769</v>
+        <v>-134455.2734640061</v>
       </c>
       <c r="E3" t="n">
-        <v>-718202.3429964769</v>
+        <v>-618945.298464006</v>
       </c>
     </row>
     <row r="4">
@@ -6501,16 +6501,16 @@
         <v>42</v>
       </c>
       <c r="B4" t="n">
-        <v>-398603.25</v>
+        <v>-450490.725</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>-248836.6136624041</v>
+        <v>-115006.3260547146</v>
       </c>
       <c r="E4" t="n">
-        <v>-647439.8636624041</v>
+        <v>-565497.0510547146</v>
       </c>
     </row>
     <row r="5">
@@ -6518,16 +6518,16 @@
         <v>43</v>
       </c>
       <c r="B5" t="n">
-        <v>-367340.25</v>
+        <v>-416491.425</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>-213186.9469357879</v>
+        <v>-97573.32245290698</v>
       </c>
       <c r="E5" t="n">
-        <v>-580527.1969357879</v>
+        <v>-514064.747452907</v>
       </c>
     </row>
     <row r="6">
@@ -6535,16 +6535,16 @@
         <v>44</v>
       </c>
       <c r="B6" t="n">
-        <v>-336077.25</v>
+        <v>-382492.125</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>-181250.2430274976</v>
+        <v>-82108.90555378704</v>
       </c>
       <c r="E6" t="n">
-        <v>-517327.4930274977</v>
+        <v>-464601.030553787</v>
       </c>
     </row>
     <row r="7">
@@ -6552,16 +6552,16 @@
         <v>45</v>
       </c>
       <c r="B7" t="n">
-        <v>-304814.25</v>
+        <v>-348492.825</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>-152874.8729099875</v>
+        <v>-68560.95339683244</v>
       </c>
       <c r="E7" t="n">
-        <v>-457689.1229099875</v>
+        <v>-417053.7783968325</v>
       </c>
     </row>
     <row r="8">
@@ -6569,16 +6569,16 @@
         <v>46</v>
       </c>
       <c r="B8" t="n">
-        <v>-273551.25</v>
+        <v>-314493.525</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>-127900.6655499509</v>
+        <v>-56875.63065060975</v>
       </c>
       <c r="E8" t="n">
-        <v>-401451.9155499509</v>
+        <v>-371369.1556506098</v>
       </c>
     </row>
     <row r="9">
@@ -6586,16 +6586,16 @@
         <v>47</v>
       </c>
       <c r="B9" t="n">
-        <v>-242288.25</v>
+        <v>-280494.225</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>-106164.4772550365</v>
+        <v>-47000.05618801612</v>
       </c>
       <c r="E9" t="n">
-        <v>-348452.7272550365</v>
+        <v>-327494.2811880162</v>
       </c>
     </row>
     <row r="10">
@@ -6603,16 +6603,16 @@
         <v>48</v>
       </c>
       <c r="B10" t="n">
-        <v>-211025.25</v>
+        <v>-246494.925</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>-87504.98642754873</v>
+        <v>-38884.54045177588</v>
       </c>
       <c r="E10" t="n">
-        <v>-298530.2364275487</v>
+        <v>-285379.4654517759</v>
       </c>
     </row>
     <row r="11">
@@ -6620,16 +6620,16 @@
         <v>49</v>
       </c>
       <c r="B11" t="n">
-        <v>-179762.25</v>
+        <v>-212495.625</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>-71766.66750657528</v>
+        <v>-32484.37757893203</v>
       </c>
       <c r="E11" t="n">
-        <v>-251528.9175065753</v>
+        <v>-244980.002578932</v>
       </c>
     </row>
     <row r="12">
@@ -6637,16 +6637,16 @@
         <v>50</v>
       </c>
       <c r="B12" t="n">
-        <v>-148499.25</v>
+        <v>-178496.325</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>-58802.94623147747</v>
+        <v>-27761.20160822704</v>
       </c>
       <c r="E12" t="n">
-        <v>-207302.1962314775</v>
+        <v>-206257.5266082271</v>
       </c>
     </row>
     <row r="13">
@@ -6654,16 +6654,16 @@
         <v>51</v>
       </c>
       <c r="B13" t="n">
-        <v>-117236.25</v>
+        <v>-144497.025</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>-48478.57446343606</v>
+        <v>-24683.93360151627</v>
       </c>
       <c r="E13" t="n">
-        <v>-165714.8244634361</v>
+        <v>-169180.9586015163</v>
       </c>
     </row>
     <row r="14">
@@ -6671,16 +6671,16 @@
         <v>52</v>
       </c>
       <c r="B14" t="n">
-        <v>-85973.25</v>
+        <v>-110497.725</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>-40671.28756836335</v>
+        <v>-23229.35780972692</v>
       </c>
       <c r="E14" t="n">
-        <v>-126644.5375683633</v>
+        <v>-133727.0828097269</v>
       </c>
     </row>
     <row r="15">
@@ -6688,16 +6688,16 @@
         <v>53</v>
       </c>
       <c r="B15" t="n">
-        <v>-54710.25</v>
+        <v>-76498.425</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>-35272.82233721253</v>
+        <v>-23382.37109267748</v>
       </c>
       <c r="E15" t="n">
-        <v>-89983.07233721254</v>
+        <v>-99880.79609267748</v>
       </c>
     </row>
     <row r="16">
@@ -6705,16 +6705,16 @@
         <v>54</v>
       </c>
       <c r="B16" t="n">
-        <v>-23447.25</v>
+        <v>-42499.125</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>-32189.38044731346</v>
+        <v>-25135.95180103063</v>
       </c>
       <c r="E16" t="n">
-        <v>-55636.63044731346</v>
+        <v>-67635.07680103063</v>
       </c>
     </row>
     <row r="17">
@@ -6722,16 +6722,16 @@
         <v>55</v>
       </c>
       <c r="B17" t="n">
-        <v>7815.75</v>
+        <v>-8499.825000000001</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>-31341.62345096602</v>
+        <v>-28490.89338943164</v>
       </c>
       <c r="E17" t="n">
-        <v>-23525.87345096602</v>
+        <v>-36990.71838943164</v>
       </c>
     </row>
     <row r="18">
@@ -6739,16 +6739,16 @@
         <v>56</v>
       </c>
       <c r="B18" t="n">
-        <v>39078.75</v>
+        <v>25499.475</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>-32664.28198818282</v>
+        <v>-33455.34518874406</v>
       </c>
       <c r="E18" t="n">
-        <v>6414.468011817182</v>
+        <v>-7955.870188744058</v>
       </c>
     </row>
     <row r="19">
@@ -6756,16 +6756,16 @@
         <v>57</v>
       </c>
       <c r="B19" t="n">
-        <v>70341.75</v>
+        <v>59498.775</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>-36105.45589374451</v>
+        <v>-40044.19888764866</v>
       </c>
       <c r="E19" t="n">
-        <v>34236.29410625549</v>
+        <v>19454.57611235134</v>
       </c>
     </row>
     <row r="20">
@@ -6773,16 +6773,16 @@
         <v>58</v>
       </c>
       <c r="B20" t="n">
-        <v>101604.75</v>
+        <v>93498.07500000001</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>-41625.67434686334</v>
+        <v>-48278.35502603299</v>
       </c>
       <c r="E20" t="n">
-        <v>59979.07565313666</v>
+        <v>45219.71997396702</v>
       </c>
     </row>
     <row r="21">
@@ -6790,16 +6790,16 @@
         <v>59</v>
       </c>
       <c r="B21" t="n">
-        <v>132867.75</v>
+        <v>127497.375</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>-49196.77713401421</v>
+        <v>-58183.89965065749</v>
       </c>
       <c r="E21" t="n">
-        <v>83670.97286598579</v>
+        <v>69313.47534934251</v>
       </c>
     </row>
     <row r="22">
@@ -6807,16 +6807,16 @@
         <v>60</v>
       </c>
       <c r="B22" t="n">
-        <v>164130.75</v>
+        <v>161496.675</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>-58800.67011787396</v>
+        <v>-69791.21751221111</v>
       </c>
       <c r="E22" t="n">
-        <v>105330.079882126</v>
+        <v>91705.45748778891</v>
       </c>
     </row>
     <row r="23">
@@ -6824,16 +6824,16 @@
         <v>61</v>
       </c>
       <c r="B23" t="n">
-        <v>195393.75</v>
+        <v>195495.975</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>-70428.00054054859</v>
+        <v>-83134.06492683913</v>
       </c>
       <c r="E23" t="n">
-        <v>124965.7494594514</v>
+        <v>112361.9100731609</v>
       </c>
     </row>
     <row r="24">
@@ -6841,16 +6841,16 @@
         <v>62</v>
       </c>
       <c r="B24" t="n">
-        <v>226656.75</v>
+        <v>229495.275</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>-84076.79105357124</v>
+        <v>-98248.62270458903</v>
       </c>
       <c r="E24" t="n">
-        <v>142579.9589464288</v>
+        <v>131246.652295411</v>
       </c>
     </row>
     <row r="25">
@@ -6858,16 +6858,16 @@
         <v>63</v>
       </c>
       <c r="B25" t="n">
-        <v>257919.75</v>
+        <v>263494.575</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>-99751.06543168562</v>
+        <v>-115172.5473046212</v>
       </c>
       <c r="E25" t="n">
-        <v>158168.6845683144</v>
+        <v>148322.0276953788</v>
       </c>
     </row>
     <row r="26">
@@ -6875,16 +6875,16 @@
         <v>64</v>
       </c>
       <c r="B26" t="n">
-        <v>289182.75</v>
+        <v>297493.875</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>-117459.4937639762</v>
+        <v>-133944.036510197</v>
       </c>
       <c r="E26" t="n">
-        <v>171723.2562360239</v>
+        <v>163549.838489803</v>
       </c>
     </row>
     <row r="27">
@@ -6892,16 +6892,16 @@
         <v>65</v>
       </c>
       <c r="B27" t="n">
-        <v>320445.75</v>
+        <v>331493.175</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>-137214.080437266</v>
+        <v>-154600.9243055944</v>
       </c>
       <c r="E27" t="n">
-        <v>183231.669562734</v>
+        <v>176892.2506944056</v>
       </c>
     </row>
     <row r="28">
@@ -6909,16 +6909,16 @@
         <v>66</v>
       </c>
       <c r="B28" t="n">
-        <v>351708.75</v>
+        <v>365492.475</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>-159028.9143187277</v>
+        <v>-177179.8181659922</v>
       </c>
       <c r="E28" t="n">
-        <v>192679.8356812723</v>
+        <v>188312.6568340079</v>
       </c>
     </row>
     <row r="29">
@@ -6926,16 +6926,16 @@
         <v>67</v>
       </c>
       <c r="B29" t="n">
-        <v>382971.75</v>
+        <v>399491.775</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>-182918.9970895617</v>
+        <v>-201715.2905411646</v>
       </c>
       <c r="E29" t="n">
-        <v>200052.7529104383</v>
+        <v>197776.4844588354</v>
       </c>
     </row>
     <row r="30">
@@ -6943,16 +6943,16 @@
         <v>68</v>
       </c>
       <c r="B30" t="n">
-        <v>414234.75</v>
+        <v>433491.075</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>-208899.1625736346</v>
+        <v>-228239.1348514106</v>
       </c>
       <c r="E30" t="n">
-        <v>205335.5874263654</v>
+        <v>205251.9401485894</v>
       </c>
     </row>
     <row r="31">
@@ -6960,16 +6960,16 @@
         <v>69</v>
       </c>
       <c r="B31" t="n">
-        <v>445497.75</v>
+        <v>467490.375</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>-236983.0970595995</v>
+        <v>-256779.6947750724</v>
       </c>
       <c r="E31" t="n">
-        <v>208514.6529404005</v>
+        <v>210710.6802249276</v>
       </c>
     </row>
     <row r="32">
@@ -6977,16 +6977,16 @@
         <v>70</v>
       </c>
       <c r="B32" t="n">
-        <v>476760.75</v>
+        <v>501489.675</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>-267182.4679719254</v>
+        <v>-287361.2739744908</v>
       </c>
       <c r="E32" t="n">
-        <v>209578.2820280746</v>
+        <v>214128.4010255093</v>
       </c>
     </row>
     <row r="33">
@@ -6994,16 +6994,16 @@
         <v>71</v>
       </c>
       <c r="B33" t="n">
-        <v>508023.75</v>
+        <v>535488.975</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>-299506.1657695124</v>
+        <v>-320003.6316888711</v>
       </c>
       <c r="E33" t="n">
-        <v>208517.5842304876</v>
+        <v>215485.3433111289</v>
       </c>
     </row>
     <row r="34">
@@ -7011,16 +7011,16 @@
         <v>72</v>
       </c>
       <c r="B34" t="n">
-        <v>539286.75</v>
+        <v>569488.275</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>-333959.6616250112</v>
+        <v>-354721.5678446906</v>
       </c>
       <c r="E34" t="n">
-        <v>205327.0883749888</v>
+        <v>214766.7071553094</v>
       </c>
     </row>
     <row r="35">
@@ -7028,16 +7028,16 @@
         <v>73</v>
       </c>
       <c r="B35" t="n">
-        <v>570549.75</v>
+        <v>603487.5750000001</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>-370544.4812650167</v>
+        <v>-391524.5995365402</v>
       </c>
       <c r="E35" t="n">
-        <v>200005.2687349833</v>
+        <v>211962.9754634599</v>
       </c>
     </row>
     <row r="36">
@@ -7045,16 +7045,16 @@
         <v>74</v>
       </c>
       <c r="B36" t="n">
-        <v>601812.75</v>
+        <v>637486.875</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>-409257.7933437187</v>
+        <v>-430416.728960423</v>
       </c>
       <c r="E36" t="n">
-        <v>192554.9566562813</v>
+        <v>207070.146039577</v>
       </c>
     </row>
     <row r="37">
@@ -7062,16 +7062,16 @@
         <v>75</v>
       </c>
       <c r="B37" t="n">
-        <v>633075.75</v>
+        <v>671486.175</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>-450092.108899257</v>
+        <v>-471396.3011861527</v>
       </c>
       <c r="E37" t="n">
-        <v>182983.641100743</v>
+        <v>200089.8738138473</v>
       </c>
     </row>
     <row r="38">
@@ -7079,16 +7079,16 @@
         <v>76</v>
       </c>
       <c r="B38" t="n">
-        <v>664338.75</v>
+        <v>705485.4750000001</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>-493035.0868239154</v>
+        <v>-514455.9485818113</v>
       </c>
       <c r="E38" t="n">
-        <v>171303.6631760846</v>
+        <v>191029.5264181888</v>
       </c>
     </row>
     <row r="39">
@@ -7096,16 +7096,16 @@
         <v>77</v>
       </c>
       <c r="B39" t="n">
-        <v>695601.75</v>
+        <v>739484.775</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>-538069.4388854401</v>
+        <v>-559582.6172915061</v>
       </c>
       <c r="E39" t="n">
-        <v>157532.3111145599</v>
+        <v>179902.1577084939</v>
       </c>
     </row>
     <row r="40">
@@ -7113,16 +7113,16 @@
         <v>78</v>
       </c>
       <c r="B40" t="n">
-        <v>726864.75</v>
+        <v>773484.0750000001</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>-585172.9266817719</v>
+        <v>-606757.6699498981</v>
       </c>
       <c r="E40" t="n">
-        <v>141691.8233182281</v>
+        <v>166726.4050501019</v>
       </c>
     </row>
     <row r="41">
@@ -7130,16 +7130,16 @@
         <v>79</v>
       </c>
       <c r="B41" t="n">
-        <v>758127.75</v>
+        <v>807483.375</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>-634318.4420041074</v>
+        <v>-655957.0578159313</v>
       </c>
       <c r="E41" t="n">
-        <v>123809.3079958926</v>
+        <v>151526.3171840687</v>
       </c>
     </row>
     <row r="42">
@@ -7147,16 +7147,16 @@
         <v>80</v>
       </c>
       <c r="B42" t="n">
-        <v>789390.75</v>
+        <v>841482.675</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>-685474.1614248697</v>
+        <v>-707151.554736489</v>
       </c>
       <c r="E42" t="n">
-        <v>103916.5885751303</v>
+        <v>134331.1202635111</v>
       </c>
     </row>
     <row r="43">
@@ -7164,16 +7164,16 @@
         <v>81</v>
       </c>
       <c r="B43" t="n">
-        <v>820653.75</v>
+        <v>875481.9750000001</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>-738603.7655126335</v>
+        <v>-760307.0448116953</v>
       </c>
       <c r="E43" t="n">
-        <v>82049.98448736651</v>
+        <v>115174.9301883047</v>
       </c>
     </row>
     <row r="44">
@@ -7181,16 +7181,16 @@
         <v>82</v>
       </c>
       <c r="B44" t="n">
-        <v>851916.75</v>
+        <v>909481.275</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>-793666.7128932027</v>
+        <v>-815384.8553217649</v>
       </c>
       <c r="E44" t="n">
-        <v>58250.03710679733</v>
+        <v>94096.41967823508</v>
       </c>
     </row>
     <row r="45">
@@ -7198,16 +7198,16 @@
         <v>83</v>
       </c>
       <c r="B45" t="n">
-        <v>883179.75</v>
+        <v>943480.5750000001</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>-850618.5594074714</v>
+        <v>-872342.1263781114</v>
       </c>
       <c r="E45" t="n">
-        <v>32561.19059252855</v>
+        <v>71138.44862188864</v>
       </c>
     </row>
     <row r="46">
@@ -7215,16 +7215,16 @@
         <v>84</v>
       </c>
       <c r="B46" t="n">
-        <v>914442.75</v>
+        <v>977479.875</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>-909411.3128398206</v>
+        <v>-931132.2088597873</v>
       </c>
       <c r="E46" t="n">
-        <v>5031.437160179368</v>
+        <v>46347.66614021268</v>
       </c>
     </row>
     <row r="47">
@@ -7232,16 +7232,16 @@
         <v>85</v>
       </c>
       <c r="B47" t="n">
-        <v>945705.75</v>
+        <v>1011479.175</v>
       </c>
       <c r="C47" t="n">
         <v>0</v>
       </c>
       <c r="D47" t="n">
-        <v>-969993.8140807087</v>
+        <v>-991705.0824676896</v>
       </c>
       <c r="E47" t="n">
-        <v>-24288.06408070866</v>
+        <v>19774.0925323104</v>
       </c>
     </row>
     <row r="48">
@@ -7249,16 +7249,16 @@
         <v>86</v>
       </c>
       <c r="B48" t="n">
-        <v>976968.75</v>
+        <v>1045478.475</v>
       </c>
       <c r="C48" t="n">
         <v>0</v>
       </c>
       <c r="D48" t="n">
-        <v>-1032312.136115816</v>
+        <v>-1054007.786146858</v>
       </c>
       <c r="E48" t="n">
-        <v>-55343.38611581642</v>
+        <v>-8529.311146857915</v>
       </c>
     </row>
     <row r="49">
@@ -7266,16 +7266,16 @@
         <v>87</v>
       </c>
       <c r="B49" t="n">
-        <v>1008231.75</v>
+        <v>1079477.775</v>
       </c>
       <c r="C49" t="n">
         <v>0</v>
       </c>
       <c r="D49" t="n">
-        <v>-1096309.992873824</v>
+        <v>-1117984.853664752</v>
       </c>
       <c r="E49" t="n">
-        <v>-88078.24287382374</v>
+        <v>-38507.07866475196</v>
       </c>
     </row>
     <row r="50">
@@ -7283,16 +7283,16 @@
         <v>88</v>
       </c>
       <c r="B50" t="n">
-        <v>1039494.75</v>
+        <v>1113477.075</v>
       </c>
       <c r="C50" t="n">
         <v>0</v>
       </c>
       <c r="D50" t="n">
-        <v>-1161929.150687422</v>
+        <v>-1183578.747762708</v>
       </c>
       <c r="E50" t="n">
-        <v>-122434.4006874221</v>
+        <v>-70101.67276270851</v>
       </c>
     </row>
     <row r="51">
@@ -7300,16 +7300,16 @@
         <v>89</v>
       </c>
       <c r="B51" t="n">
-        <v>1070757.75</v>
+        <v>1147476.375</v>
       </c>
       <c r="C51" t="n">
         <v>0</v>
       </c>
       <c r="D51" t="n">
-        <v>-1229109.83590096</v>
+        <v>-1250730.286992331</v>
       </c>
       <c r="E51" t="n">
-        <v>-158352.0859009605</v>
+        <v>-103253.9119923308</v>
       </c>
     </row>
     <row r="52">
@@ -7317,16 +7317,16 @@
         <v>90</v>
       </c>
       <c r="B52" t="n">
-        <v>1102020.75</v>
+        <v>1181475.675</v>
       </c>
       <c r="C52" t="n">
         <v>0</v>
       </c>
       <c r="D52" t="n">
-        <v>-1297791.132968252</v>
+        <v>-1319379.06008322</v>
       </c>
       <c r="E52" t="n">
-        <v>-195770.3829682521</v>
+        <v>-137903.3850832204</v>
       </c>
     </row>
     <row r="53">
@@ -7334,16 +7334,16 @@
         <v>91</v>
       </c>
       <c r="B53" t="n">
-        <v>1133283.75</v>
+        <v>1215474.975</v>
       </c>
       <c r="C53" t="n">
         <v>0</v>
       </c>
       <c r="D53" t="n">
-        <v>-1367911.368203435</v>
+        <v>-1389463.823440555</v>
       </c>
       <c r="E53" t="n">
-        <v>-234627.6182034346</v>
+        <v>-173988.8484405545</v>
       </c>
     </row>
     <row r="54">
@@ -7351,16 +7351,16 @@
         <v>92</v>
       </c>
       <c r="B54" t="n">
-        <v>1164546.75</v>
+        <v>1249474.275</v>
       </c>
       <c r="C54" t="n">
         <v>0</v>
       </c>
       <c r="D54" t="n">
-        <v>-1439408.475156622</v>
+        <v>-1460922.878120398</v>
       </c>
       <c r="E54" t="n">
-        <v>-274861.725156622</v>
+        <v>-211448.603120398</v>
       </c>
     </row>
     <row r="55">
@@ -7368,16 +7368,16 @@
         <v>93</v>
       </c>
       <c r="B55" t="n">
-        <v>1195809.75</v>
+        <v>1283473.575</v>
       </c>
       <c r="C55" t="n">
         <v>0</v>
       </c>
       <c r="D55" t="n">
-        <v>-1512220.338368147</v>
+        <v>-1533694.423360337</v>
       </c>
       <c r="E55" t="n">
-        <v>-316410.5883681471</v>
+        <v>-250220.8483603364</v>
       </c>
     </row>
     <row r="56">
@@ -7385,16 +7385,16 @@
         <v>94</v>
       </c>
       <c r="B56" t="n">
-        <v>1227072.75</v>
+        <v>1317472.875</v>
       </c>
       <c r="C56" t="n">
         <v>0</v>
       </c>
       <c r="D56" t="n">
-        <v>-1586285.112996955</v>
+        <v>-1607716.884438893</v>
       </c>
       <c r="E56" t="n">
-        <v>-359212.3629969549</v>
+        <v>-290244.0094388933</v>
       </c>
     </row>
     <row r="57">
@@ -7402,16 +7402,16 @@
         <v>95</v>
       </c>
       <c r="B57" t="n">
-        <v>1258335.75</v>
+        <v>1351472.175</v>
       </c>
       <c r="C57" t="n">
         <v>0</v>
       </c>
       <c r="D57" t="n">
-        <v>-1661541.518509651</v>
+        <v>-1682929.213288167</v>
       </c>
       <c r="E57" t="n">
-        <v>-403205.7685096511</v>
+        <v>-331457.0382881667</v>
       </c>
     </row>
   </sheetData>
@@ -7465,16 +7465,16 @@
         <v>40</v>
       </c>
       <c r="B2" t="n">
-        <v>-461129.25</v>
+        <v>-518489.325</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>-317567.5484723588</v>
+        <v>-148588.7846745311</v>
       </c>
       <c r="E2" t="n">
-        <v>-778696.7984723588</v>
+        <v>-667078.1096745312</v>
       </c>
     </row>
     <row r="3">
@@ -7482,16 +7482,16 @@
         <v>41</v>
       </c>
       <c r="B3" t="n">
-        <v>-429866.25</v>
+        <v>-484490.025</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>-273130.7332925752</v>
+        <v>-126503.6471628179</v>
       </c>
       <c r="E3" t="n">
-        <v>-702996.9832925752</v>
+        <v>-610993.6721628179</v>
       </c>
     </row>
     <row r="4">
@@ -7499,16 +7499,16 @@
         <v>42</v>
       </c>
       <c r="B4" t="n">
-        <v>-398603.25</v>
+        <v>-450490.725</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>-232844.5181103327</v>
+        <v>-106541.7084018569</v>
       </c>
       <c r="E4" t="n">
-        <v>-631447.7681103328</v>
+        <v>-557032.4334018569</v>
       </c>
     </row>
     <row r="5">
@@ -7516,16 +7516,16 @@
         <v>43</v>
       </c>
       <c r="B5" t="n">
-        <v>-367340.25</v>
+        <v>-416491.425</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>-196580.2715431719</v>
+        <v>-88653.81267249555</v>
       </c>
       <c r="E5" t="n">
-        <v>-563920.521543172</v>
+        <v>-505145.2376724956</v>
       </c>
     </row>
     <row r="6">
@@ -7533,16 +7533,16 @@
         <v>44</v>
       </c>
       <c r="B6" t="n">
-        <v>-336077.25</v>
+        <v>-382492.125</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>-164181.7049617578</v>
+        <v>-72779.86633117739</v>
       </c>
       <c r="E6" t="n">
-        <v>-500258.9549617578</v>
+        <v>-455271.9913311774</v>
       </c>
     </row>
     <row r="7">
@@ -7550,16 +7550,16 @@
         <v>45</v>
       </c>
       <c r="B7" t="n">
-        <v>-304814.25</v>
+        <v>-348492.825</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>-135473.3407027405</v>
+        <v>-58853.18076015462</v>
       </c>
       <c r="E7" t="n">
-        <v>-440287.5907027405</v>
+        <v>-407346.0057601546</v>
       </c>
     </row>
     <row r="8">
@@ -7567,16 +7567,16 @@
         <v>46</v>
       </c>
       <c r="B8" t="n">
-        <v>-273551.25</v>
+        <v>-314493.525</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>-110268.4628379593</v>
+        <v>-46804.48014294219</v>
       </c>
       <c r="E8" t="n">
-        <v>-383819.7128379593</v>
+        <v>-361298.0051429422</v>
       </c>
     </row>
     <row r="9">
@@ -7584,16 +7584,16 @@
         <v>47</v>
       </c>
       <c r="B9" t="n">
-        <v>-242288.25</v>
+        <v>-280494.225</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>-88376.26288394036</v>
+        <v>-36565.42904445552</v>
       </c>
       <c r="E9" t="n">
-        <v>-330664.5128839404</v>
+        <v>-317059.6540444556</v>
       </c>
     </row>
     <row r="10">
@@ -7601,16 +7601,16 @@
         <v>48</v>
       </c>
       <c r="B10" t="n">
-        <v>-211025.25</v>
+        <v>-246494.925</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>-69607.99822814374</v>
+        <v>-28071.59250168002</v>
       </c>
       <c r="E10" t="n">
-        <v>-280633.2482281437</v>
+        <v>-274566.5175016801</v>
       </c>
     </row>
     <row r="11">
@@ -7618,16 +7618,16 @@
         <v>49</v>
       </c>
       <c r="B11" t="n">
-        <v>-179762.25</v>
+        <v>-212495.625</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>-53782.07446005539</v>
+        <v>-21264.79230892962</v>
       </c>
       <c r="E11" t="n">
-        <v>-233544.3244600554</v>
+        <v>-233760.4173089296</v>
       </c>
     </row>
     <row r="12">
@@ -7635,16 +7635,16 @@
         <v>50</v>
       </c>
       <c r="B12" t="n">
-        <v>-148499.25</v>
+        <v>-178496.325</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>-40728.03994208641</v>
+        <v>-16094.86488083264</v>
       </c>
       <c r="E12" t="n">
-        <v>-189227.2899420864</v>
+        <v>-194591.1898808327</v>
       </c>
     </row>
     <row r="13">
@@ -7652,16 +7652,16 @@
         <v>51</v>
       </c>
       <c r="B13" t="n">
-        <v>-117236.25</v>
+        <v>-144497.025</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>-30289.54009578734</v>
+        <v>-12520.85741765751</v>
       </c>
       <c r="E13" t="n">
-        <v>-147525.7900957873</v>
+        <v>-157017.8824176575</v>
       </c>
     </row>
     <row r="14">
@@ -7669,16 +7669,16 @@
         <v>52</v>
       </c>
       <c r="B14" t="n">
-        <v>-85973.25</v>
+        <v>-110497.725</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>-22326.32026109047</v>
+        <v>-10511.72018386128</v>
       </c>
       <c r="E14" t="n">
-        <v>-108299.5702610905</v>
+        <v>-121009.4451838613</v>
       </c>
     </row>
     <row r="15">
@@ -7686,16 +7686,16 @@
         <v>53</v>
       </c>
       <c r="B15" t="n">
-        <v>-54710.25</v>
+        <v>-76498.425</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>-16715.39126856082</v>
+        <v>-10046.56451394685</v>
       </c>
       <c r="E15" t="n">
-        <v>-71425.64126856082</v>
+        <v>-86544.98951394684</v>
       </c>
     </row>
     <row r="16">
@@ -7703,16 +7703,16 @@
         <v>54</v>
       </c>
       <c r="B16" t="n">
-        <v>-23447.25</v>
+        <v>-42499.125</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>-13351.48357236933</v>
+        <v>-11114.56020882681</v>
       </c>
       <c r="E16" t="n">
-        <v>-36798.73357236933</v>
+        <v>-53613.68520882681</v>
       </c>
     </row>
     <row r="17">
@@ -7720,16 +7720,16 @@
         <v>55</v>
       </c>
       <c r="B17" t="n">
-        <v>7815.75</v>
+        <v>-8499.825000000001</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>-12146.91685240795</v>
+        <v>-13714.54408341715</v>
       </c>
       <c r="E17" t="n">
-        <v>-4331.166852407954</v>
+        <v>-22214.36908341715</v>
       </c>
     </row>
     <row r="18">
@@ -7737,16 +7737,16 @@
         <v>56</v>
       </c>
       <c r="B18" t="n">
-        <v>39078.75</v>
+        <v>25499.475</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>-13031.00536940603</v>
+        <v>-17854.40541237654</v>
       </c>
       <c r="E18" t="n">
-        <v>26047.74463059397</v>
+        <v>7645.06958762346</v>
       </c>
     </row>
     <row r="19">
@@ -7754,16 +7754,16 @@
         <v>57</v>
       </c>
       <c r="B19" t="n">
-        <v>70341.75</v>
+        <v>59498.775</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>-15949.10777794679</v>
+        <v>-23550.30559548409</v>
       </c>
       <c r="E19" t="n">
-        <v>54392.64222205321</v>
+        <v>35948.46940451591</v>
       </c>
     </row>
     <row r="20">
@@ -7771,16 +7771,16 @@
         <v>58</v>
       </c>
       <c r="B20" t="n">
-        <v>101604.75</v>
+        <v>93498.07500000001</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>-20861.4159003082</v>
+        <v>-30825.77996736808</v>
       </c>
       <c r="E20" t="n">
-        <v>80743.3340996918</v>
+        <v>62672.29503263193</v>
       </c>
     </row>
     <row r="21">
@@ -7788,16 +7788,16 @@
         <v>59</v>
       </c>
       <c r="B21" t="n">
-        <v>132867.75</v>
+        <v>127497.375</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>-27741.56198671865</v>
+        <v>-39710.76042577305</v>
       </c>
       <c r="E21" t="n">
-        <v>105126.1880132814</v>
+        <v>87786.61457422696</v>
       </c>
     </row>
     <row r="22">
@@ -7805,16 +7805,16 @@
         <v>60</v>
       </c>
       <c r="B22" t="n">
-        <v>164130.75</v>
+        <v>161496.675</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>-36575.10958082411</v>
+        <v>-50240.5492261052</v>
       </c>
       <c r="E22" t="n">
-        <v>127555.6404191759</v>
+        <v>111256.1257738948</v>
       </c>
     </row>
     <row r="23">
@@ -7822,16 +7822,16 @@
         <v>61</v>
       </c>
       <c r="B23" t="n">
-        <v>195393.75</v>
+        <v>195495.975</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>-47357.98014949317</v>
+        <v>-62454.76734580858</v>
       </c>
       <c r="E23" t="n">
-        <v>148035.7698505068</v>
+        <v>133041.2076541914</v>
       </c>
     </row>
     <row r="24">
@@ -7839,16 +7839,16 @@
         <v>62</v>
       </c>
       <c r="B24" t="n">
-        <v>226656.75</v>
+        <v>229495.275</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>-60094.85659459319</v>
+        <v>-76396.29544303396</v>
       </c>
       <c r="E24" t="n">
-        <v>166561.8934054068</v>
+        <v>153098.979556966</v>
       </c>
     </row>
     <row r="25">
@@ -7856,16 +7856,16 @@
         <v>63</v>
       </c>
       <c r="B25" t="n">
-        <v>257919.75</v>
+        <v>263494.575</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>-74797.5957880904</v>
+        <v>-92110.22158631738</v>
       </c>
       <c r="E25" t="n">
-        <v>183122.1542119096</v>
+        <v>171384.3534136826</v>
       </c>
     </row>
     <row r="26">
@@ -7873,16 +7873,16 @@
         <v>64</v>
       </c>
       <c r="B26" t="n">
-        <v>289182.75</v>
+        <v>297493.875</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>-91483.67527025315</v>
+        <v>-109642.80742894</v>
       </c>
       <c r="E26" t="n">
-        <v>197699.0747297468</v>
+        <v>187851.06757106</v>
       </c>
     </row>
     <row r="27">
@@ -7890,16 +7890,16 @@
         <v>65</v>
       </c>
       <c r="B27" t="n">
-        <v>320445.75</v>
+        <v>331493.175</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>-110174.6939776242</v>
+        <v>-129040.4830645351</v>
       </c>
       <c r="E27" t="n">
-        <v>210271.0560223758</v>
+        <v>202452.6919354649</v>
       </c>
     </row>
     <row r="28">
@@ -7907,16 +7907,16 @@
         <v>66</v>
       </c>
       <c r="B28" t="n">
-        <v>351708.75</v>
+        <v>365492.475</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>-130894.942993075</v>
+        <v>-150348.8801122284</v>
       </c>
       <c r="E28" t="n">
-        <v>220813.8070069251</v>
+        <v>215143.5948877716</v>
       </c>
     </row>
     <row r="29">
@@ -7924,16 +7924,16 @@
         <v>67</v>
       </c>
       <c r="B29" t="n">
-        <v>382971.75</v>
+        <v>399491.775</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>-153670.0594792024</v>
+        <v>-173611.9123273357</v>
       </c>
       <c r="E29" t="n">
-        <v>229301.6905207976</v>
+        <v>225879.8626726644</v>
       </c>
     </row>
     <row r="30">
@@ -7941,16 +7941,16 @@
         <v>68</v>
       </c>
       <c r="B30" t="n">
-        <v>414234.75</v>
+        <v>433491.075</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>-178525.7748306018</v>
+        <v>-198870.9129399585</v>
       </c>
       <c r="E30" t="n">
-        <v>235708.9751693982</v>
+        <v>234620.1620600415</v>
       </c>
     </row>
     <row r="31">
@@ -7958,16 +7958,16 @@
         <v>69</v>
       </c>
       <c r="B31" t="n">
-        <v>445497.75</v>
+        <v>467490.375</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>-205486.7663683518</v>
+        <v>-226163.8377662497</v>
       </c>
       <c r="E31" t="n">
-        <v>240010.9836316482</v>
+        <v>241326.5372337503</v>
       </c>
     </row>
     <row r="32">
@@ -7975,16 +7975,16 @@
         <v>70</v>
       </c>
       <c r="B32" t="n">
-        <v>476760.75</v>
+        <v>501489.675</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>-234575.6203715751</v>
+        <v>-255524.5427572937</v>
       </c>
       <c r="E32" t="n">
-        <v>242185.1296284249</v>
+        <v>245965.1322427064</v>
       </c>
     </row>
     <row r="33">
@@ -7992,16 +7992,16 @@
         <v>71</v>
       </c>
       <c r="B33" t="n">
-        <v>508023.75</v>
+        <v>535488.975</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>-265811.9127335576</v>
+        <v>-286982.1439549052</v>
       </c>
       <c r="E33" t="n">
-        <v>242211.8372664424</v>
+        <v>248506.8310450948</v>
       </c>
     </row>
     <row r="34">
@@ -8009,16 +8009,16 @@
         <v>72</v>
       </c>
       <c r="B34" t="n">
-        <v>539286.75</v>
+        <v>569488.275</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>-299211.4119457591</v>
+        <v>-320560.4667780842</v>
       </c>
       <c r="E34" t="n">
-        <v>240075.3380542409</v>
+        <v>248927.8082219159</v>
       </c>
     </row>
     <row r="35">
@@ -8026,16 +8026,16 @@
         <v>73</v>
       </c>
       <c r="B35" t="n">
-        <v>570549.75</v>
+        <v>603487.5750000001</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>-334785.4074109553</v>
+        <v>-356277.5901840754</v>
       </c>
       <c r="E35" t="n">
-        <v>235764.3425890447</v>
+        <v>247209.9848159247</v>
       </c>
     </row>
     <row r="36">
@@ -8043,16 +8043,16 @@
         <v>74</v>
       </c>
       <c r="B36" t="n">
-        <v>601812.75</v>
+        <v>637486.875</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>-372540.1642708289</v>
+        <v>-394145.4895873646</v>
       </c>
       <c r="E36" t="n">
-        <v>229272.5857291711</v>
+        <v>243341.3854126354</v>
       </c>
     </row>
     <row r="37">
@@ -8060,16 +8060,16 @@
         <v>75</v>
       </c>
       <c r="B37" t="n">
-        <v>633075.75</v>
+        <v>671486.175</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>-412476.5040411445</v>
+        <v>-434169.7805577456</v>
       </c>
       <c r="E37" t="n">
-        <v>220599.2459588555</v>
+        <v>237316.3944422544</v>
       </c>
     </row>
     <row r="38">
@@ -8077,16 +8077,16 @@
         <v>76</v>
       </c>
       <c r="B38" t="n">
-        <v>664338.75</v>
+        <v>705485.4750000001</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>-454589.5084370608</v>
+        <v>-476349.5633471404</v>
       </c>
       <c r="E38" t="n">
-        <v>209749.2415629392</v>
+        <v>229135.9116528597</v>
       </c>
     </row>
     <row r="39">
@@ -8094,16 +8094,16 @@
         <v>77</v>
       </c>
       <c r="B39" t="n">
-        <v>695601.75</v>
+        <v>739484.775</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>-498868.3419106723</v>
+        <v>-520677.3663105205</v>
       </c>
       <c r="E39" t="n">
-        <v>196733.4080893277</v>
+        <v>218807.4086894795</v>
       </c>
     </row>
     <row r="40">
@@ -8111,16 +8111,16 @@
         <v>78</v>
       </c>
       <c r="B40" t="n">
-        <v>726864.75</v>
+        <v>773484.0750000001</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>-545296.1866808407</v>
+        <v>-567139.1843794987</v>
       </c>
       <c r="E40" t="n">
-        <v>181568.5633191593</v>
+        <v>206344.8906205014</v>
       </c>
     </row>
     <row r="41">
@@ -8128,16 +8128,16 @@
         <v>79</v>
       </c>
       <c r="B41" t="n">
-        <v>758127.75</v>
+        <v>807483.375</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>-593850.282474592</v>
+        <v>-615714.6069978317</v>
       </c>
       <c r="E41" t="n">
-        <v>164277.467525408</v>
+        <v>191768.7680021683</v>
       </c>
     </row>
     <row r="42">
@@ -8145,16 +8145,16 @@
         <v>80</v>
       </c>
       <c r="B42" t="n">
-        <v>789390.75</v>
+        <v>841482.675</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>-644502.0618709356</v>
+        <v>-666377.0284002809</v>
       </c>
       <c r="E42" t="n">
-        <v>144888.6881290644</v>
+        <v>175105.6465997192</v>
       </c>
     </row>
     <row r="43">
@@ -8162,16 +8162,16 @@
         <v>81</v>
       </c>
       <c r="B43" t="n">
-        <v>820653.75</v>
+        <v>875481.9750000001</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>-697217.3710791698</v>
+        <v>-719093.9318567694</v>
       </c>
       <c r="E43" t="n">
-        <v>123436.3789208302</v>
+        <v>156388.0431432307</v>
       </c>
     </row>
     <row r="44">
@@ -8179,16 +8179,16 @@
         <v>82</v>
       </c>
       <c r="B44" t="n">
-        <v>851916.75</v>
+        <v>909481.275</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>-751956.7652167361</v>
+        <v>-773827.2385414662</v>
       </c>
       <c r="E44" t="n">
-        <v>99959.98478326388</v>
+        <v>135654.0364585338</v>
       </c>
     </row>
     <row r="45">
@@ -8196,16 +8196,16 @@
         <v>83</v>
       </c>
       <c r="B45" t="n">
-        <v>883179.75</v>
+        <v>943480.5750000001</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>-808675.8666836962</v>
+        <v>-830533.7110330858</v>
       </c>
       <c r="E45" t="n">
-        <v>74503.88331630384</v>
+        <v>112946.8639669142</v>
       </c>
     </row>
     <row r="46">
@@ -8213,16 +8213,16 @@
         <v>84</v>
       </c>
       <c r="B46" t="n">
-        <v>914442.75</v>
+        <v>977479.875</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>-867325.775055591</v>
+        <v>-889165.4011048357</v>
       </c>
       <c r="E46" t="n">
-        <v>47116.97494440898</v>
+        <v>88314.47389516432</v>
       </c>
     </row>
     <row r="47">
@@ -8230,16 +8230,16 @@
         <v>85</v>
       </c>
       <c r="B47" t="n">
-        <v>945705.75</v>
+        <v>1011479.175</v>
       </c>
       <c r="C47" t="n">
         <v>0</v>
       </c>
       <c r="D47" t="n">
-        <v>-927853.517016093</v>
+        <v>-949670.1314039466</v>
       </c>
       <c r="E47" t="n">
-        <v>17852.23298390699</v>
+        <v>61809.0435960535</v>
       </c>
     </row>
     <row r="48">
@@ -8247,16 +8247,16 @@
         <v>86</v>
       </c>
       <c r="B48" t="n">
-        <v>976968.75</v>
+        <v>1045478.475</v>
       </c>
       <c r="C48" t="n">
         <v>0</v>
       </c>
       <c r="D48" t="n">
-        <v>-990202.5251983462</v>
+        <v>-1011992.000825056</v>
       </c>
       <c r="E48" t="n">
-        <v>-13233.77519834624</v>
+        <v>33486.47417494387</v>
       </c>
     </row>
     <row r="49">
@@ -8264,16 +8264,16 @@
         <v>87</v>
       </c>
       <c r="B49" t="n">
-        <v>1008231.75</v>
+        <v>1079477.775</v>
       </c>
       <c r="C49" t="n">
         <v>0</v>
       </c>
       <c r="D49" t="n">
-        <v>-1054313.13536595</v>
+        <v>-1076071.903815575</v>
       </c>
       <c r="E49" t="n">
-        <v>-46081.38536594994</v>
+        <v>3405.87118442473</v>
       </c>
     </row>
     <row r="50">
@@ -8281,16 +8281,16 @@
         <v>88</v>
       </c>
       <c r="B50" t="n">
-        <v>1039494.75</v>
+        <v>1113477.075</v>
       </c>
       <c r="C50" t="n">
         <v>0</v>
       </c>
       <c r="D50" t="n">
-        <v>-1120123.092103388</v>
+        <v>-1141848.054476214</v>
       </c>
       <c r="E50" t="n">
-        <v>-80628.34210338816</v>
+        <v>-28370.97947621439</v>
       </c>
     </row>
     <row r="51">
@@ -8298,16 +8298,16 @@
         <v>89</v>
       </c>
       <c r="B51" t="n">
-        <v>1070757.75</v>
+        <v>1147476.375</v>
       </c>
       <c r="C51" t="n">
         <v>0</v>
       </c>
       <c r="D51" t="n">
-        <v>-1187568.054061972</v>
+        <v>-1209256.50709591</v>
       </c>
       <c r="E51" t="n">
-        <v>-116810.3040619716</v>
+        <v>-61780.13209590991</v>
       </c>
     </row>
     <row r="52">
@@ -8315,16 +8315,16 @@
         <v>90</v>
       </c>
       <c r="B52" t="n">
-        <v>1102020.75</v>
+        <v>1181475.675</v>
       </c>
       <c r="C52" t="n">
         <v>0</v>
       </c>
       <c r="D52" t="n">
-        <v>-1256582.090781996</v>
+        <v>-1278231.665647346</v>
       </c>
       <c r="E52" t="n">
-        <v>-154561.340781996</v>
+        <v>-96755.99064734625</v>
       </c>
     </row>
     <row r="53">
@@ -8332,16 +8332,16 @@
         <v>91</v>
       </c>
       <c r="B53" t="n">
-        <v>1133283.75</v>
+        <v>1215474.975</v>
       </c>
       <c r="C53" t="n">
         <v>0</v>
       </c>
       <c r="D53" t="n">
-        <v>-1327098.164147054</v>
+        <v>-1348706.775728275</v>
       </c>
       <c r="E53" t="n">
-        <v>-193814.4141470538</v>
+        <v>-133231.800728275</v>
       </c>
     </row>
     <row r="54">
@@ -8349,16 +8349,16 @@
         <v>92</v>
       </c>
       <c r="B54" t="n">
-        <v>1164546.75</v>
+        <v>1249474.275</v>
       </c>
       <c r="C54" t="n">
         <v>0</v>
       </c>
       <c r="D54" t="n">
-        <v>-1399048.588588179</v>
+        <v>-1420614.39342963</v>
       </c>
       <c r="E54" t="n">
-        <v>-234501.8385881791</v>
+        <v>-171140.1184296298</v>
       </c>
     </row>
     <row r="55">
@@ -8366,16 +8366,16 @@
         <v>93</v>
       </c>
       <c r="B55" t="n">
-        <v>1195809.75</v>
+        <v>1283473.575</v>
       </c>
       <c r="C55" t="n">
         <v>0</v>
       </c>
       <c r="D55" t="n">
-        <v>-1472365.465212946</v>
+        <v>-1493886.826612121</v>
       </c>
       <c r="E55" t="n">
-        <v>-276555.7152129458</v>
+        <v>-210413.2516121212</v>
       </c>
     </row>
     <row r="56">
@@ -8383,16 +8383,16 @@
         <v>94</v>
       </c>
       <c r="B56" t="n">
-        <v>1227072.75</v>
+        <v>1317472.875</v>
       </c>
       <c r="C56" t="n">
         <v>0</v>
       </c>
       <c r="D56" t="n">
-        <v>-1546981.086061802</v>
+        <v>-1568456.5450515</v>
       </c>
       <c r="E56" t="n">
-        <v>-319908.3360618022</v>
+        <v>-250983.6700515</v>
       </c>
     </row>
     <row r="57">
@@ -8400,16 +8400,16 @@
         <v>95</v>
       </c>
       <c r="B57" t="n">
-        <v>1258335.75</v>
+        <v>1351472.175</v>
       </c>
       <c r="C57" t="n">
         <v>0</v>
       </c>
       <c r="D57" t="n">
-        <v>-1622828.305669418</v>
+        <v>-1644256.556846622</v>
       </c>
       <c r="E57" t="n">
-        <v>-364492.5556694176</v>
+        <v>-292784.3818466219</v>
       </c>
     </row>
   </sheetData>
